--- a/Final Report.xlsx
+++ b/Final Report.xlsx
@@ -42,13 +42,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="14"/>
     </font>
   </fonts>
   <fills count="2">
@@ -71,8 +75,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -438,7 +443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F46"/>
+  <dimension ref="A2:F46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,17 +451,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Document Ageing Report</t>
-        </is>
-      </c>
-    </row>
     <row r="2">
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>02.09.2025</t>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>Document Ageing Report as at 02.09.2025</t>
         </is>
       </c>
     </row>

--- a/Final Report.xlsx
+++ b/Final Report.xlsx
@@ -443,7 +443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:F46"/>
+  <dimension ref="B2:G47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,1153 +458,1153 @@
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+    <row r="4">
+      <c r="B4" t="inlineStr">
         <is>
           <t>Company</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>Account</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Document_currency</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>Amount_in_doc_curr</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Local_Currency</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Amount_in_local_currency</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="5">
+      <c r="B5" t="inlineStr">
         <is>
           <t>UN0100</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="C5" t="n">
         <v>63010001</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
         <v>-5075015.33</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
         <v>-5075015.33</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="6">
+      <c r="B6" t="inlineStr">
         <is>
           <t>UN0100</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="C6" t="n">
         <v>63010002</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
         <v>10602307.38</v>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
         <v>10602307.38</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="7">
+      <c r="B7" t="inlineStr">
         <is>
           <t>UN0100</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="C7" t="n">
         <v>63010011</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>LKR</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>LKR</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
         <v>-87328000</v>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
         <v>-468975.88</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="8">
+      <c r="B8" t="inlineStr">
         <is>
           <t>UN0100</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="C8" t="n">
         <v>63010012</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>LKR</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>LKR</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
         <v>104342390.88</v>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
         <v>560321.4199999999</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="9">
+      <c r="B9" t="inlineStr">
         <is>
           <t>UN0100</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="C9" t="n">
         <v>63010162</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
         <v>1200328.84</v>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
         <v>1200328.84</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="10">
+      <c r="B10" t="inlineStr">
         <is>
           <t>UN0100</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="C10" t="n">
         <v>63010502</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
         <v>3200350.16</v>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
         <v>3200350.16</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="11">
+      <c r="B11" t="inlineStr">
         <is>
           <t>UN0100</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="C11" t="n">
         <v>63010512</v>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>LKR</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>LKR</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
         <v>-10000000</v>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
         <v>-53702.81</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="12">
+      <c r="B12" t="inlineStr">
         <is>
           <t>UN0100</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="C12" t="n">
         <v>63020002</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>LKR</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>LKR</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
         <v>10096056</v>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
         <v>54218.67000000001</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="13">
+      <c r="B13" t="inlineStr">
         <is>
           <t>UN0100</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="C13" t="n">
         <v>63020022</v>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
         <v>1843.75</v>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
         <v>1843.75</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="14">
+      <c r="B14" t="inlineStr">
         <is>
           <t>UN0100</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="C14" t="n">
         <v>63020601</v>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>LKR</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>LKR</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
         <v>-5000000</v>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
         <v>-26851.4</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="15">
+      <c r="B15" t="inlineStr">
         <is>
           <t>UN0100</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="C15" t="n">
         <v>63020602</v>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>LKR</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>LKR</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
         <v>1058446.5</v>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
         <v>5684.16</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="16">
+      <c r="B16" t="inlineStr">
         <is>
           <t>UN0150</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="C16" t="n">
         <v>63010001</v>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
         <v>-1940771.46</v>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
         <v>-1940771.46</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="17">
+      <c r="B17" t="inlineStr">
         <is>
           <t>UN0150</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="C17" t="n">
         <v>63010002</v>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
         <v>4162651.11</v>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
         <v>4162651.11</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="18">
+      <c r="B18" t="inlineStr">
         <is>
           <t>UN0150</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="C18" t="n">
         <v>63010011</v>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>LKR</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>LKR</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
         <v>-776102967.9299999</v>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
         <v>-4167890.91</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="19">
+      <c r="B19" t="inlineStr">
         <is>
           <t>UN0150</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="C19" t="n">
         <v>63010012</v>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>LKR</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>LKR</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
         <v>750381525.09</v>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
         <v>4029172.38</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="20">
+      <c r="B20" t="inlineStr">
         <is>
           <t>UN0150</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="C20" t="n">
         <v>63010502</v>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
         <v>1283177.49</v>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
         <v>1283177.49</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="21">
+      <c r="B21" t="inlineStr">
         <is>
           <t>UN0150</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="C21" t="n">
         <v>63020001</v>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>LKR</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>LKR</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
         <v>-5249772.24</v>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
         <v>-28192.76</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="22">
+      <c r="B22" t="inlineStr">
         <is>
           <t>UN0150</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="C22" t="n">
         <v>63020002</v>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>LKR</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>LKR</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
         <v>6732115.42</v>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
         <v>36153.37</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="23">
+      <c r="B23" t="inlineStr">
         <is>
           <t>UN0150</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="C23" t="n">
         <v>63020022</v>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>LKR</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>LKR</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
         <v>-15000000</v>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
         <v>-80554.21000000001</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="24">
+      <c r="B24" t="inlineStr">
         <is>
           <t>UN0150</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="C24" t="n">
         <v>63020022</v>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
         <v>40</v>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
         <v>40</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="25">
+      <c r="B25" t="inlineStr">
         <is>
           <t>UN0150</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="C25" t="n">
         <v>63020601</v>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>LKR</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>LKR</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
         <v>-300</v>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
         <v>-1.61</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="26">
+      <c r="B26" t="inlineStr">
         <is>
           <t>UN0150</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="C26" t="n">
         <v>63020602</v>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>LKR</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>LKR</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
         <v>13304303.16</v>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
         <v>71447.85000000001</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="27">
+      <c r="B27" t="inlineStr">
         <is>
           <t>UN0150</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="C27" t="n">
         <v>63020621</v>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
         <v>-4375</v>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
         <v>-4375</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="28">
+      <c r="B28" t="inlineStr">
         <is>
           <t>UN0150</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="C28" t="n">
         <v>63070012</v>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
         <v>250851.46</v>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
         <v>250851.46</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="29">
+      <c r="B29" t="inlineStr">
         <is>
           <t>UN0150</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="C29" t="n">
         <v>63070501</v>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>LKR</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>LKR</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
         <v>-389064221.27</v>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
         <v>-2089384.14</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="30">
+      <c r="B30" t="inlineStr">
         <is>
           <t>UN0150</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="C30" t="n">
         <v>63070502</v>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>LKR</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>LKR</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
         <v>551275903.51</v>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
         <v>2960506.45</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="31">
+      <c r="B31" t="inlineStr">
         <is>
           <t>UN0151</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="C31" t="n">
         <v>63020001</v>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>LKR</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>LKR</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
         <v>127435</v>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
         <v>684.37</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="32">
+      <c r="B32" t="inlineStr">
         <is>
           <t>UN0151</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="C32" t="n">
         <v>63020002</v>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>LKR</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>LKR</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
         <v>-1915567</v>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
         <v>-10287.13</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>XT0150</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
+    <row r="33">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>XT0150</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
         <v>63010001</v>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
         <v>-6255768.25</v>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
         <v>-6255768.25</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>XT0150</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
+    <row r="34">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>XT0150</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
         <v>63010002</v>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
         <v>10138536.65</v>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
         <v>10138536.65</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>XT0150</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
+    <row r="35">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>XT0150</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
         <v>63010011</v>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>LKR</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>LKR</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
         <v>-1411025223.89</v>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
         <v>-7577601.72</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>XT0150</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
+    <row r="36">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>XT0150</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
         <v>63010012</v>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>LKR</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>LKR</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
         <v>1349137385.21</v>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
         <v>7244961.04</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>XT0150</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
+    <row r="37">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>XT0150</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
         <v>63010061</v>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>HKD</t>
         </is>
       </c>
-      <c r="D36" t="n">
+      <c r="E37" t="n">
         <v>-1800000</v>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
         <v>-232183.17</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>XT0150</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
+    <row r="38">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>XT0150</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
         <v>63010101</v>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>EUR</t>
         </is>
       </c>
-      <c r="D37" t="n">
+      <c r="E38" t="n">
         <v>-50029.99</v>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
         <v>-55688.38</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>XT0150</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
+    <row r="39">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>XT0150</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
         <v>63011001</v>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
         <v>-1006397.46</v>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
         <v>-1006397.46</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>XT0150</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
+    <row r="40">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>XT0150</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
         <v>63011011</v>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>LKR</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>LKR</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
         <v>-240245452.54</v>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
         <v>-1290185.31</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>XT0150</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
+    <row r="41">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>XT0150</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
         <v>63020001</v>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>LKR</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>LKR</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
         <v>-4382348.73</v>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
         <v>-23534.43</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>XT0150</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
+    <row r="42">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>XT0150</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
         <v>63020002</v>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>LKR</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>LKR</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
         <v>4928861.55</v>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
         <v>26469.37</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>XT0150</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
+    <row r="43">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>XT0150</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
         <v>63020011</v>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>LKR</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>LKR</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
         <v>-65000000</v>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
         <v>-349068.26</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>XT0150</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
+    <row r="44">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>XT0150</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
         <v>63020051</v>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>LKR</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>LKR</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
         <v>-35363469.34</v>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
         <v>-189911.76</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>XT0150</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
+    <row r="45">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>XT0150</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
         <v>63070001</v>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
         <v>-3658218.2</v>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
         <v>-3658218.2</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>XT0150</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
+    <row r="46">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>XT0150</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
         <v>63070002</v>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
         <v>4308857.31</v>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
         <v>4308857.31</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+    <row r="47">
+      <c r="B47" t="inlineStr">
         <is>
           <t>XT0151</t>
         </is>
       </c>
-      <c r="B46" t="n">
+      <c r="C47" t="n">
         <v>63020001</v>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>LKR</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>LKR</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
         <v>2785</v>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
         <v>14.92</v>
       </c>
     </row>

--- a/Final Report.xlsx
+++ b/Final Report.xlsx
@@ -55,12 +55,18 @@
       <sz val="14"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ADD8E6"/>
+        <bgColor rgb="00ADD8E6"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -75,9 +81,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -459,32 +466,32 @@
       </c>
     </row>
     <row r="4">
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>Company</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="2" t="inlineStr">
         <is>
           <t>Account</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" s="2" t="inlineStr">
         <is>
           <t>Document_currency</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>Amount_in_doc_curr</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>Local_Currency</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>Amount_in_local_currency</t>
         </is>

--- a/Final Report.xlsx
+++ b/Final Report.xlsx
@@ -69,7 +69,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -77,14 +77,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -450,14 +457,19 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:G47"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="2" customWidth="1" min="1" max="1"/>
+    <col width="41" customWidth="1" min="2" max="2"/>
+  </cols>
   <sheetData>
+    <row r="1"/>
     <row r="2">
       <c r="B2" s="1" t="inlineStr">
         <is>
@@ -498,1120 +510,1120 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr">
         <is>
           <t>UN0100</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="3" t="n">
         <v>63010001</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="n">
         <v>-5075015.33</v>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="n">
         <v>-5075015.33</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="3" t="inlineStr">
         <is>
           <t>UN0100</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="3" t="n">
         <v>63010002</v>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="n">
         <v>10602307.38</v>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
+      <c r="F6" s="3" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G6" s="3" t="n">
         <v>10602307.38</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>UN0100</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="3" t="n">
         <v>63010011</v>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>LKR</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>LKR</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="n">
         <v>-87328000</v>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G7" s="3" t="n">
         <v>-468975.88</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="3" t="inlineStr">
         <is>
           <t>UN0100</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="3" t="n">
         <v>63010012</v>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>LKR</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>LKR</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="n">
         <v>104342390.88</v>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G8" s="3" t="n">
         <v>560321.4199999999</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="3" t="inlineStr">
         <is>
           <t>UN0100</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="3" t="n">
         <v>63010162</v>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="n">
         <v>1200328.84</v>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G9" s="3" t="n">
         <v>1200328.84</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="3" t="inlineStr">
         <is>
           <t>UN0100</t>
         </is>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="3" t="n">
         <v>63010502</v>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="n">
         <v>3200350.16</v>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
+      <c r="F10" s="3" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G10" s="3" t="n">
         <v>3200350.16</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="3" t="inlineStr">
         <is>
           <t>UN0100</t>
         </is>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" s="3" t="n">
         <v>63010512</v>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>LKR</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>LKR</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="n">
         <v>-10000000</v>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G11" s="3" t="n">
         <v>-53702.81</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="inlineStr">
+      <c r="B12" s="3" t="inlineStr">
         <is>
           <t>UN0100</t>
         </is>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" s="3" t="n">
         <v>63020002</v>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>LKR</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>LKR</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="n">
         <v>10096056</v>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
+      <c r="F12" s="3" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G12" s="3" t="n">
         <v>54218.67000000001</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>UN0100</t>
         </is>
       </c>
-      <c r="C13" t="n">
+      <c r="C13" s="3" t="n">
         <v>63020022</v>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="n">
         <v>1843.75</v>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
+      <c r="F13" s="3" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G13" s="3" t="n">
         <v>1843.75</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" t="inlineStr">
+      <c r="B14" s="3" t="inlineStr">
         <is>
           <t>UN0100</t>
         </is>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" s="3" t="n">
         <v>63020601</v>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>LKR</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>LKR</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="n">
         <v>-5000000</v>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
+      <c r="F14" s="3" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G14" s="3" t="n">
         <v>-26851.4</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" t="inlineStr">
+      <c r="B15" s="3" t="inlineStr">
         <is>
           <t>UN0100</t>
         </is>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" s="3" t="n">
         <v>63020602</v>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>LKR</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>LKR</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="n">
         <v>1058446.5</v>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G15" s="3" t="n">
         <v>5684.16</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" t="inlineStr">
+      <c r="B16" s="3" t="inlineStr">
         <is>
           <t>UN0150</t>
         </is>
       </c>
-      <c r="C16" t="n">
+      <c r="C16" s="3" t="n">
         <v>63010001</v>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="n">
         <v>-1940771.46</v>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
+      <c r="F16" s="3" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G16" s="3" t="n">
         <v>-1940771.46</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" t="inlineStr">
+      <c r="B17" s="3" t="inlineStr">
         <is>
           <t>UN0150</t>
         </is>
       </c>
-      <c r="C17" t="n">
+      <c r="C17" s="3" t="n">
         <v>63010002</v>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="n">
         <v>4162651.11</v>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
+      <c r="F17" s="3" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G17" s="3" t="n">
         <v>4162651.11</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" t="inlineStr">
+      <c r="B18" s="3" t="inlineStr">
         <is>
           <t>UN0150</t>
         </is>
       </c>
-      <c r="C18" t="n">
+      <c r="C18" s="3" t="n">
         <v>63010011</v>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>LKR</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t>LKR</t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="n">
         <v>-776102967.9299999</v>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
+      <c r="F18" s="3" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G18" s="3" t="n">
         <v>-4167890.91</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" t="inlineStr">
+      <c r="B19" s="3" t="inlineStr">
         <is>
           <t>UN0150</t>
         </is>
       </c>
-      <c r="C19" t="n">
+      <c r="C19" s="3" t="n">
         <v>63010012</v>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>LKR</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
+      <c r="D19" s="3" t="inlineStr">
+        <is>
+          <t>LKR</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="n">
         <v>750381525.09</v>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
+      <c r="F19" s="3" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G19" s="3" t="n">
         <v>4029172.38</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" t="inlineStr">
+      <c r="B20" s="3" t="inlineStr">
         <is>
           <t>UN0150</t>
         </is>
       </c>
-      <c r="C20" t="n">
+      <c r="C20" s="3" t="n">
         <v>63010502</v>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
+      <c r="D20" s="3" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="n">
         <v>1283177.49</v>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
+      <c r="F20" s="3" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G20" s="3" t="n">
         <v>1283177.49</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" t="inlineStr">
+      <c r="B21" s="3" t="inlineStr">
         <is>
           <t>UN0150</t>
         </is>
       </c>
-      <c r="C21" t="n">
+      <c r="C21" s="3" t="n">
         <v>63020001</v>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>LKR</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
+      <c r="D21" s="3" t="inlineStr">
+        <is>
+          <t>LKR</t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="n">
         <v>-5249772.24</v>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
+      <c r="F21" s="3" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G21" s="3" t="n">
         <v>-28192.76</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" t="inlineStr">
+      <c r="B22" s="3" t="inlineStr">
         <is>
           <t>UN0150</t>
         </is>
       </c>
-      <c r="C22" t="n">
+      <c r="C22" s="3" t="n">
         <v>63020002</v>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>LKR</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
+      <c r="D22" s="3" t="inlineStr">
+        <is>
+          <t>LKR</t>
+        </is>
+      </c>
+      <c r="E22" s="3" t="n">
         <v>6732115.42</v>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
+      <c r="F22" s="3" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G22" s="3" t="n">
         <v>36153.37</v>
       </c>
     </row>
     <row r="23">
-      <c r="B23" t="inlineStr">
+      <c r="B23" s="3" t="inlineStr">
         <is>
           <t>UN0150</t>
         </is>
       </c>
-      <c r="C23" t="n">
+      <c r="C23" s="3" t="n">
         <v>63020022</v>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>LKR</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
+      <c r="D23" s="3" t="inlineStr">
+        <is>
+          <t>LKR</t>
+        </is>
+      </c>
+      <c r="E23" s="3" t="n">
         <v>-15000000</v>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
+      <c r="F23" s="3" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G23" s="3" t="n">
         <v>-80554.21000000001</v>
       </c>
     </row>
     <row r="24">
-      <c r="B24" t="inlineStr">
+      <c r="B24" s="3" t="inlineStr">
         <is>
           <t>UN0150</t>
         </is>
       </c>
-      <c r="C24" t="n">
+      <c r="C24" s="3" t="n">
         <v>63020022</v>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
+      <c r="D24" s="3" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E24" s="3" t="n">
         <v>40</v>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
+      <c r="F24" s="3" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G24" s="3" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="25">
-      <c r="B25" t="inlineStr">
+      <c r="B25" s="3" t="inlineStr">
         <is>
           <t>UN0150</t>
         </is>
       </c>
-      <c r="C25" t="n">
+      <c r="C25" s="3" t="n">
         <v>63020601</v>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>LKR</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
+      <c r="D25" s="3" t="inlineStr">
+        <is>
+          <t>LKR</t>
+        </is>
+      </c>
+      <c r="E25" s="3" t="n">
         <v>-300</v>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
+      <c r="F25" s="3" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G25" s="3" t="n">
         <v>-1.61</v>
       </c>
     </row>
     <row r="26">
-      <c r="B26" t="inlineStr">
+      <c r="B26" s="3" t="inlineStr">
         <is>
           <t>UN0150</t>
         </is>
       </c>
-      <c r="C26" t="n">
+      <c r="C26" s="3" t="n">
         <v>63020602</v>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>LKR</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
+      <c r="D26" s="3" t="inlineStr">
+        <is>
+          <t>LKR</t>
+        </is>
+      </c>
+      <c r="E26" s="3" t="n">
         <v>13304303.16</v>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G26" t="n">
+      <c r="F26" s="3" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G26" s="3" t="n">
         <v>71447.85000000001</v>
       </c>
     </row>
     <row r="27">
-      <c r="B27" t="inlineStr">
+      <c r="B27" s="3" t="inlineStr">
         <is>
           <t>UN0150</t>
         </is>
       </c>
-      <c r="C27" t="n">
+      <c r="C27" s="3" t="n">
         <v>63020621</v>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="E27" t="n">
+      <c r="D27" s="3" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E27" s="3" t="n">
         <v>-4375</v>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G27" t="n">
+      <c r="F27" s="3" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G27" s="3" t="n">
         <v>-4375</v>
       </c>
     </row>
     <row r="28">
-      <c r="B28" t="inlineStr">
+      <c r="B28" s="3" t="inlineStr">
         <is>
           <t>UN0150</t>
         </is>
       </c>
-      <c r="C28" t="n">
+      <c r="C28" s="3" t="n">
         <v>63070012</v>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
+      <c r="D28" s="3" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E28" s="3" t="n">
         <v>250851.46</v>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G28" t="n">
+      <c r="F28" s="3" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G28" s="3" t="n">
         <v>250851.46</v>
       </c>
     </row>
     <row r="29">
-      <c r="B29" t="inlineStr">
+      <c r="B29" s="3" t="inlineStr">
         <is>
           <t>UN0150</t>
         </is>
       </c>
-      <c r="C29" t="n">
+      <c r="C29" s="3" t="n">
         <v>63070501</v>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>LKR</t>
-        </is>
-      </c>
-      <c r="E29" t="n">
+      <c r="D29" s="3" t="inlineStr">
+        <is>
+          <t>LKR</t>
+        </is>
+      </c>
+      <c r="E29" s="3" t="n">
         <v>-389064221.27</v>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G29" t="n">
+      <c r="F29" s="3" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G29" s="3" t="n">
         <v>-2089384.14</v>
       </c>
     </row>
     <row r="30">
-      <c r="B30" t="inlineStr">
+      <c r="B30" s="3" t="inlineStr">
         <is>
           <t>UN0150</t>
         </is>
       </c>
-      <c r="C30" t="n">
+      <c r="C30" s="3" t="n">
         <v>63070502</v>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>LKR</t>
-        </is>
-      </c>
-      <c r="E30" t="n">
+      <c r="D30" s="3" t="inlineStr">
+        <is>
+          <t>LKR</t>
+        </is>
+      </c>
+      <c r="E30" s="3" t="n">
         <v>551275903.51</v>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G30" t="n">
+      <c r="F30" s="3" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G30" s="3" t="n">
         <v>2960506.45</v>
       </c>
     </row>
     <row r="31">
-      <c r="B31" t="inlineStr">
+      <c r="B31" s="3" t="inlineStr">
         <is>
           <t>UN0151</t>
         </is>
       </c>
-      <c r="C31" t="n">
+      <c r="C31" s="3" t="n">
         <v>63020001</v>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>LKR</t>
-        </is>
-      </c>
-      <c r="E31" t="n">
+      <c r="D31" s="3" t="inlineStr">
+        <is>
+          <t>LKR</t>
+        </is>
+      </c>
+      <c r="E31" s="3" t="n">
         <v>127435</v>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G31" t="n">
+      <c r="F31" s="3" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G31" s="3" t="n">
         <v>684.37</v>
       </c>
     </row>
     <row r="32">
-      <c r="B32" t="inlineStr">
+      <c r="B32" s="3" t="inlineStr">
         <is>
           <t>UN0151</t>
         </is>
       </c>
-      <c r="C32" t="n">
+      <c r="C32" s="3" t="n">
         <v>63020002</v>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>LKR</t>
-        </is>
-      </c>
-      <c r="E32" t="n">
+      <c r="D32" s="3" t="inlineStr">
+        <is>
+          <t>LKR</t>
+        </is>
+      </c>
+      <c r="E32" s="3" t="n">
         <v>-1915567</v>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G32" t="n">
+      <c r="F32" s="3" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G32" s="3" t="n">
         <v>-10287.13</v>
       </c>
     </row>
     <row r="33">
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>XT0150</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>XT0150</t>
+        </is>
+      </c>
+      <c r="C33" s="3" t="n">
         <v>63010001</v>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="E33" t="n">
+      <c r="D33" s="3" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E33" s="3" t="n">
         <v>-6255768.25</v>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G33" t="n">
+      <c r="F33" s="3" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G33" s="3" t="n">
         <v>-6255768.25</v>
       </c>
     </row>
     <row r="34">
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>XT0150</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>XT0150</t>
+        </is>
+      </c>
+      <c r="C34" s="3" t="n">
         <v>63010002</v>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="E34" t="n">
+      <c r="D34" s="3" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E34" s="3" t="n">
         <v>10138536.65</v>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G34" t="n">
+      <c r="F34" s="3" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G34" s="3" t="n">
         <v>10138536.65</v>
       </c>
     </row>
     <row r="35">
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>XT0150</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>XT0150</t>
+        </is>
+      </c>
+      <c r="C35" s="3" t="n">
         <v>63010011</v>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>LKR</t>
-        </is>
-      </c>
-      <c r="E35" t="n">
+      <c r="D35" s="3" t="inlineStr">
+        <is>
+          <t>LKR</t>
+        </is>
+      </c>
+      <c r="E35" s="3" t="n">
         <v>-1411025223.89</v>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G35" t="n">
+      <c r="F35" s="3" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G35" s="3" t="n">
         <v>-7577601.72</v>
       </c>
     </row>
     <row r="36">
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>XT0150</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>XT0150</t>
+        </is>
+      </c>
+      <c r="C36" s="3" t="n">
         <v>63010012</v>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>LKR</t>
-        </is>
-      </c>
-      <c r="E36" t="n">
+      <c r="D36" s="3" t="inlineStr">
+        <is>
+          <t>LKR</t>
+        </is>
+      </c>
+      <c r="E36" s="3" t="n">
         <v>1349137385.21</v>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G36" t="n">
+      <c r="F36" s="3" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G36" s="3" t="n">
         <v>7244961.04</v>
       </c>
     </row>
     <row r="37">
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>XT0150</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>XT0150</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="n">
         <v>63010061</v>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="D37" s="3" t="inlineStr">
         <is>
           <t>HKD</t>
         </is>
       </c>
-      <c r="E37" t="n">
+      <c r="E37" s="3" t="n">
         <v>-1800000</v>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G37" t="n">
+      <c r="F37" s="3" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G37" s="3" t="n">
         <v>-232183.17</v>
       </c>
     </row>
     <row r="38">
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>XT0150</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>XT0150</t>
+        </is>
+      </c>
+      <c r="C38" s="3" t="n">
         <v>63010101</v>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="D38" s="3" t="inlineStr">
         <is>
           <t>EUR</t>
         </is>
       </c>
-      <c r="E38" t="n">
+      <c r="E38" s="3" t="n">
         <v>-50029.99</v>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G38" t="n">
+      <c r="F38" s="3" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G38" s="3" t="n">
         <v>-55688.38</v>
       </c>
     </row>
     <row r="39">
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>XT0150</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>XT0150</t>
+        </is>
+      </c>
+      <c r="C39" s="3" t="n">
         <v>63011001</v>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="E39" t="n">
+      <c r="D39" s="3" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E39" s="3" t="n">
         <v>-1006397.46</v>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G39" t="n">
+      <c r="F39" s="3" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G39" s="3" t="n">
         <v>-1006397.46</v>
       </c>
     </row>
     <row r="40">
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>XT0150</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>XT0150</t>
+        </is>
+      </c>
+      <c r="C40" s="3" t="n">
         <v>63011011</v>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>LKR</t>
-        </is>
-      </c>
-      <c r="E40" t="n">
+      <c r="D40" s="3" t="inlineStr">
+        <is>
+          <t>LKR</t>
+        </is>
+      </c>
+      <c r="E40" s="3" t="n">
         <v>-240245452.54</v>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G40" t="n">
+      <c r="F40" s="3" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G40" s="3" t="n">
         <v>-1290185.31</v>
       </c>
     </row>
     <row r="41">
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>XT0150</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>XT0150</t>
+        </is>
+      </c>
+      <c r="C41" s="3" t="n">
         <v>63020001</v>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>LKR</t>
-        </is>
-      </c>
-      <c r="E41" t="n">
+      <c r="D41" s="3" t="inlineStr">
+        <is>
+          <t>LKR</t>
+        </is>
+      </c>
+      <c r="E41" s="3" t="n">
         <v>-4382348.73</v>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G41" t="n">
+      <c r="F41" s="3" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G41" s="3" t="n">
         <v>-23534.43</v>
       </c>
     </row>
     <row r="42">
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>XT0150</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>XT0150</t>
+        </is>
+      </c>
+      <c r="C42" s="3" t="n">
         <v>63020002</v>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>LKR</t>
-        </is>
-      </c>
-      <c r="E42" t="n">
+      <c r="D42" s="3" t="inlineStr">
+        <is>
+          <t>LKR</t>
+        </is>
+      </c>
+      <c r="E42" s="3" t="n">
         <v>4928861.55</v>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G42" t="n">
+      <c r="F42" s="3" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G42" s="3" t="n">
         <v>26469.37</v>
       </c>
     </row>
     <row r="43">
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>XT0150</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>XT0150</t>
+        </is>
+      </c>
+      <c r="C43" s="3" t="n">
         <v>63020011</v>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>LKR</t>
-        </is>
-      </c>
-      <c r="E43" t="n">
+      <c r="D43" s="3" t="inlineStr">
+        <is>
+          <t>LKR</t>
+        </is>
+      </c>
+      <c r="E43" s="3" t="n">
         <v>-65000000</v>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G43" t="n">
+      <c r="F43" s="3" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G43" s="3" t="n">
         <v>-349068.26</v>
       </c>
     </row>
     <row r="44">
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>XT0150</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>XT0150</t>
+        </is>
+      </c>
+      <c r="C44" s="3" t="n">
         <v>63020051</v>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>LKR</t>
-        </is>
-      </c>
-      <c r="E44" t="n">
+      <c r="D44" s="3" t="inlineStr">
+        <is>
+          <t>LKR</t>
+        </is>
+      </c>
+      <c r="E44" s="3" t="n">
         <v>-35363469.34</v>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G44" t="n">
+      <c r="F44" s="3" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G44" s="3" t="n">
         <v>-189911.76</v>
       </c>
     </row>
     <row r="45">
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>XT0150</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>XT0150</t>
+        </is>
+      </c>
+      <c r="C45" s="3" t="n">
         <v>63070001</v>
       </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="E45" t="n">
+      <c r="D45" s="3" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E45" s="3" t="n">
         <v>-3658218.2</v>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G45" t="n">
+      <c r="F45" s="3" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G45" s="3" t="n">
         <v>-3658218.2</v>
       </c>
     </row>
     <row r="46">
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>XT0150</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>XT0150</t>
+        </is>
+      </c>
+      <c r="C46" s="3" t="n">
         <v>63070002</v>
       </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="E46" t="n">
+      <c r="D46" s="3" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E46" s="3" t="n">
         <v>4308857.31</v>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G46" t="n">
+      <c r="F46" s="3" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G46" s="3" t="n">
         <v>4308857.31</v>
       </c>
     </row>
     <row r="47">
-      <c r="B47" t="inlineStr">
+      <c r="B47" s="3" t="inlineStr">
         <is>
           <t>XT0151</t>
         </is>
       </c>
-      <c r="C47" t="n">
+      <c r="C47" s="3" t="n">
         <v>63020001</v>
       </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>LKR</t>
-        </is>
-      </c>
-      <c r="E47" t="n">
+      <c r="D47" s="3" t="inlineStr">
+        <is>
+          <t>LKR</t>
+        </is>
+      </c>
+      <c r="E47" s="3" t="n">
         <v>2785</v>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G47" t="n">
+      <c r="F47" s="3" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G47" s="3" t="n">
         <v>14.92</v>
       </c>
     </row>

--- a/Final Report.xlsx
+++ b/Final Report.xlsx
@@ -473,7 +473,7 @@
     <row r="2">
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Document Ageing Report as at 02.09.2025</t>
+          <t>Document Ageing Report as at 03.09.2025</t>
         </is>
       </c>
     </row>
@@ -1739,7 +1739,7 @@
         <v>5539.16</v>
       </c>
       <c r="J2" t="n">
-        <v>2066</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="3">
@@ -1783,7 +1783,7 @@
         <v>3487.33</v>
       </c>
       <c r="J3" t="n">
-        <v>2066</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="4">
@@ -1827,7 +1827,7 @@
         <v>24343.56</v>
       </c>
       <c r="J4" t="n">
-        <v>1975</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="5">
@@ -1871,7 +1871,7 @@
         <v>15331.34</v>
       </c>
       <c r="J5" t="n">
-        <v>1975</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="6">
@@ -1915,7 +1915,7 @@
         <v>26175.83</v>
       </c>
       <c r="J6" t="n">
-        <v>1975</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="7">
@@ -1959,7 +1959,7 @@
         <v>145</v>
       </c>
       <c r="J7" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="8">
@@ -2394,7 +2394,7 @@
         <v>-44.57</v>
       </c>
       <c r="J2" t="n">
-        <v>2035</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="3">
@@ -2438,7 +2438,7 @@
         <v>-498630.58</v>
       </c>
       <c r="J3" t="n">
-        <v>1975</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="4">
@@ -2482,7 +2482,7 @@
         <v>-661.4400000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="5">
@@ -2526,7 +2526,7 @@
         <v>-268.51</v>
       </c>
       <c r="J5" t="n">
-        <v>2066</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="6">
@@ -2570,7 +2570,7 @@
         <v>-268.51</v>
       </c>
       <c r="J6" t="n">
-        <v>2066</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="7">
@@ -2614,7 +2614,7 @@
         <v>-268.51</v>
       </c>
       <c r="J7" t="n">
-        <v>2066</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="8">
@@ -2658,7 +2658,7 @@
         <v>-268.51</v>
       </c>
       <c r="J8" t="n">
-        <v>2066</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="9">
@@ -2702,7 +2702,7 @@
         <v>-268.51</v>
       </c>
       <c r="J9" t="n">
-        <v>2035</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="10">
@@ -2746,7 +2746,7 @@
         <v>-268.51</v>
       </c>
       <c r="J10" t="n">
-        <v>2035</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="11">
@@ -2790,7 +2790,7 @@
         <v>-268.51</v>
       </c>
       <c r="J11" t="n">
-        <v>2035</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="12">
@@ -2834,7 +2834,7 @@
         <v>-268.51</v>
       </c>
       <c r="J12" t="n">
-        <v>2035</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="13">
@@ -2878,7 +2878,7 @@
         <v>-268.51</v>
       </c>
       <c r="J13" t="n">
-        <v>2035</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="14">
@@ -2922,7 +2922,7 @@
         <v>-268.51</v>
       </c>
       <c r="J14" t="n">
-        <v>2035</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="15">
@@ -2966,7 +2966,7 @@
         <v>-268.51</v>
       </c>
       <c r="J15" t="n">
-        <v>2066</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="16">
@@ -3010,7 +3010,7 @@
         <v>-268.51</v>
       </c>
       <c r="J16" t="n">
-        <v>2035</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="17">
@@ -3054,7 +3054,7 @@
         <v>-268.51</v>
       </c>
       <c r="J17" t="n">
-        <v>2035</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="18">
@@ -3098,7 +3098,7 @@
         <v>-268.51</v>
       </c>
       <c r="J18" t="n">
-        <v>2035</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="19">
@@ -3142,7 +3142,7 @@
         <v>-268.51</v>
       </c>
       <c r="J19" t="n">
-        <v>2035</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="20">
@@ -3186,7 +3186,7 @@
         <v>-268.51</v>
       </c>
       <c r="J20" t="n">
-        <v>2035</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="21">
@@ -3230,7 +3230,7 @@
         <v>-268.51</v>
       </c>
       <c r="J21" t="n">
-        <v>2035</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="22">
@@ -3274,7 +3274,7 @@
         <v>-206.76</v>
       </c>
       <c r="J22" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="23">
@@ -3318,7 +3318,7 @@
         <v>-201.39</v>
       </c>
       <c r="J23" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="24">
@@ -3362,7 +3362,7 @@
         <v>-75.63</v>
       </c>
       <c r="J24" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="25">
@@ -3406,7 +3406,7 @@
         <v>-268.51</v>
       </c>
       <c r="J25" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="26">
@@ -3448,7 +3448,7 @@
         <v>-268.51</v>
       </c>
       <c r="J26" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="27">
@@ -3490,7 +3490,7 @@
         <v>-268.51</v>
       </c>
       <c r="J27" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="28">
@@ -3534,7 +3534,7 @@
         <v>-268.51</v>
       </c>
       <c r="J28" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="29">
@@ -3578,7 +3578,7 @@
         <v>-268.51</v>
       </c>
       <c r="J29" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="30">
@@ -3622,7 +3622,7 @@
         <v>-268.51</v>
       </c>
       <c r="J30" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="31">
@@ -3666,7 +3666,7 @@
         <v>-120.51</v>
       </c>
       <c r="J31" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="32">
@@ -3710,7 +3710,7 @@
         <v>-198625.21</v>
       </c>
       <c r="J32" t="n">
-        <v>1792</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="33">
@@ -3752,7 +3752,7 @@
         <v>-268514.04</v>
       </c>
       <c r="J33" t="n">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="34">
@@ -5510,7 +5510,7 @@
         <v>-421.62</v>
       </c>
       <c r="J2" t="n">
-        <v>2066</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="3">
@@ -5554,7 +5554,7 @@
         <v>-151730.67</v>
       </c>
       <c r="J3" t="n">
-        <v>2066</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="4">
@@ -5598,7 +5598,7 @@
         <v>-135468.6</v>
       </c>
       <c r="J4" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="5">
@@ -5642,7 +5642,7 @@
         <v>-139952.62</v>
       </c>
       <c r="J5" t="n">
-        <v>1975</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="6">
@@ -5686,7 +5686,7 @@
         <v>-847905.17</v>
       </c>
       <c r="J6" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="7">
@@ -5730,7 +5730,7 @@
         <v>-130366.35</v>
       </c>
       <c r="J7" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="8">
@@ -5774,7 +5774,7 @@
         <v>-129887.73</v>
       </c>
       <c r="J8" t="n">
-        <v>1792</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="9">
@@ -5818,7 +5818,7 @@
         <v>-82001.82000000001</v>
       </c>
       <c r="J9" t="n">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="10">
@@ -6214,7 +6214,7 @@
         <v>88414.50999999999</v>
       </c>
       <c r="J2" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="3">
@@ -6258,7 +6258,7 @@
         <v>14879.8</v>
       </c>
       <c r="J3" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="4">
@@ -6302,7 +6302,7 @@
         <v>1539.12</v>
       </c>
       <c r="J4" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="5">
@@ -6346,7 +6346,7 @@
         <v>1335.54</v>
       </c>
       <c r="J5" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="6">
@@ -6390,7 +6390,7 @@
         <v>4575</v>
       </c>
       <c r="J6" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="7">
@@ -6434,7 +6434,7 @@
         <v>1424.28</v>
       </c>
       <c r="J7" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="8">
@@ -6476,7 +6476,7 @@
         <v>61531.78</v>
       </c>
       <c r="J8" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="9">
@@ -6518,7 +6518,7 @@
         <v>6714.03</v>
       </c>
       <c r="J9" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="10">
@@ -6560,7 +6560,7 @@
         <v>5099.85</v>
       </c>
       <c r="J10" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="11">
@@ -6602,7 +6602,7 @@
         <v>4375.93</v>
       </c>
       <c r="J11" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="12">
@@ -6646,7 +6646,7 @@
         <v>1800.82</v>
       </c>
       <c r="J12" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="13">
@@ -6690,7 +6690,7 @@
         <v>37581.03</v>
       </c>
       <c r="J13" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="14">
@@ -6734,7 +6734,7 @@
         <v>79146.24000000001</v>
       </c>
       <c r="J14" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="15">
@@ -6776,7 +6776,7 @@
         <v>116969.27</v>
       </c>
       <c r="J15" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="16">
@@ -6820,7 +6820,7 @@
         <v>928860.36</v>
       </c>
       <c r="J16" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="17">
@@ -7132,7 +7132,7 @@
         <v>152126.24</v>
       </c>
       <c r="J2" t="n">
-        <v>2066</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="3">
@@ -7176,7 +7176,7 @@
         <v>152152.3</v>
       </c>
       <c r="J3" t="n">
-        <v>2035</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="4">
@@ -7220,7 +7220,7 @@
         <v>147101.86</v>
       </c>
       <c r="J4" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="5">
@@ -7264,7 +7264,7 @@
         <v>135468.6</v>
       </c>
       <c r="J5" t="n">
-        <v>1975</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="6">
@@ -7308,7 +7308,7 @@
         <v>139952.62</v>
       </c>
       <c r="J6" t="n">
-        <v>1884</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="7">
@@ -7352,7 +7352,7 @@
         <v>139952.62</v>
       </c>
       <c r="J7" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="8">
@@ -7396,7 +7396,7 @@
         <v>847905.17</v>
       </c>
       <c r="J8" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="9">
@@ -7440,7 +7440,7 @@
         <v>130366.35</v>
       </c>
       <c r="J9" t="n">
-        <v>1792</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="10">
@@ -7484,7 +7484,7 @@
         <v>129887.73</v>
       </c>
       <c r="J10" t="n">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="11">
@@ -7528,7 +7528,7 @@
         <v>164325.02</v>
       </c>
       <c r="J11" t="n">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="12">
@@ -8119,7 +8119,7 @@
         <v>-201287.6</v>
       </c>
       <c r="J2" t="n">
-        <v>1975</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="3">
@@ -8163,7 +8163,7 @@
         <v>-131361.18</v>
       </c>
       <c r="J3" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="4">
@@ -8207,7 +8207,7 @@
         <v>-441313</v>
       </c>
       <c r="J4" t="n">
-        <v>1792</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="5">
@@ -8251,7 +8251,7 @@
         <v>-1558667.79</v>
       </c>
       <c r="J5" t="n">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="6">
@@ -8295,7 +8295,7 @@
         <v>-199784.43</v>
       </c>
       <c r="J6" t="n">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="7">
@@ -8652,7 +8652,7 @@
         <v>507723.04</v>
       </c>
       <c r="J2" t="n">
-        <v>2066</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="3">
@@ -8696,7 +8696,7 @@
         <v>1672464.08</v>
       </c>
       <c r="J3" t="n">
-        <v>2035</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="4">
@@ -8740,7 +8740,7 @@
         <v>22359.69</v>
       </c>
       <c r="J4" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="5">
@@ -8784,7 +8784,7 @@
         <v>650730.35</v>
       </c>
       <c r="J5" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="6">
@@ -9102,7 +9102,7 @@
         <v>1.07</v>
       </c>
       <c r="J2" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="3">
@@ -9146,7 +9146,7 @@
         <v>1.07</v>
       </c>
       <c r="J3" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="4">
@@ -9190,7 +9190,7 @@
         <v>0.38</v>
       </c>
       <c r="J4" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="5">
@@ -9234,7 +9234,7 @@
         <v>0.21</v>
       </c>
       <c r="J5" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="6">
@@ -9278,7 +9278,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="J6" t="n">
-        <v>2035</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="7">
@@ -9322,7 +9322,7 @@
         <v>1.07</v>
       </c>
       <c r="J7" t="n">
-        <v>2035</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="8">
@@ -9366,7 +9366,7 @@
         <v>2.69</v>
       </c>
       <c r="J8" t="n">
-        <v>2035</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="9">
@@ -9410,7 +9410,7 @@
         <v>1.07</v>
       </c>
       <c r="J9" t="n">
-        <v>2035</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="10">
@@ -9454,7 +9454,7 @@
         <v>1.07</v>
       </c>
       <c r="J10" t="n">
-        <v>2035</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="11">
@@ -9498,7 +9498,7 @@
         <v>1.07</v>
       </c>
       <c r="J11" t="n">
-        <v>2035</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="12">
@@ -9542,7 +9542,7 @@
         <v>1.07</v>
       </c>
       <c r="J12" t="n">
-        <v>1792</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="13">
@@ -9586,7 +9586,7 @@
         <v>1.07</v>
       </c>
       <c r="J13" t="n">
-        <v>1792</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="14">
@@ -9669,7 +9669,7 @@
         <v>-57.1</v>
       </c>
       <c r="J15" t="n">
-        <v>1792</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="16">
@@ -9713,7 +9713,7 @@
         <v>-801.17</v>
       </c>
       <c r="J16" t="n">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="17">
@@ -9757,7 +9757,7 @@
         <v>-561.8099999999999</v>
       </c>
       <c r="J17" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="18">
@@ -9801,7 +9801,7 @@
         <v>-529.48</v>
       </c>
       <c r="J18" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="19">
@@ -9845,7 +9845,7 @@
         <v>-465.85</v>
       </c>
       <c r="J19" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="20">
@@ -9889,7 +9889,7 @@
         <v>-2.28</v>
       </c>
       <c r="J20" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="21">
@@ -9933,7 +9933,7 @@
         <v>-564.42</v>
       </c>
       <c r="J21" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="22">
@@ -9977,7 +9977,7 @@
         <v>-738.28</v>
       </c>
       <c r="J22" t="n">
-        <v>1792</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="23">
@@ -10021,7 +10021,7 @@
         <v>-504.56</v>
       </c>
       <c r="J23" t="n">
-        <v>2035</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="24">
@@ -10065,7 +10065,7 @@
         <v>-531.4400000000001</v>
       </c>
       <c r="J24" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="25">
@@ -10109,7 +10109,7 @@
         <v>-482.28</v>
       </c>
       <c r="J25" t="n">
-        <v>2066</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="26">
@@ -10153,7 +10153,7 @@
         <v>-218.84</v>
       </c>
       <c r="J26" t="n">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="27">
@@ -10197,7 +10197,7 @@
         <v>-457.63</v>
       </c>
       <c r="J27" t="n">
-        <v>2066</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="28">
@@ -10241,7 +10241,7 @@
         <v>-7.12</v>
       </c>
       <c r="J28" t="n">
-        <v>2066</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="29">
@@ -10285,7 +10285,7 @@
         <v>-881.4</v>
       </c>
       <c r="J29" t="n">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="30">
@@ -10329,7 +10329,7 @@
         <v>-43.28</v>
       </c>
       <c r="J30" t="n">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="31">
@@ -10373,7 +10373,7 @@
         <v>-98.81</v>
       </c>
       <c r="J31" t="n">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="32">
@@ -10417,7 +10417,7 @@
         <v>-644.4299999999999</v>
       </c>
       <c r="J32" t="n">
-        <v>2035</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="33">
@@ -10461,7 +10461,7 @@
         <v>-37.14</v>
       </c>
       <c r="J33" t="n">
-        <v>2035</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="34">
@@ -10505,7 +10505,7 @@
         <v>-115.77</v>
       </c>
       <c r="J34" t="n">
-        <v>2035</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="35">
@@ -10547,7 +10547,7 @@
         <v>-123.01</v>
       </c>
       <c r="J35" t="n">
-        <v>1792</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="36">
@@ -10589,7 +10589,7 @@
         <v>-360.75</v>
       </c>
       <c r="J36" t="n">
-        <v>1792</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="37">
@@ -10631,7 +10631,7 @@
         <v>-2918.19</v>
       </c>
       <c r="J37" t="n">
-        <v>2035</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="38">
@@ -10673,7 +10673,7 @@
         <v>-37.59</v>
       </c>
       <c r="J38" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="39">
@@ -10715,7 +10715,7 @@
         <v>-113.31</v>
       </c>
       <c r="J39" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="40">
@@ -10759,7 +10759,7 @@
         <v>-161.11</v>
       </c>
       <c r="J40" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="41">
@@ -10803,7 +10803,7 @@
         <v>-1.07</v>
       </c>
       <c r="J41" t="n">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="42">
@@ -10847,7 +10847,7 @@
         <v>-96.95999999999999</v>
       </c>
       <c r="J42" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="43">
@@ -10891,7 +10891,7 @@
         <v>-0.9399999999999999</v>
       </c>
       <c r="J43" t="n">
-        <v>2035</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="44">
@@ -10935,7 +10935,7 @@
         <v>-0.21</v>
       </c>
       <c r="J44" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="45">
@@ -10979,7 +10979,7 @@
         <v>-0.38</v>
       </c>
       <c r="J45" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="46">
@@ -11023,7 +11023,7 @@
         <v>-1.07</v>
       </c>
       <c r="J46" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="47">
@@ -11067,7 +11067,7 @@
         <v>-1.07</v>
       </c>
       <c r="J47" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="48">
@@ -11111,7 +11111,7 @@
         <v>-1.07</v>
       </c>
       <c r="J48" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="49">
@@ -11155,7 +11155,7 @@
         <v>-1.07</v>
       </c>
       <c r="J49" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="50">
@@ -11199,7 +11199,7 @@
         <v>-4.78</v>
       </c>
       <c r="J50" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="51">
@@ -11282,7 +11282,7 @@
         <v>1.07</v>
       </c>
       <c r="J52" t="n">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="53">
@@ -11677,7 +11677,7 @@
         <v>-411.1</v>
       </c>
       <c r="J62" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="63">
@@ -11721,7 +11721,7 @@
         <v>-268.43</v>
       </c>
       <c r="J63" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="64">
@@ -11765,7 +11765,7 @@
         <v>-4.83</v>
       </c>
       <c r="J64" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="65">
@@ -12146,7 +12146,7 @@
         <v>-1190.88</v>
       </c>
       <c r="J74" t="n">
-        <v>2035</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="75">
@@ -12190,7 +12190,7 @@
         <v>-8.06</v>
       </c>
       <c r="J75" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="76">
@@ -12234,7 +12234,7 @@
         <v>-1307.63</v>
       </c>
       <c r="J76" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="77">
@@ -12278,7 +12278,7 @@
         <v>-1062.4</v>
       </c>
       <c r="J77" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="78">
@@ -12322,7 +12322,7 @@
         <v>-612.29</v>
       </c>
       <c r="J78" t="n">
-        <v>1792</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="79">
@@ -12366,7 +12366,7 @@
         <v>-2284.23</v>
       </c>
       <c r="J79" t="n">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="80">
@@ -12488,7 +12488,7 @@
         <v>4.83</v>
       </c>
       <c r="J82" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="83">
@@ -12532,7 +12532,7 @@
         <v>411.1</v>
       </c>
       <c r="J83" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="84">
@@ -12574,7 +12574,7 @@
         <v>268.44</v>
       </c>
       <c r="J84" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="85">
@@ -13857,7 +13857,7 @@
         <v>-2449.97</v>
       </c>
       <c r="J2" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="3">
@@ -13901,7 +13901,7 @@
         <v>-500000</v>
       </c>
       <c r="J3" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="4">
@@ -13945,7 +13945,7 @@
         <v>-2102.39</v>
       </c>
       <c r="J4" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="5">
@@ -13989,7 +13989,7 @@
         <v>-1217.09</v>
       </c>
       <c r="J5" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="6">
@@ -14033,7 +14033,7 @@
         <v>-628.01</v>
       </c>
       <c r="J6" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="7">
@@ -14077,7 +14077,7 @@
         <v>-971.04</v>
       </c>
       <c r="J7" t="n">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="8">
@@ -14121,7 +14121,7 @@
         <v>971.04</v>
       </c>
       <c r="J8" t="n">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="9">
@@ -14361,7 +14361,7 @@
         <v>-4375</v>
       </c>
       <c r="J2" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="3">
@@ -14484,7 +14484,7 @@
         <v>-100551.3</v>
       </c>
       <c r="J2" t="n">
-        <v>2066</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="3">
@@ -14528,7 +14528,7 @@
         <v>8446.709999999999</v>
       </c>
       <c r="J3" t="n">
-        <v>2066</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="4">
@@ -14572,7 +14572,7 @@
         <v>-8446.709999999999</v>
       </c>
       <c r="J4" t="n">
-        <v>2066</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="5">
@@ -14616,7 +14616,7 @@
         <v>28815.39</v>
       </c>
       <c r="J5" t="n">
-        <v>2066</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="6">
@@ -14660,7 +14660,7 @@
         <v>-28815.39</v>
       </c>
       <c r="J6" t="n">
-        <v>2066</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="7">
@@ -14704,7 +14704,7 @@
         <v>5647.24</v>
       </c>
       <c r="J7" t="n">
-        <v>2066</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="8">
@@ -14748,7 +14748,7 @@
         <v>-5647.24</v>
       </c>
       <c r="J8" t="n">
-        <v>2066</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="9">
@@ -14792,7 +14792,7 @@
         <v>12431.22</v>
       </c>
       <c r="J9" t="n">
-        <v>2066</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="10">
@@ -14836,7 +14836,7 @@
         <v>-12431.22</v>
       </c>
       <c r="J10" t="n">
-        <v>2066</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="11">
@@ -14880,7 +14880,7 @@
         <v>10380.19</v>
       </c>
       <c r="J11" t="n">
-        <v>2066</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="12">
@@ -14924,7 +14924,7 @@
         <v>-10380.19</v>
       </c>
       <c r="J12" t="n">
-        <v>2066</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="13">
@@ -14968,7 +14968,7 @@
         <v>8516.85</v>
       </c>
       <c r="J13" t="n">
-        <v>2066</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="14">
@@ -15012,7 +15012,7 @@
         <v>-8516.85</v>
       </c>
       <c r="J14" t="n">
-        <v>2066</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="15">
@@ -15056,7 +15056,7 @@
         <v>-507723.04</v>
       </c>
       <c r="J15" t="n">
-        <v>2066</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="16">
@@ -15100,7 +15100,7 @@
         <v>-202931.18</v>
       </c>
       <c r="J16" t="n">
-        <v>2035</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="17">
@@ -15144,7 +15144,7 @@
         <v>2371.5</v>
       </c>
       <c r="J17" t="n">
-        <v>2035</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="18">
@@ -15188,7 +15188,7 @@
         <v>-2371.5</v>
       </c>
       <c r="J18" t="n">
-        <v>2035</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="19">
@@ -15232,7 +15232,7 @@
         <v>3171.73</v>
       </c>
       <c r="J19" t="n">
-        <v>2035</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="20">
@@ -15276,7 +15276,7 @@
         <v>-3171.73</v>
       </c>
       <c r="J20" t="n">
-        <v>2035</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="21">
@@ -15320,7 +15320,7 @@
         <v>24828.98</v>
       </c>
       <c r="J21" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="22">
@@ -15364,7 +15364,7 @@
         <v>100551.3</v>
       </c>
       <c r="J22" t="n">
-        <v>2066</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="23">
@@ -15408,7 +15408,7 @@
         <v>202931.18</v>
       </c>
       <c r="J23" t="n">
-        <v>2035</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="24">
@@ -15452,7 +15452,7 @@
         <v>-1672464.08</v>
       </c>
       <c r="J24" t="n">
-        <v>2035</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="25">
@@ -15496,7 +15496,7 @@
         <v>-24828.98</v>
       </c>
       <c r="J25" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="26">
@@ -15540,7 +15540,7 @@
         <v>-22359.69</v>
       </c>
       <c r="J26" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="27">
@@ -15584,7 +15584,7 @@
         <v>15692.92</v>
       </c>
       <c r="J27" t="n">
-        <v>1975</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="28">
@@ -15628,7 +15628,7 @@
         <v>-625432.75</v>
       </c>
       <c r="J28" t="n">
-        <v>1975</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="29">
@@ -15672,7 +15672,7 @@
         <v>-7973.62</v>
       </c>
       <c r="J29" t="n">
-        <v>1975</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="30">
@@ -15716,7 +15716,7 @@
         <v>-11552.47</v>
       </c>
       <c r="J30" t="n">
-        <v>1975</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="31">
@@ -15760,7 +15760,7 @@
         <v>-11222.58</v>
       </c>
       <c r="J31" t="n">
-        <v>1975</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="32">
@@ -15804,7 +15804,7 @@
         <v>-35146.64</v>
       </c>
       <c r="J32" t="n">
-        <v>1975</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="33">
@@ -15848,7 +15848,7 @@
         <v>-37642.5</v>
       </c>
       <c r="J33" t="n">
-        <v>1975</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="34">
@@ -15892,7 +15892,7 @@
         <v>-132944.06</v>
       </c>
       <c r="J34" t="n">
-        <v>1975</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="35">
@@ -15936,7 +15936,7 @@
         <v>-29411.56</v>
       </c>
       <c r="J35" t="n">
-        <v>1975</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="36">
@@ -15980,7 +15980,7 @@
         <v>-50066.62</v>
       </c>
       <c r="J36" t="n">
-        <v>1975</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="37">
@@ -16024,7 +16024,7 @@
         <v>-68725.75</v>
       </c>
       <c r="J37" t="n">
-        <v>1975</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="38">
@@ -16068,7 +16068,7 @@
         <v>-15692.92</v>
       </c>
       <c r="J38" t="n">
-        <v>1975</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="39">
@@ -16112,7 +16112,7 @@
         <v>95276.45</v>
       </c>
       <c r="J39" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="40">
@@ -16156,7 +16156,7 @@
         <v>222402.8</v>
       </c>
       <c r="J40" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="41">
@@ -16200,7 +16200,7 @@
         <v>-95276.45</v>
       </c>
       <c r="J41" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="42">
@@ -16244,7 +16244,7 @@
         <v>-7992.95</v>
       </c>
       <c r="J42" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="43">
@@ -16288,7 +16288,7 @@
         <v>7992.95</v>
       </c>
       <c r="J43" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="44">
@@ -16332,7 +16332,7 @@
         <v>-222402.8</v>
       </c>
       <c r="J44" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="45">
@@ -16376,7 +16376,7 @@
         <v>-974</v>
       </c>
       <c r="J45" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="46">
@@ -16420,7 +16420,7 @@
         <v>974</v>
       </c>
       <c r="J46" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="47">
@@ -16464,7 +16464,7 @@
         <v>-1792.2</v>
       </c>
       <c r="J47" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="48">
@@ -16508,7 +16508,7 @@
         <v>1792.2</v>
       </c>
       <c r="J48" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="49">
@@ -16552,7 +16552,7 @@
         <v>-3055.15</v>
       </c>
       <c r="J49" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="50">
@@ -16596,7 +16596,7 @@
         <v>21275.41</v>
       </c>
       <c r="J50" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="51">
@@ -16640,7 +16640,7 @@
         <v>-650730.35</v>
       </c>
       <c r="J51" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="52">
@@ -16684,7 +16684,7 @@
         <v>3055.15</v>
       </c>
       <c r="J52" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="53">
@@ -16728,7 +16728,7 @@
         <v>-169085.11</v>
       </c>
       <c r="J53" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="54">
@@ -16772,7 +16772,7 @@
         <v>-30823.25</v>
       </c>
       <c r="J54" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="55">
@@ -16816,7 +16816,7 @@
         <v>30823.25</v>
       </c>
       <c r="J55" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="56">
@@ -16860,7 +16860,7 @@
         <v>-121447.09</v>
       </c>
       <c r="J56" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="57">
@@ -16904,7 +16904,7 @@
         <v>121447.09</v>
       </c>
       <c r="J57" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="58">
@@ -16948,7 +16948,7 @@
         <v>-42422.2</v>
       </c>
       <c r="J58" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="59">
@@ -16992,7 +16992,7 @@
         <v>42422.2</v>
       </c>
       <c r="J59" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="60">
@@ -17036,7 +17036,7 @@
         <v>-21275.41</v>
       </c>
       <c r="J60" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="61">
@@ -17080,7 +17080,7 @@
         <v>-4486.55</v>
       </c>
       <c r="J61" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="62">
@@ -17124,7 +17124,7 @@
         <v>4486.55</v>
       </c>
       <c r="J62" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="63">
@@ -17168,7 +17168,7 @@
         <v>169085.11</v>
       </c>
       <c r="J63" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="64">
@@ -17210,7 +17210,7 @@
         <v>-12297.63</v>
       </c>
       <c r="J64" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="65">
@@ -17254,7 +17254,7 @@
         <v>-928860.36</v>
       </c>
       <c r="J65" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="66">
@@ -17298,7 +17298,7 @@
         <v>-520806.33</v>
       </c>
       <c r="J66" t="n">
-        <v>1792</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="67">
@@ -17342,7 +17342,7 @@
         <v>520806.33</v>
       </c>
       <c r="J67" t="n">
-        <v>1792</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="68">
@@ -17386,7 +17386,7 @@
         <v>-18058.86</v>
       </c>
       <c r="J68" t="n">
-        <v>1792</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="69">
@@ -17430,7 +17430,7 @@
         <v>18058.86</v>
       </c>
       <c r="J69" t="n">
-        <v>1792</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="70">
@@ -17474,7 +17474,7 @@
         <v>-27761.96</v>
       </c>
       <c r="J70" t="n">
-        <v>1792</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="71">
@@ -17518,7 +17518,7 @@
         <v>27761.96</v>
       </c>
       <c r="J71" t="n">
-        <v>1792</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="72">
@@ -17562,7 +17562,7 @@
         <v>-7949.42</v>
       </c>
       <c r="J72" t="n">
-        <v>1792</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="73">
@@ -17606,7 +17606,7 @@
         <v>7949.42</v>
       </c>
       <c r="J73" t="n">
-        <v>1792</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="74">
@@ -17648,7 +17648,7 @@
         <v>-239.06</v>
       </c>
       <c r="J74" t="n">
-        <v>1792</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="75">
@@ -17692,7 +17692,7 @@
         <v>-12130</v>
       </c>
       <c r="J75" t="n">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="76">
@@ -17736,7 +17736,7 @@
         <v>-423609.47</v>
       </c>
       <c r="J76" t="n">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="77">
@@ -17780,7 +17780,7 @@
         <v>423609.47</v>
       </c>
       <c r="J77" t="n">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="78">
@@ -17824,7 +17824,7 @@
         <v>-458948.74</v>
       </c>
       <c r="J78" t="n">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="79">
@@ -17868,7 +17868,7 @@
         <v>458948.74</v>
       </c>
       <c r="J79" t="n">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="80">
@@ -17912,7 +17912,7 @@
         <v>-10564.48</v>
       </c>
       <c r="J80" t="n">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="81">
@@ -17956,7 +17956,7 @@
         <v>10564.48</v>
       </c>
       <c r="J81" t="n">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="82">
@@ -18000,7 +18000,7 @@
         <v>-23594.51</v>
       </c>
       <c r="J82" t="n">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="83">
@@ -18044,7 +18044,7 @@
         <v>23594.51</v>
       </c>
       <c r="J83" t="n">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="84">
@@ -18088,7 +18088,7 @@
         <v>-86273.75</v>
       </c>
       <c r="J84" t="n">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="85">
@@ -18132,7 +18132,7 @@
         <v>86273.75</v>
       </c>
       <c r="J85" t="n">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="86">
@@ -18176,7 +18176,7 @@
         <v>-198790.44</v>
       </c>
       <c r="J86" t="n">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="87">
@@ -18220,7 +18220,7 @@
         <v>198790.44</v>
       </c>
       <c r="J87" t="n">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="88">
@@ -18264,7 +18264,7 @@
         <v>-84760.00999999999</v>
       </c>
       <c r="J88" t="n">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="89">
@@ -18308,7 +18308,7 @@
         <v>84760.00999999999</v>
       </c>
       <c r="J89" t="n">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="90">
@@ -18352,7 +18352,7 @@
         <v>-183932.2</v>
       </c>
       <c r="J90" t="n">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="91">
@@ -18396,7 +18396,7 @@
         <v>183932.2</v>
       </c>
       <c r="J91" t="n">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="92">
@@ -18440,7 +18440,7 @@
         <v>346.49</v>
       </c>
       <c r="J92" t="n">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="93">
@@ -18484,7 +18484,7 @@
         <v>-118.25</v>
       </c>
       <c r="J93" t="n">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="94">
@@ -18528,7 +18528,7 @@
         <v>-6268.88</v>
       </c>
       <c r="J94" t="n">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="95">
@@ -18572,7 +18572,7 @@
         <v>6268.88</v>
       </c>
       <c r="J95" t="n">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="96">
@@ -18616,7 +18616,7 @@
         <v>-1641264.88</v>
       </c>
       <c r="J96" t="n">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="97">
@@ -18660,7 +18660,7 @@
         <v>-404427.91</v>
       </c>
       <c r="J97" t="n">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="98">
@@ -18704,7 +18704,7 @@
         <v>-81807.06</v>
       </c>
       <c r="J98" t="n">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="99">
@@ -18748,7 +18748,7 @@
         <v>81807.06</v>
       </c>
       <c r="J99" t="n">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="100">
@@ -18790,7 +18790,7 @@
         <v>12130</v>
       </c>
       <c r="J100" t="n">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="101">
@@ -18834,7 +18834,7 @@
         <v>-93388.89</v>
       </c>
       <c r="J101" t="n">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="102">
@@ -18878,7 +18878,7 @@
         <v>-32940.18</v>
       </c>
       <c r="J102" t="n">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="103">
@@ -18922,7 +18922,7 @@
         <v>-35274.97</v>
       </c>
       <c r="J103" t="n">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="104">
@@ -18966,7 +18966,7 @@
         <v>-109068.1</v>
       </c>
       <c r="J104" t="n">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="105">
@@ -19010,7 +19010,7 @@
         <v>-19270.02</v>
       </c>
       <c r="J105" t="n">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="106">
@@ -19054,7 +19054,7 @@
         <v>-154910.38</v>
       </c>
       <c r="J106" t="n">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="107">
@@ -19098,7 +19098,7 @@
         <v>-181260.96</v>
       </c>
       <c r="J107" t="n">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="108">
@@ -19142,7 +19142,7 @@
         <v>-69364.52</v>
       </c>
       <c r="J108" t="n">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="109">
@@ -19186,7 +19186,7 @@
         <v>-346.49</v>
       </c>
       <c r="J109" t="n">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="110">
@@ -19230,7 +19230,7 @@
         <v>-9.6</v>
       </c>
       <c r="J110" t="n">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="111">
@@ -19272,7 +19272,7 @@
         <v>69364.52</v>
       </c>
       <c r="J111" t="n">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="112">
@@ -19314,7 +19314,7 @@
         <v>9.6</v>
       </c>
       <c r="J112" t="n">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="113">
@@ -19358,7 +19358,7 @@
         <v>35274.97</v>
       </c>
       <c r="J113" t="n">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="114">
@@ -19402,7 +19402,7 @@
         <v>109068.1</v>
       </c>
       <c r="J114" t="n">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="115">
@@ -19446,7 +19446,7 @@
         <v>19270.02</v>
       </c>
       <c r="J115" t="n">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="116">
@@ -19490,7 +19490,7 @@
         <v>154910.38</v>
       </c>
       <c r="J116" t="n">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="117">
@@ -19534,7 +19534,7 @@
         <v>181260.96</v>
       </c>
       <c r="J117" t="n">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="118">
@@ -19578,7 +19578,7 @@
         <v>32940.18</v>
       </c>
       <c r="J118" t="n">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="119">
@@ -19622,7 +19622,7 @@
         <v>93388.89</v>
       </c>
       <c r="J119" t="n">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="120">
@@ -19701,7 +19701,7 @@
         <v>-9.6</v>
       </c>
       <c r="J121" t="n">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="122">
@@ -19743,7 +19743,7 @@
         <v>9.6</v>
       </c>
       <c r="J122" t="n">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="123">
@@ -21891,7 +21891,7 @@
         <v>-12130</v>
       </c>
       <c r="J177" t="n">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="178">
@@ -21935,7 +21935,7 @@
         <v>12130</v>
       </c>
       <c r="J178" t="n">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="179">
@@ -27462,7 +27462,7 @@
         <v>-445.44</v>
       </c>
       <c r="J2" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="3">
@@ -27504,7 +27504,7 @@
         <v>-22339.61</v>
       </c>
       <c r="J3" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="4">
@@ -27546,7 +27546,7 @@
         <v>-134257.02</v>
       </c>
       <c r="J4" t="n">
-        <v>1975</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="5">
@@ -27823,7 +27823,7 @@
         <v>1425.81</v>
       </c>
       <c r="J2" t="n">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="3">
@@ -27867,7 +27867,7 @@
         <v>1.07</v>
       </c>
       <c r="J3" t="n">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="4">
@@ -27911,7 +27911,7 @@
         <v>2918.19</v>
       </c>
       <c r="J4" t="n">
-        <v>2035</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="5">
@@ -27955,7 +27955,7 @@
         <v>2918.19</v>
       </c>
       <c r="J5" t="n">
-        <v>2035</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="6">
@@ -27999,7 +27999,7 @@
         <v>2569.97</v>
       </c>
       <c r="J6" t="n">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="7">
@@ -28043,7 +28043,7 @@
         <v>2210.78</v>
       </c>
       <c r="J7" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="8">
@@ -28282,7 +28282,7 @@
         <v>8.06</v>
       </c>
       <c r="J13" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="14">
@@ -28363,7 +28363,7 @@
         <v>8.06</v>
       </c>
       <c r="J15" t="n">
-        <v>1792</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="16">
@@ -28446,7 +28446,7 @@
         <v>1190.88</v>
       </c>
       <c r="J17" t="n">
-        <v>2035</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="18">
@@ -28490,7 +28490,7 @@
         <v>1718.72</v>
       </c>
       <c r="J18" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="19">
@@ -28534,7 +28534,7 @@
         <v>1331.67</v>
       </c>
       <c r="J19" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="20">
@@ -28578,7 +28578,7 @@
         <v>2277.39</v>
       </c>
       <c r="J20" t="n">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="21">
@@ -28620,7 +28620,7 @@
         <v>6.84</v>
       </c>
       <c r="J21" t="n">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="22">
@@ -28699,7 +28699,7 @@
         <v>4</v>
       </c>
       <c r="J23" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="24">
@@ -28743,7 +28743,7 @@
         <v>1.34</v>
       </c>
       <c r="J24" t="n">
-        <v>1792</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="25">
@@ -28787,7 +28787,7 @@
         <v>602.89</v>
       </c>
       <c r="J25" t="n">
-        <v>1792</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="26">
@@ -28909,7 +28909,7 @@
         <v>-26.85</v>
       </c>
       <c r="J28" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="29">
@@ -28951,7 +28951,7 @@
         <v>1190.88</v>
       </c>
       <c r="J29" t="n">
-        <v>2035</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="30">
@@ -28993,7 +28993,7 @@
         <v>1718.72</v>
       </c>
       <c r="J30" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="31">
@@ -29035,7 +29035,7 @@
         <v>1331.67</v>
       </c>
       <c r="J31" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="32">
@@ -29077,7 +29077,7 @@
         <v>2277.39</v>
       </c>
       <c r="J32" t="n">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="33">
@@ -29121,7 +29121,7 @@
         <v>3222.17</v>
       </c>
       <c r="J33" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="34">
@@ -29165,7 +29165,7 @@
         <v>2595.09</v>
       </c>
       <c r="J34" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="35">
@@ -29287,7 +29287,7 @@
         <v>-1190.88</v>
       </c>
       <c r="J37" t="n">
-        <v>2035</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="38">
@@ -29329,7 +29329,7 @@
         <v>-1190.88</v>
       </c>
       <c r="J38" t="n">
-        <v>2035</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="39">
@@ -29371,7 +29371,7 @@
         <v>-1718.72</v>
       </c>
       <c r="J39" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="40">
@@ -29413,7 +29413,7 @@
         <v>-1331.67</v>
       </c>
       <c r="J40" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="41">
@@ -29455,7 +29455,7 @@
         <v>-1718.72</v>
       </c>
       <c r="J41" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="42">
@@ -29497,7 +29497,7 @@
         <v>-1331.67</v>
       </c>
       <c r="J42" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="43">
@@ -29539,7 +29539,7 @@
         <v>-2277.39</v>
       </c>
       <c r="J43" t="n">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="44">
@@ -29583,7 +29583,7 @@
         <v>-2277.39</v>
       </c>
       <c r="J44" t="n">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="45">
@@ -29703,7 +29703,7 @@
         <v>505.11</v>
       </c>
       <c r="J47" t="n">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="48">
@@ -29895,7 +29895,7 @@
         <v>2.69</v>
       </c>
       <c r="J52" t="n">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="53">
@@ -31021,7 +31021,7 @@
         <v>4499.5</v>
       </c>
       <c r="J2" t="n">
-        <v>2066</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="3">
@@ -31065,7 +31065,7 @@
         <v>1021.56</v>
       </c>
       <c r="J3" t="n">
-        <v>2066</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="4">
@@ -31109,7 +31109,7 @@
         <v>2509.83</v>
       </c>
       <c r="J4" t="n">
-        <v>2066</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="5">
@@ -31153,7 +31153,7 @@
         <v>80643.19</v>
       </c>
       <c r="J5" t="n">
-        <v>2066</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="6">
@@ -31197,7 +31197,7 @@
         <v>22365.04</v>
       </c>
       <c r="J6" t="n">
-        <v>2066</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="7">
@@ -31241,7 +31241,7 @@
         <v>77692.74000000001</v>
       </c>
       <c r="J7" t="n">
-        <v>2035</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="8">
@@ -31285,7 +31285,7 @@
         <v>1920</v>
       </c>
       <c r="J8" t="n">
-        <v>2035</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="9">
@@ -31329,7 +31329,7 @@
         <v>127.4</v>
       </c>
       <c r="J9" t="n">
-        <v>2035</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="10">
@@ -31373,7 +31373,7 @@
         <v>4200</v>
       </c>
       <c r="J10" t="n">
-        <v>2035</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="11">
@@ -31417,7 +31417,7 @@
         <v>143069.1</v>
       </c>
       <c r="J11" t="n">
-        <v>2035</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="12">
@@ -31461,7 +31461,7 @@
         <v>37.97</v>
       </c>
       <c r="J12" t="n">
-        <v>2035</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="13">
@@ -31505,7 +31505,7 @@
         <v>10612.53</v>
       </c>
       <c r="J13" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="14">
@@ -31549,7 +31549,7 @@
         <v>349.43</v>
       </c>
       <c r="J14" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="15">
@@ -31591,7 +31591,7 @@
         <v>48</v>
       </c>
       <c r="J15" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="16">
@@ -31635,7 +31635,7 @@
         <v>2620</v>
       </c>
       <c r="J16" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="17">
@@ -31679,7 +31679,7 @@
         <v>5434.75</v>
       </c>
       <c r="J17" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="18">
@@ -31723,7 +31723,7 @@
         <v>39.69</v>
       </c>
       <c r="J18" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="19">
@@ -31767,7 +31767,7 @@
         <v>890</v>
       </c>
       <c r="J19" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="20">
@@ -31811,7 +31811,7 @@
         <v>4027.36</v>
       </c>
       <c r="J20" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="21">
@@ -31855,7 +31855,7 @@
         <v>5961.56</v>
       </c>
       <c r="J21" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="22">
@@ -31899,7 +31899,7 @@
         <v>5640.65</v>
       </c>
       <c r="J22" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="23">
@@ -31943,7 +31943,7 @@
         <v>112.86</v>
       </c>
       <c r="J23" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="24">
@@ -31987,7 +31987,7 @@
         <v>35420.74</v>
       </c>
       <c r="J24" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="25">
@@ -32031,7 +32031,7 @@
         <v>5089.64</v>
       </c>
       <c r="J25" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="26">
@@ -32075,7 +32075,7 @@
         <v>948.21</v>
       </c>
       <c r="J26" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="27">
@@ -32119,7 +32119,7 @@
         <v>4514.22</v>
       </c>
       <c r="J27" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="28">
@@ -32161,7 +32161,7 @@
         <v>305.75</v>
       </c>
       <c r="J28" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="29">
@@ -32203,7 +32203,7 @@
         <v>871.25</v>
       </c>
       <c r="J29" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="30">
@@ -32245,7 +32245,7 @@
         <v>830</v>
       </c>
       <c r="J30" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="31">
@@ -32289,7 +32289,7 @@
         <v>5440.15</v>
       </c>
       <c r="J31" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="32">
@@ -32333,7 +32333,7 @@
         <v>7949.71</v>
       </c>
       <c r="J32" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="33">
@@ -32377,7 +32377,7 @@
         <v>22784.58</v>
       </c>
       <c r="J33" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="34">
@@ -32419,7 +32419,7 @@
         <v>507.98</v>
       </c>
       <c r="J34" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="35">
@@ -32461,7 +32461,7 @@
         <v>13371.6</v>
       </c>
       <c r="J35" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="36">
@@ -32503,7 +32503,7 @@
         <v>3166.48</v>
       </c>
       <c r="J36" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="37">
@@ -32545,7 +32545,7 @@
         <v>358.36</v>
       </c>
       <c r="J37" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="38">
@@ -32589,7 +32589,7 @@
         <v>23000</v>
       </c>
       <c r="J38" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="39">
@@ -32633,7 +32633,7 @@
         <v>120</v>
       </c>
       <c r="J39" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="40">
@@ -32677,7 +32677,7 @@
         <v>917.53</v>
       </c>
       <c r="J40" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="41">
@@ -32721,7 +32721,7 @@
         <v>215.35</v>
       </c>
       <c r="J41" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="42">
@@ -32765,7 +32765,7 @@
         <v>9153.25</v>
       </c>
       <c r="J42" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="43">
@@ -32809,7 +32809,7 @@
         <v>831.6</v>
       </c>
       <c r="J43" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="44">
@@ -32853,7 +32853,7 @@
         <v>2907.29</v>
       </c>
       <c r="J44" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="45">
@@ -32897,7 +32897,7 @@
         <v>141.03</v>
       </c>
       <c r="J45" t="n">
-        <v>1792</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="46">
@@ -32941,7 +32941,7 @@
         <v>323427.6</v>
       </c>
       <c r="J46" t="n">
-        <v>1792</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="47">
@@ -32985,7 +32985,7 @@
         <v>89579.85000000001</v>
       </c>
       <c r="J47" t="n">
-        <v>1792</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="48">
@@ -33029,7 +33029,7 @@
         <v>2122.92</v>
       </c>
       <c r="J48" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="49">
@@ -33073,7 +33073,7 @@
         <v>86680.83</v>
       </c>
       <c r="J49" t="n">
-        <v>1792</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="50">
@@ -33115,7 +33115,7 @@
         <v>8</v>
       </c>
       <c r="J50" t="n">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="51">
@@ -33159,7 +33159,7 @@
         <v>2470</v>
       </c>
       <c r="J51" t="n">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="52">
@@ -33203,7 +33203,7 @@
         <v>35034.31</v>
       </c>
       <c r="J52" t="n">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="53">
@@ -33245,7 +33245,7 @@
         <v>207215.46</v>
       </c>
       <c r="J53" t="n">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="54">
@@ -33289,7 +33289,7 @@
         <v>117</v>
       </c>
       <c r="J54" t="n">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="55">
@@ -33333,7 +33333,7 @@
         <v>80.40000000000001</v>
       </c>
       <c r="J55" t="n">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="56">
@@ -33377,7 +33377,7 @@
         <v>46965.6</v>
       </c>
       <c r="J56" t="n">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="57">
@@ -33421,7 +33421,7 @@
         <v>33697.97</v>
       </c>
       <c r="J57" t="n">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="58">
@@ -33465,7 +33465,7 @@
         <v>4184.4</v>
       </c>
       <c r="J58" t="n">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="59">
@@ -33509,7 +33509,7 @@
         <v>96.2</v>
       </c>
       <c r="J59" t="n">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="60">
@@ -33553,7 +33553,7 @@
         <v>109.54</v>
       </c>
       <c r="J60" t="n">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="61">
@@ -33597,7 +33597,7 @@
         <v>5569.53</v>
       </c>
       <c r="J61" t="n">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="62">
@@ -33641,7 +33641,7 @@
         <v>601.79</v>
       </c>
       <c r="J62" t="n">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="63">
@@ -33685,7 +33685,7 @@
         <v>635</v>
       </c>
       <c r="J63" t="n">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="64">
@@ -33729,7 +33729,7 @@
         <v>180.27</v>
       </c>
       <c r="J64" t="n">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="65">
@@ -33773,7 +33773,7 @@
         <v>342.24</v>
       </c>
       <c r="J65" t="n">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="66">
@@ -33817,7 +33817,7 @@
         <v>190.95</v>
       </c>
       <c r="J66" t="n">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="67">
@@ -33861,7 +33861,7 @@
         <v>131</v>
       </c>
       <c r="J67" t="n">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="68">
@@ -33905,7 +33905,7 @@
         <v>1616.77</v>
       </c>
       <c r="J68" t="n">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="69">
@@ -33949,7 +33949,7 @@
         <v>11354.55</v>
       </c>
       <c r="J69" t="n">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="70">
@@ -33993,7 +33993,7 @@
         <v>1392.89</v>
       </c>
       <c r="J70" t="n">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="71">
@@ -34037,7 +34037,7 @@
         <v>2241</v>
       </c>
       <c r="J71" t="n">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="72">
@@ -34079,7 +34079,7 @@
         <v>72</v>
       </c>
       <c r="J72" t="n">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="73">
@@ -34123,7 +34123,7 @@
         <v>20</v>
       </c>
       <c r="J73" t="n">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="74">
@@ -36895,7 +36895,7 @@
         <v>2740</v>
       </c>
       <c r="J2" t="n">
-        <v>2066</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="3">
@@ -36939,7 +36939,7 @@
         <v>1690</v>
       </c>
       <c r="J3" t="n">
-        <v>2066</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="4">
@@ -36983,7 +36983,7 @@
         <v>5092.66</v>
       </c>
       <c r="J4" t="n">
-        <v>2066</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="5">
@@ -37027,7 +37027,7 @@
         <v>5437.55</v>
       </c>
       <c r="J5" t="n">
-        <v>2066</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="6">
@@ -37071,7 +37071,7 @@
         <v>1945.83</v>
       </c>
       <c r="J6" t="n">
-        <v>2066</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="7">
@@ -37115,7 +37115,7 @@
         <v>521.7</v>
       </c>
       <c r="J7" t="n">
-        <v>2066</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="8">
@@ -37159,7 +37159,7 @@
         <v>5998.6</v>
       </c>
       <c r="J8" t="n">
-        <v>2066</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="9">
@@ -37203,7 +37203,7 @@
         <v>2080.73</v>
       </c>
       <c r="J9" t="n">
-        <v>2066</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="10">
@@ -37247,7 +37247,7 @@
         <v>11558.54</v>
       </c>
       <c r="J10" t="n">
-        <v>2066</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="11">
@@ -37291,7 +37291,7 @@
         <v>83565.49000000001</v>
       </c>
       <c r="J11" t="n">
-        <v>2066</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="12">
@@ -37333,7 +37333,7 @@
         <v>368608</v>
       </c>
       <c r="J12" t="n">
-        <v>2066</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="13">
@@ -37375,7 +37375,7 @@
         <v>88611.64</v>
       </c>
       <c r="J13" t="n">
-        <v>2066</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="14">
@@ -37417,7 +37417,7 @@
         <v>136.95</v>
       </c>
       <c r="J14" t="n">
-        <v>2066</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="15">
@@ -37461,7 +37461,7 @@
         <v>132467.12</v>
       </c>
       <c r="J15" t="n">
-        <v>2035</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="16">
@@ -37505,7 +37505,7 @@
         <v>15300</v>
       </c>
       <c r="J16" t="n">
-        <v>2035</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="17">
@@ -37549,7 +37549,7 @@
         <v>528.55</v>
       </c>
       <c r="J17" t="n">
-        <v>2035</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="18">
@@ -37593,7 +37593,7 @@
         <v>388.66</v>
       </c>
       <c r="J18" t="n">
-        <v>2035</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="19">
@@ -37637,7 +37637,7 @@
         <v>224.6</v>
       </c>
       <c r="J19" t="n">
-        <v>2035</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="20">
@@ -37681,7 +37681,7 @@
         <v>31374.95</v>
       </c>
       <c r="J20" t="n">
-        <v>2035</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="21">
@@ -37725,7 +37725,7 @@
         <v>1519</v>
       </c>
       <c r="J21" t="n">
-        <v>2035</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="22">
@@ -37769,7 +37769,7 @@
         <v>1388.22</v>
       </c>
       <c r="J22" t="n">
-        <v>2035</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="23">
@@ -37813,7 +37813,7 @@
         <v>837.49</v>
       </c>
       <c r="J23" t="n">
-        <v>2035</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="24">
@@ -37857,7 +37857,7 @@
         <v>545.6</v>
       </c>
       <c r="J24" t="n">
-        <v>2035</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="25">
@@ -37901,7 +37901,7 @@
         <v>40339.04</v>
       </c>
       <c r="J25" t="n">
-        <v>2035</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="26">
@@ -37943,7 +37943,7 @@
         <v>1598.89</v>
       </c>
       <c r="J26" t="n">
-        <v>2035</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="27">
@@ -37985,7 +37985,7 @@
         <v>1599710.86</v>
       </c>
       <c r="J27" t="n">
-        <v>2035</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="28">
@@ -38029,7 +38029,7 @@
         <v>22044.54</v>
       </c>
       <c r="J28" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="29">
@@ -38073,7 +38073,7 @@
         <v>307.15</v>
       </c>
       <c r="J29" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="30">
@@ -38117,7 +38117,7 @@
         <v>750</v>
       </c>
       <c r="J30" t="n">
-        <v>2066</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="31">
@@ -38161,7 +38161,7 @@
         <v>11647.28</v>
       </c>
       <c r="J31" t="n">
-        <v>2035</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="32">
@@ -38205,7 +38205,7 @@
         <v>307.67</v>
       </c>
       <c r="J32" t="n">
-        <v>1975</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="33">
@@ -38249,7 +38249,7 @@
         <v>3825.95</v>
       </c>
       <c r="J33" t="n">
-        <v>2066</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="34">
@@ -38293,7 +38293,7 @@
         <v>4019.99</v>
       </c>
       <c r="J34" t="n">
-        <v>1975</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="35">
@@ -38337,7 +38337,7 @@
         <v>2066.4</v>
       </c>
       <c r="J35" t="n">
-        <v>1975</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="36">
@@ -38381,7 +38381,7 @@
         <v>825.09</v>
       </c>
       <c r="J36" t="n">
-        <v>1975</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="37">
@@ -38425,7 +38425,7 @@
         <v>465.55</v>
       </c>
       <c r="J37" t="n">
-        <v>1975</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="38">
@@ -38469,7 +38469,7 @@
         <v>1135.77</v>
       </c>
       <c r="J38" t="n">
-        <v>1975</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="39">
@@ -38513,7 +38513,7 @@
         <v>270.15</v>
       </c>
       <c r="J39" t="n">
-        <v>1975</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="40">
@@ -38557,7 +38557,7 @@
         <v>749.25</v>
       </c>
       <c r="J40" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="41">
@@ -38601,7 +38601,7 @@
         <v>74.73</v>
       </c>
       <c r="J41" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="42">
@@ -38645,7 +38645,7 @@
         <v>7.73</v>
       </c>
       <c r="J42" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="43">
@@ -38689,7 +38689,7 @@
         <v>6.7</v>
       </c>
       <c r="J43" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="44">
@@ -38733,7 +38733,7 @@
         <v>22.98</v>
       </c>
       <c r="J44" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="45">
@@ -38777,7 +38777,7 @@
         <v>7.15</v>
       </c>
       <c r="J45" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="46">
@@ -38819,7 +38819,7 @@
         <v>32.39</v>
       </c>
       <c r="J46" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="47">
@@ -38861,7 +38861,7 @@
         <v>3.53</v>
       </c>
       <c r="J47" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="48">
@@ -38903,7 +38903,7 @@
         <v>2.68</v>
       </c>
       <c r="J48" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="49">
@@ -38945,7 +38945,7 @@
         <v>2.3</v>
       </c>
       <c r="J49" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="50">
@@ -38987,7 +38987,7 @@
         <v>0.95</v>
       </c>
       <c r="J50" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="51">
@@ -39031,7 +39031,7 @@
         <v>879.95</v>
       </c>
       <c r="J51" t="n">
-        <v>2066</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="52">
@@ -39075,7 +39075,7 @@
         <v>3309.33</v>
       </c>
       <c r="J52" t="n">
-        <v>2066</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="53">
@@ -39117,7 +39117,7 @@
         <v>201287.6</v>
       </c>
       <c r="J53" t="n">
-        <v>1975</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="54">
@@ -39161,7 +39161,7 @@
         <v>2937.56</v>
       </c>
       <c r="J54" t="n">
-        <v>2066</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="55">
@@ -39203,7 +39203,7 @@
         <v>500000</v>
       </c>
       <c r="J55" t="n">
-        <v>1975</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="56">
@@ -39245,7 +39245,7 @@
         <v>300000</v>
       </c>
       <c r="J56" t="n">
-        <v>1975</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="57">
@@ -39289,7 +39289,7 @@
         <v>4707.21</v>
       </c>
       <c r="J57" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="58">
@@ -39333,7 +39333,7 @@
         <v>5792</v>
       </c>
       <c r="J58" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="59">
@@ -39377,7 +39377,7 @@
         <v>101560.06</v>
       </c>
       <c r="J59" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="60">
@@ -39421,7 +39421,7 @@
         <v>26498.71</v>
       </c>
       <c r="J60" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="61">
@@ -39465,7 +39465,7 @@
         <v>45</v>
       </c>
       <c r="J61" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="62">
@@ -39509,7 +39509,7 @@
         <v>10785.04</v>
       </c>
       <c r="J62" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="63">
@@ -39553,7 +39553,7 @@
         <v>18403.54</v>
       </c>
       <c r="J63" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="64">
@@ -39597,7 +39597,7 @@
         <v>7447.07</v>
       </c>
       <c r="J64" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="65">
@@ -39641,7 +39641,7 @@
         <v>320</v>
       </c>
       <c r="J65" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="66">
@@ -39685,7 +39685,7 @@
         <v>623.99</v>
       </c>
       <c r="J66" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="67">
@@ -39729,7 +39729,7 @@
         <v>2521.78</v>
       </c>
       <c r="J67" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="68">
@@ -39771,7 +39771,7 @@
         <v>696.5700000000001</v>
       </c>
       <c r="J68" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="69">
@@ -39813,7 +39813,7 @@
         <v>43719.57</v>
       </c>
       <c r="J69" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="70">
@@ -39855,7 +39855,7 @@
         <v>57874.08</v>
       </c>
       <c r="J70" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="71">
@@ -39897,7 +39897,7 @@
         <v>121328.22</v>
       </c>
       <c r="J71" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="72">
@@ -39941,7 +39941,7 @@
         <v>5193.96</v>
       </c>
       <c r="J72" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="73">
@@ -39985,7 +39985,7 @@
         <v>11924.4</v>
       </c>
       <c r="J73" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="74">
@@ -40029,7 +40029,7 @@
         <v>112.75</v>
       </c>
       <c r="J74" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="75">
@@ -40073,7 +40073,7 @@
         <v>1042.9</v>
       </c>
       <c r="J75" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="76">
@@ -40117,7 +40117,7 @@
         <v>3746.06</v>
       </c>
       <c r="J76" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="77">
@@ -40161,7 +40161,7 @@
         <v>1195</v>
       </c>
       <c r="J77" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="78">
@@ -40205,7 +40205,7 @@
         <v>257.6</v>
       </c>
       <c r="J78" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="79">
@@ -40249,7 +40249,7 @@
         <v>25816</v>
       </c>
       <c r="J79" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="80">
@@ -40293,7 +40293,7 @@
         <v>335.8</v>
       </c>
       <c r="J80" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="81">
@@ -40337,7 +40337,7 @@
         <v>1037.89</v>
       </c>
       <c r="J81" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="82">
@@ -40381,7 +40381,7 @@
         <v>3635</v>
       </c>
       <c r="J82" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="83">
@@ -40425,7 +40425,7 @@
         <v>401.44</v>
       </c>
       <c r="J83" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="84">
@@ -40469,7 +40469,7 @@
         <v>6686.7</v>
       </c>
       <c r="J84" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="85">
@@ -40513,7 +40513,7 @@
         <v>227935.52</v>
       </c>
       <c r="J85" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="86">
@@ -40557,7 +40557,7 @@
         <v>24071.7</v>
       </c>
       <c r="J86" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="87">
@@ -40601,7 +40601,7 @@
         <v>10091.43</v>
       </c>
       <c r="J87" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="88">
@@ -40643,7 +40643,7 @@
         <v>2311.72</v>
       </c>
       <c r="J88" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="89">
@@ -40685,7 +40685,7 @@
         <v>1655.77</v>
       </c>
       <c r="J89" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="90">
@@ -40727,7 +40727,7 @@
         <v>112077.24</v>
       </c>
       <c r="J90" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="91">
@@ -40769,7 +40769,7 @@
         <v>664</v>
       </c>
       <c r="J91" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="92">
@@ -40811,7 +40811,7 @@
         <v>1570.95</v>
       </c>
       <c r="J92" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="93">
@@ -40853,7 +40853,7 @@
         <v>119.78</v>
       </c>
       <c r="J93" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="94">
@@ -40895,7 +40895,7 @@
         <v>902</v>
       </c>
       <c r="J94" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="95">
@@ -40939,7 +40939,7 @@
         <v>10136.56</v>
       </c>
       <c r="J95" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="96">
@@ -40983,7 +40983,7 @@
         <v>355</v>
       </c>
       <c r="J96" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="97">
@@ -41027,7 +41027,7 @@
         <v>80107.53999999999</v>
       </c>
       <c r="J97" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="98">
@@ -41108,7 +41108,7 @@
         <v>222000</v>
       </c>
       <c r="J99" t="n">
-        <v>1792</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="100">
@@ -41152,7 +41152,7 @@
         <v>181085.7</v>
       </c>
       <c r="J100" t="n">
-        <v>1792</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="101">
@@ -41196,7 +41196,7 @@
         <v>85189.75</v>
       </c>
       <c r="J101" t="n">
-        <v>1792</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="102">
@@ -41240,7 +41240,7 @@
         <v>10693.66</v>
       </c>
       <c r="J102" t="n">
-        <v>1792</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="103">
@@ -41284,7 +41284,7 @@
         <v>10171.03</v>
       </c>
       <c r="J103" t="n">
-        <v>1792</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="104">
@@ -41328,7 +41328,7 @@
         <v>324.4</v>
       </c>
       <c r="J104" t="n">
-        <v>1792</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="105">
@@ -41372,7 +41372,7 @@
         <v>15555.05</v>
       </c>
       <c r="J105" t="n">
-        <v>1792</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="106">
@@ -41416,7 +41416,7 @@
         <v>2070.9</v>
       </c>
       <c r="J106" t="n">
-        <v>1792</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="107">
@@ -41460,7 +41460,7 @@
         <v>1641.38</v>
       </c>
       <c r="J107" t="n">
-        <v>1792</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="108">
@@ -41504,7 +41504,7 @@
         <v>125.99</v>
       </c>
       <c r="J108" t="n">
-        <v>1792</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="109">
@@ -41548,7 +41548,7 @@
         <v>849.47</v>
       </c>
       <c r="J109" t="n">
-        <v>1792</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="110">
@@ -41592,7 +41592,7 @@
         <v>6825</v>
       </c>
       <c r="J110" t="n">
-        <v>1792</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="111">
@@ -41636,7 +41636,7 @@
         <v>320000</v>
       </c>
       <c r="J111" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="112">
@@ -41680,7 +41680,7 @@
         <v>500000</v>
       </c>
       <c r="J112" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="113">
@@ -41724,7 +41724,7 @@
         <v>202.56</v>
       </c>
       <c r="J113" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="114">
@@ -41768,7 +41768,7 @@
         <v>426.6</v>
       </c>
       <c r="J114" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="115">
@@ -41812,7 +41812,7 @@
         <v>461.6</v>
       </c>
       <c r="J115" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="116">
@@ -41856,7 +41856,7 @@
         <v>880000</v>
       </c>
       <c r="J116" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="117">
@@ -41900,7 +41900,7 @@
         <v>11170.22</v>
       </c>
       <c r="J117" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="118">
@@ -41942,7 +41942,7 @@
         <v>131361.18</v>
       </c>
       <c r="J118" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="119">
@@ -41984,7 +41984,7 @@
         <v>441313</v>
       </c>
       <c r="J119" t="n">
-        <v>1792</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="120">
@@ -42026,7 +42026,7 @@
         <v>57.14</v>
       </c>
       <c r="J120" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="121">
@@ -42068,7 +42068,7 @@
         <v>42129.3</v>
       </c>
       <c r="J121" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="122">
@@ -42110,7 +42110,7 @@
         <v>100000</v>
       </c>
       <c r="J122" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="123">
@@ -42154,7 +42154,7 @@
         <v>1641264.88</v>
       </c>
       <c r="J123" t="n">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="124">
@@ -42198,7 +42198,7 @@
         <v>404427.91</v>
       </c>
       <c r="J124" t="n">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="125">
@@ -42242,7 +42242,7 @@
         <v>2065</v>
       </c>
       <c r="J125" t="n">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="126">
@@ -42286,7 +42286,7 @@
         <v>164.1</v>
       </c>
       <c r="J126" t="n">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="127">
@@ -42330,7 +42330,7 @@
         <v>149</v>
       </c>
       <c r="J127" t="n">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="128">
@@ -42374,7 +42374,7 @@
         <v>743.61</v>
       </c>
       <c r="J128" t="n">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="129">
@@ -42418,7 +42418,7 @@
         <v>16927</v>
       </c>
       <c r="J129" t="n">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="130">
@@ -42460,7 +42460,7 @@
         <v>1558667.79</v>
       </c>
       <c r="J130" t="n">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="131">
@@ -42504,7 +42504,7 @@
         <v>145.23</v>
       </c>
       <c r="J131" t="n">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="132">
@@ -42548,7 +42548,7 @@
         <v>57.2</v>
       </c>
       <c r="J132" t="n">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="133">
@@ -42592,7 +42592,7 @@
         <v>4831.6</v>
       </c>
       <c r="J133" t="n">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="134">
@@ -42636,7 +42636,7 @@
         <v>1631.9</v>
       </c>
       <c r="J134" t="n">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="135">
@@ -42680,7 +42680,7 @@
         <v>73.55</v>
       </c>
       <c r="J135" t="n">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="136">
@@ -42724,7 +42724,7 @@
         <v>1021.48</v>
       </c>
       <c r="J136" t="n">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="137">
@@ -42768,7 +42768,7 @@
         <v>7573.19</v>
       </c>
       <c r="J137" t="n">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="138">
@@ -42812,7 +42812,7 @@
         <v>1464.6</v>
       </c>
       <c r="J138" t="n">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="139">
@@ -42854,7 +42854,7 @@
         <v>199784.43</v>
       </c>
       <c r="J139" t="n">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="140">
@@ -42896,7 +42896,7 @@
         <v>300000</v>
       </c>
       <c r="J140" t="n">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="141">
@@ -47987,7 +47987,7 @@
         <v>-136.95</v>
       </c>
       <c r="J272" t="n">
-        <v>2066</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="273">
@@ -48305,7 +48305,7 @@
         <v>386.36</v>
       </c>
       <c r="J2" t="n">
-        <v>2066</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="3">
@@ -48349,7 +48349,7 @@
         <v>1541.33</v>
       </c>
       <c r="J3" t="n">
-        <v>2066</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="4">
@@ -48393,7 +48393,7 @@
         <v>359.01</v>
       </c>
       <c r="J4" t="n">
-        <v>2066</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="5">
@@ -48437,7 +48437,7 @@
         <v>3110.47</v>
       </c>
       <c r="J5" t="n">
-        <v>2066</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="6">
@@ -48481,7 +48481,7 @@
         <v>345.53</v>
       </c>
       <c r="J6" t="n">
-        <v>2035</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="7">
@@ -48525,7 +48525,7 @@
         <v>393.53</v>
       </c>
       <c r="J7" t="n">
-        <v>2035</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="8">
@@ -48569,7 +48569,7 @@
         <v>3146.14</v>
       </c>
       <c r="J8" t="n">
-        <v>2035</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="9">
@@ -48613,7 +48613,7 @@
         <v>1048.71</v>
       </c>
       <c r="J9" t="n">
-        <v>2035</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="10">
@@ -48657,7 +48657,7 @@
         <v>944.91</v>
       </c>
       <c r="J10" t="n">
-        <v>2035</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="11">
@@ -48701,7 +48701,7 @@
         <v>50.46</v>
       </c>
       <c r="J11" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="12">
@@ -48745,7 +48745,7 @@
         <v>110.96</v>
       </c>
       <c r="J12" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="13">
@@ -48789,7 +48789,7 @@
         <v>4102.83</v>
       </c>
       <c r="J13" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="14">
@@ -48833,7 +48833,7 @@
         <v>7145.82</v>
       </c>
       <c r="J14" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="15">
@@ -48877,7 +48877,7 @@
         <v>373.92</v>
       </c>
       <c r="J15" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="16">
@@ -48921,7 +48921,7 @@
         <v>378.6</v>
       </c>
       <c r="J16" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="17">
@@ -48965,7 +48965,7 @@
         <v>44.53</v>
       </c>
       <c r="J17" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="18">
@@ -49009,7 +49009,7 @@
         <v>4.51</v>
       </c>
       <c r="J18" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="19">
@@ -49053,7 +49053,7 @@
         <v>31.17</v>
       </c>
       <c r="J19" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="20">
@@ -49097,7 +49097,7 @@
         <v>26.72</v>
       </c>
       <c r="J20" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="21">
@@ -49141,7 +49141,7 @@
         <v>4.56</v>
       </c>
       <c r="J21" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="22">
@@ -49185,7 +49185,7 @@
         <v>5052.57</v>
       </c>
       <c r="J22" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="23">
@@ -49229,7 +49229,7 @@
         <v>2726.52</v>
       </c>
       <c r="J23" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="24">
@@ -49273,7 +49273,7 @@
         <v>265.62</v>
       </c>
       <c r="J24" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="25">
@@ -49317,7 +49317,7 @@
         <v>415.81</v>
       </c>
       <c r="J25" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="26">
@@ -49361,7 +49361,7 @@
         <v>387.88</v>
       </c>
       <c r="J26" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="27">
@@ -49405,7 +49405,7 @@
         <v>287.11</v>
       </c>
       <c r="J27" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="28">
@@ -49449,7 +49449,7 @@
         <v>392.67</v>
       </c>
       <c r="J28" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="29">
@@ -49493,7 +49493,7 @@
         <v>387.88</v>
       </c>
       <c r="J29" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="30">
@@ -49537,7 +49537,7 @@
         <v>342.43</v>
       </c>
       <c r="J30" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="31">
@@ -49581,7 +49581,7 @@
         <v>322.55</v>
       </c>
       <c r="J31" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="32">
@@ -49625,7 +49625,7 @@
         <v>415.81</v>
       </c>
       <c r="J32" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="33">
@@ -49669,7 +49669,7 @@
         <v>392.67</v>
       </c>
       <c r="J33" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="34">
@@ -49713,7 +49713,7 @@
         <v>336.57</v>
       </c>
       <c r="J34" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="35">
@@ -49757,7 +49757,7 @@
         <v>328.82</v>
       </c>
       <c r="J35" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="36">
@@ -49801,7 +49801,7 @@
         <v>387.88</v>
       </c>
       <c r="J36" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="37">
@@ -49845,7 +49845,7 @@
         <v>481.13</v>
       </c>
       <c r="J37" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="38">
@@ -49889,7 +49889,7 @@
         <v>423</v>
       </c>
       <c r="J38" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="39">
@@ -49933,7 +49933,7 @@
         <v>514.09</v>
       </c>
       <c r="J39" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="40">
@@ -49977,7 +49977,7 @@
         <v>387.88</v>
       </c>
       <c r="J40" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="41">
@@ -50021,7 +50021,7 @@
         <v>493.23</v>
       </c>
       <c r="J41" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="42">
@@ -50065,7 +50065,7 @@
         <v>384.69</v>
       </c>
       <c r="J42" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="43">
@@ -50109,7 +50109,7 @@
         <v>396.01</v>
       </c>
       <c r="J43" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="44">
@@ -50153,7 +50153,7 @@
         <v>3176.27</v>
       </c>
       <c r="J44" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="45">
@@ -50197,7 +50197,7 @@
         <v>2328.7</v>
       </c>
       <c r="J45" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="46">
@@ -50241,7 +50241,7 @@
         <v>2082.32</v>
       </c>
       <c r="J46" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="47">
@@ -50285,7 +50285,7 @@
         <v>896.52</v>
       </c>
       <c r="J47" t="n">
-        <v>1975</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="48">
@@ -50329,7 +50329,7 @@
         <v>421.76</v>
       </c>
       <c r="J48" t="n">
-        <v>1975</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="49">
@@ -50373,7 +50373,7 @@
         <v>581.55</v>
       </c>
       <c r="J49" t="n">
-        <v>1975</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="50">
@@ -50417,7 +50417,7 @@
         <v>374.05</v>
       </c>
       <c r="J50" t="n">
-        <v>1975</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="51">
@@ -50459,7 +50459,7 @@
         <v>1342.57</v>
       </c>
       <c r="J51" t="n">
-        <v>1975</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="52">
@@ -50501,7 +50501,7 @@
         <v>126029.76</v>
       </c>
       <c r="J52" t="n">
-        <v>2066</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="53">
@@ -50543,7 +50543,7 @@
         <v>126029.76</v>
       </c>
       <c r="J53" t="n">
-        <v>2035</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="54">
@@ -50585,7 +50585,7 @@
         <v>101770.01</v>
       </c>
       <c r="J54" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="55">
@@ -50627,7 +50627,7 @@
         <v>1166750.41</v>
       </c>
       <c r="J55" t="n">
-        <v>1975</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="56">
@@ -50671,7 +50671,7 @@
         <v>151730.67</v>
       </c>
       <c r="J56" t="n">
-        <v>2066</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="57">
@@ -50715,7 +50715,7 @@
         <v>147101.86</v>
       </c>
       <c r="J57" t="n">
-        <v>2035</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="58">
@@ -50759,7 +50759,7 @@
         <v>135468.6</v>
       </c>
       <c r="J58" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="59">
@@ -50803,7 +50803,7 @@
         <v>139952.62</v>
       </c>
       <c r="J59" t="n">
-        <v>1975</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="60">
@@ -50845,7 +50845,7 @@
         <v>552.33</v>
       </c>
       <c r="J60" t="n">
-        <v>2066</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="61">
@@ -50889,7 +50889,7 @@
         <v>50.08</v>
       </c>
       <c r="J61" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="62">
@@ -50933,7 +50933,7 @@
         <v>110.11</v>
       </c>
       <c r="J62" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="63">
@@ -50977,7 +50977,7 @@
         <v>747.21</v>
       </c>
       <c r="J63" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="64">
@@ -51021,7 +51021,7 @@
         <v>2490.47</v>
       </c>
       <c r="J64" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="65">
@@ -51065,7 +51065,7 @@
         <v>1579.74</v>
       </c>
       <c r="J65" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="66">
@@ -51109,7 +51109,7 @@
         <v>4861.79</v>
       </c>
       <c r="J66" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="67">
@@ -51153,7 +51153,7 @@
         <v>421.69</v>
       </c>
       <c r="J67" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="68">
@@ -51197,7 +51197,7 @@
         <v>611.46</v>
       </c>
       <c r="J68" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="69">
@@ -51241,7 +51241,7 @@
         <v>479.02</v>
       </c>
       <c r="J69" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="70">
@@ -51285,7 +51285,7 @@
         <v>479.02</v>
       </c>
       <c r="J70" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="71">
@@ -51329,7 +51329,7 @@
         <v>485.42</v>
       </c>
       <c r="J71" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="72">
@@ -51373,7 +51373,7 @@
         <v>483.33</v>
       </c>
       <c r="J72" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="73">
@@ -51417,7 +51417,7 @@
         <v>14793.36</v>
       </c>
       <c r="J73" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="74">
@@ -51461,7 +51461,7 @@
         <v>36.92</v>
       </c>
       <c r="J74" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="75">
@@ -51505,7 +51505,7 @@
         <v>1343.78</v>
       </c>
       <c r="J75" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="76">
@@ -51549,7 +51549,7 @@
         <v>754.39</v>
       </c>
       <c r="J76" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="77">
@@ -51593,7 +51593,7 @@
         <v>1614.17</v>
       </c>
       <c r="J77" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="78">
@@ -51637,7 +51637,7 @@
         <v>489.5</v>
       </c>
       <c r="J78" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="79">
@@ -51681,7 +51681,7 @@
         <v>411.5</v>
       </c>
       <c r="J79" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="80">
@@ -51725,7 +51725,7 @@
         <v>7191.27</v>
       </c>
       <c r="J80" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="81">
@@ -51769,7 +51769,7 @@
         <v>111.07</v>
       </c>
       <c r="J81" t="n">
-        <v>1792</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="82">
@@ -51813,7 +51813,7 @@
         <v>358.47</v>
       </c>
       <c r="J82" t="n">
-        <v>1792</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="83">
@@ -51857,7 +51857,7 @@
         <v>4.62</v>
       </c>
       <c r="J83" t="n">
-        <v>1792</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="84">
@@ -51901,7 +51901,7 @@
         <v>392.53</v>
       </c>
       <c r="J84" t="n">
-        <v>1792</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="85">
@@ -51945,7 +51945,7 @@
         <v>392.53</v>
       </c>
       <c r="J85" t="n">
-        <v>1792</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="86">
@@ -51989,7 +51989,7 @@
         <v>387.75</v>
       </c>
       <c r="J86" t="n">
-        <v>1792</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="87">
@@ -52033,7 +52033,7 @@
         <v>392.53</v>
       </c>
       <c r="J87" t="n">
-        <v>1792</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="88">
@@ -52077,7 +52077,7 @@
         <v>392.53</v>
       </c>
       <c r="J88" t="n">
-        <v>1792</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="89">
@@ -52121,7 +52121,7 @@
         <v>339.54</v>
       </c>
       <c r="J89" t="n">
-        <v>1792</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="90">
@@ -52165,7 +52165,7 @@
         <v>559.45</v>
       </c>
       <c r="J90" t="n">
-        <v>1792</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="91">
@@ -52209,7 +52209,7 @@
         <v>4.56</v>
       </c>
       <c r="J91" t="n">
-        <v>1792</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="92">
@@ -52253,7 +52253,7 @@
         <v>289.83</v>
       </c>
       <c r="J92" t="n">
-        <v>1792</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="93">
@@ -52297,7 +52297,7 @@
         <v>124845.86</v>
       </c>
       <c r="J93" t="n">
-        <v>1792</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="94">
@@ -52341,7 +52341,7 @@
         <v>134.45</v>
       </c>
       <c r="J94" t="n">
-        <v>1792</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="95">
@@ -52385,7 +52385,7 @@
         <v>107405.62</v>
       </c>
       <c r="J95" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="96">
@@ -52429,7 +52429,7 @@
         <v>66012.42999999999</v>
       </c>
       <c r="J96" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="97">
@@ -52473,7 +52473,7 @@
         <v>556.79</v>
       </c>
       <c r="J97" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="98">
@@ -52517,7 +52517,7 @@
         <v>161108.43</v>
       </c>
       <c r="J98" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="99">
@@ -52559,7 +52559,7 @@
         <v>1166750.41</v>
       </c>
       <c r="J99" t="n">
-        <v>1884</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="100">
@@ -52601,7 +52601,7 @@
         <v>67298.91</v>
       </c>
       <c r="J100" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="101">
@@ -52643,7 +52643,7 @@
         <v>62648.65</v>
       </c>
       <c r="J101" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="102">
@@ -52685,7 +52685,7 @@
         <v>59358.33</v>
       </c>
       <c r="J102" t="n">
-        <v>1792</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="103">
@@ -52729,7 +52729,7 @@
         <v>139952.62</v>
       </c>
       <c r="J103" t="n">
-        <v>1884</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="104">
@@ -52773,7 +52773,7 @@
         <v>847905.17</v>
       </c>
       <c r="J104" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="105">
@@ -52817,7 +52817,7 @@
         <v>130366.35</v>
       </c>
       <c r="J105" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="106">
@@ -52861,7 +52861,7 @@
         <v>129887.73</v>
       </c>
       <c r="J106" t="n">
-        <v>1792</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="107">
@@ -52905,7 +52905,7 @@
         <v>103620.68</v>
       </c>
       <c r="J107" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="108">
@@ -52949,7 +52949,7 @@
         <v>313414.75</v>
       </c>
       <c r="J108" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="109">
@@ -52993,7 +52993,7 @@
         <v>715657.17</v>
       </c>
       <c r="J109" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="110">
@@ -53037,7 +53037,7 @@
         <v>352783.1</v>
       </c>
       <c r="J110" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="111">
@@ -53081,7 +53081,7 @@
         <v>100846.52</v>
       </c>
       <c r="J111" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="112">
@@ -53125,7 +53125,7 @@
         <v>33868.77</v>
       </c>
       <c r="J112" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="113">
@@ -53169,7 +53169,7 @@
         <v>2088.63</v>
       </c>
       <c r="J113" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="114">
@@ -53213,7 +53213,7 @@
         <v>35197.69</v>
       </c>
       <c r="J114" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="115">
@@ -53257,7 +53257,7 @@
         <v>140224.22</v>
       </c>
       <c r="J115" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="116">
@@ -53299,7 +53299,7 @@
         <v>56486.56</v>
       </c>
       <c r="J116" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="117">
@@ -53341,7 +53341,7 @@
         <v>14733.7</v>
       </c>
       <c r="J117" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="118">
@@ -53383,7 +53383,7 @@
         <v>151713.9</v>
       </c>
       <c r="J118" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="119">
@@ -53427,7 +53427,7 @@
         <v>174.37</v>
       </c>
       <c r="J119" t="n">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="120">
@@ -53471,7 +53471,7 @@
         <v>244.65</v>
       </c>
       <c r="J120" t="n">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="121">
@@ -53515,7 +53515,7 @@
         <v>242.78</v>
       </c>
       <c r="J121" t="n">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="122">
@@ -53559,7 +53559,7 @@
         <v>533.98</v>
       </c>
       <c r="J122" t="n">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="123">
@@ -53603,7 +53603,7 @@
         <v>859.24</v>
       </c>
       <c r="J123" t="n">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="124">
@@ -53647,7 +53647,7 @@
         <v>3269.56</v>
       </c>
       <c r="J124" t="n">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="125">
@@ -53691,7 +53691,7 @@
         <v>3963.27</v>
       </c>
       <c r="J125" t="n">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="126">
@@ -53733,7 +53733,7 @@
         <v>59358.33</v>
       </c>
       <c r="J126" t="n">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="127">
@@ -53777,7 +53777,7 @@
         <v>164325.02</v>
       </c>
       <c r="J127" t="n">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="128">
@@ -53821,7 +53821,7 @@
         <v>169.69</v>
       </c>
       <c r="J128" t="n">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="129">
@@ -53865,7 +53865,7 @@
         <v>161.93</v>
       </c>
       <c r="J129" t="n">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="130">
@@ -53909,7 +53909,7 @@
         <v>950.46</v>
       </c>
       <c r="J130" t="n">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="131">
@@ -53953,7 +53953,7 @@
         <v>80554.21000000001</v>
       </c>
       <c r="J131" t="n">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="132">
@@ -53997,7 +53997,7 @@
         <v>486.84</v>
       </c>
       <c r="J132" t="n">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="133">
@@ -54039,7 +54039,7 @@
         <v>88894.87</v>
       </c>
       <c r="J133" t="n">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="134">
@@ -54120,7 +54120,7 @@
         <v>82001.82000000001</v>
       </c>
       <c r="J135" t="n">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="136">
@@ -54203,7 +54203,7 @@
         <v>268514.04</v>
       </c>
       <c r="J137" t="n">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="138">
@@ -59951,7 +59951,7 @@
         <v>-232183.17</v>
       </c>
       <c r="J2" t="n">
-        <v>2066</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="3">
@@ -60072,7 +60072,7 @@
         <v>-131595.32</v>
       </c>
       <c r="J2" t="n">
-        <v>2066</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="3">
@@ -60114,7 +60114,7 @@
         <v>-152126.24</v>
       </c>
       <c r="J3" t="n">
-        <v>2066</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="4">
@@ -60156,7 +60156,7 @@
         <v>-126029.76</v>
       </c>
       <c r="J4" t="n">
-        <v>2035</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="5">
@@ -60198,7 +60198,7 @@
         <v>-152152.3</v>
       </c>
       <c r="J5" t="n">
-        <v>2035</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="6">
@@ -60240,7 +60240,7 @@
         <v>-126029.76</v>
       </c>
       <c r="J6" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="7">
@@ -60282,7 +60282,7 @@
         <v>-147101.86</v>
       </c>
       <c r="J7" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="8">
@@ -60324,7 +60324,7 @@
         <v>-5873.47</v>
       </c>
       <c r="J8" t="n">
-        <v>1975</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="9">
@@ -60368,7 +60368,7 @@
         <v>-268514.04</v>
       </c>
       <c r="J9" t="n">
-        <v>1975</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="10">
@@ -60412,7 +60412,7 @@
         <v>-299178.35</v>
       </c>
       <c r="J10" t="n">
-        <v>1975</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="11">
@@ -60456,7 +60456,7 @@
         <v>-498630.58</v>
       </c>
       <c r="J11" t="n">
-        <v>1975</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="12">
@@ -60498,7 +60498,7 @@
         <v>-101770.01</v>
       </c>
       <c r="J12" t="n">
-        <v>1975</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="13">
@@ -60540,7 +60540,7 @@
         <v>-135468.6</v>
       </c>
       <c r="J13" t="n">
-        <v>1975</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="14">
@@ -60582,7 +60582,7 @@
         <v>-1166750.41</v>
       </c>
       <c r="J14" t="n">
-        <v>1884</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="15">
@@ -60624,7 +60624,7 @@
         <v>-139952.62</v>
       </c>
       <c r="J15" t="n">
-        <v>1884</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="16">
@@ -60668,7 +60668,7 @@
         <v>5873.47</v>
       </c>
       <c r="J16" t="n">
-        <v>1975</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="17">
@@ -60712,7 +60712,7 @@
         <v>-99253.53</v>
       </c>
       <c r="J17" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="18">
@@ -60756,7 +60756,7 @@
         <v>-876172.0600000001</v>
       </c>
       <c r="J18" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="19">
@@ -60800,7 +60800,7 @@
         <v>-318608.02</v>
       </c>
       <c r="J19" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="20">
@@ -60842,7 +60842,7 @@
         <v>-1166750.41</v>
       </c>
       <c r="J20" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="21">
@@ -60884,7 +60884,7 @@
         <v>-139952.62</v>
       </c>
       <c r="J21" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="22">
@@ -60928,7 +60928,7 @@
         <v>-486.84</v>
       </c>
       <c r="J22" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="23">
@@ -60972,7 +60972,7 @@
         <v>-67298.91</v>
       </c>
       <c r="J23" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="24">
@@ -61014,7 +61014,7 @@
         <v>-847905.17</v>
       </c>
       <c r="J24" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="25">
@@ -61058,7 +61058,7 @@
         <v>-62648.65</v>
       </c>
       <c r="J25" t="n">
-        <v>1792</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="26">
@@ -61100,7 +61100,7 @@
         <v>-130366.35</v>
       </c>
       <c r="J26" t="n">
-        <v>1792</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="27">
@@ -61144,7 +61144,7 @@
         <v>-533.91</v>
       </c>
       <c r="J27" t="n">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="28">
@@ -61186,7 +61186,7 @@
         <v>-20951.65</v>
       </c>
       <c r="J28" t="n">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="29">
@@ -61228,7 +61228,7 @@
         <v>-18124.7</v>
       </c>
       <c r="J29" t="n">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="30">
@@ -61272,7 +61272,7 @@
         <v>-59358.33</v>
       </c>
       <c r="J30" t="n">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="31">
@@ -61314,7 +61314,7 @@
         <v>-129887.73</v>
       </c>
       <c r="J31" t="n">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="32">
@@ -61358,7 +61358,7 @@
         <v>18124.7</v>
       </c>
       <c r="J32" t="n">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="33">
@@ -61402,7 +61402,7 @@
         <v>20951.65</v>
       </c>
       <c r="J33" t="n">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="34">
@@ -61446,7 +61446,7 @@
         <v>-80554.21000000001</v>
       </c>
       <c r="J34" t="n">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="35">
@@ -61490,7 +61490,7 @@
         <v>-298050.59</v>
       </c>
       <c r="J35" t="n">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="36">
@@ -61534,7 +61534,7 @@
         <v>-59358.33</v>
       </c>
       <c r="J36" t="n">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="37">
@@ -61576,7 +61576,7 @@
         <v>-164325.02</v>
       </c>
       <c r="J37" t="n">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="38">
@@ -63081,7 +63081,7 @@
         <v>-42623.21</v>
       </c>
       <c r="J2" t="n">
-        <v>2066</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="3">
@@ -63125,7 +63125,7 @@
         <v>-283.65</v>
       </c>
       <c r="J3" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="4">
@@ -63169,7 +63169,7 @@
         <v>-2715.91</v>
       </c>
       <c r="J4" t="n">
-        <v>1975</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="5">
@@ -63213,7 +63213,7 @@
         <v>-881.4400000000001</v>
       </c>
       <c r="J5" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="6">
@@ -63375,7 +63375,7 @@
         <v>164170.63</v>
       </c>
       <c r="J2" t="n">
-        <v>2035</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="3">
@@ -63419,7 +63419,7 @@
         <v>86680.83</v>
       </c>
       <c r="J3" t="n">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="4">

--- a/Final Report.xlsx
+++ b/Final Report.xlsx
@@ -470,7 +470,7 @@
   </sheetPr>
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>06.01.2020</t>
+          <t>06/01/2020</t>
         </is>
       </c>
       <c r="D2" s="5" t="inlineStr">
@@ -1782,7 +1782,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>06.01.2020</t>
+          <t>06/01/2020</t>
         </is>
       </c>
       <c r="D3" s="5" t="inlineStr">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>06.04.2020</t>
+          <t>06/04/2020</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
@@ -1870,7 +1870,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>06.04.2020</t>
+          <t>06/04/2020</t>
         </is>
       </c>
       <c r="D5" s="5" t="inlineStr">
@@ -1914,7 +1914,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>06.04.2020</t>
+          <t>06/04/2020</t>
         </is>
       </c>
       <c r="D6" s="5" t="inlineStr">
@@ -1958,7 +1958,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D7" s="5" t="inlineStr">
@@ -2405,7 +2405,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>06.02.2020</t>
+          <t>06/02/2020</t>
         </is>
       </c>
       <c r="D2" s="5" t="inlineStr">
@@ -2449,7 +2449,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>06.04.2020</t>
+          <t>06/04/2020</t>
         </is>
       </c>
       <c r="D3" s="5" t="inlineStr">
@@ -2493,7 +2493,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>06.03.2020</t>
+          <t>06/03/2020</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
@@ -2537,7 +2537,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>06.01.2020</t>
+          <t>06/01/2020</t>
         </is>
       </c>
       <c r="D5" s="5" t="inlineStr">
@@ -2581,7 +2581,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>06.01.2020</t>
+          <t>06/01/2020</t>
         </is>
       </c>
       <c r="D6" s="5" t="inlineStr">
@@ -2625,7 +2625,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>06.01.2020</t>
+          <t>06/01/2020</t>
         </is>
       </c>
       <c r="D7" s="5" t="inlineStr">
@@ -2669,7 +2669,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>06.01.2020</t>
+          <t>06/01/2020</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>06.02.2020</t>
+          <t>06/02/2020</t>
         </is>
       </c>
       <c r="D9" s="5" t="inlineStr">
@@ -2757,7 +2757,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>06.02.2020</t>
+          <t>06/02/2020</t>
         </is>
       </c>
       <c r="D10" s="5" t="inlineStr">
@@ -2801,7 +2801,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>06.02.2020</t>
+          <t>06/02/2020</t>
         </is>
       </c>
       <c r="D11" s="5" t="inlineStr">
@@ -2845,7 +2845,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>06.02.2020</t>
+          <t>06/02/2020</t>
         </is>
       </c>
       <c r="D12" s="5" t="inlineStr">
@@ -2889,7 +2889,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>06.02.2020</t>
+          <t>06/02/2020</t>
         </is>
       </c>
       <c r="D13" s="5" t="inlineStr">
@@ -2933,7 +2933,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>06.02.2020</t>
+          <t>06/02/2020</t>
         </is>
       </c>
       <c r="D14" s="5" t="inlineStr">
@@ -2977,7 +2977,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>06.01.2020</t>
+          <t>06/01/2020</t>
         </is>
       </c>
       <c r="D15" s="5" t="inlineStr">
@@ -3021,7 +3021,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>06.02.2020</t>
+          <t>06/02/2020</t>
         </is>
       </c>
       <c r="D16" s="5" t="inlineStr">
@@ -3065,7 +3065,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>06.02.2020</t>
+          <t>06/02/2020</t>
         </is>
       </c>
       <c r="D17" s="5" t="inlineStr">
@@ -3109,7 +3109,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>06.02.2020</t>
+          <t>06/02/2020</t>
         </is>
       </c>
       <c r="D18" s="5" t="inlineStr">
@@ -3153,7 +3153,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>06.02.2020</t>
+          <t>06/02/2020</t>
         </is>
       </c>
       <c r="D19" s="5" t="inlineStr">
@@ -3197,7 +3197,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>06.02.2020</t>
+          <t>06/02/2020</t>
         </is>
       </c>
       <c r="D20" s="5" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>06.02.2020</t>
+          <t>06/02/2020</t>
         </is>
       </c>
       <c r="D21" s="5" t="inlineStr">
@@ -3285,7 +3285,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D22" s="5" t="inlineStr">
@@ -3329,7 +3329,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D23" s="5" t="inlineStr">
@@ -3373,7 +3373,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D24" s="5" t="inlineStr">
@@ -3417,7 +3417,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D25" s="5" t="inlineStr">
@@ -3461,7 +3461,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D26" s="5" t="inlineStr">
@@ -3503,7 +3503,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D27" s="5" t="inlineStr">
@@ -3545,7 +3545,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D28" s="5" t="inlineStr">
@@ -3589,7 +3589,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D29" s="5" t="inlineStr">
@@ -3633,7 +3633,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D30" s="5" t="inlineStr">
@@ -3677,7 +3677,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D31" s="5" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>06.10.2020</t>
+          <t>06/10/2020</t>
         </is>
       </c>
       <c r="D32" s="5" t="inlineStr">
@@ -3765,7 +3765,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>06.12.2020</t>
+          <t>06/12/2020</t>
         </is>
       </c>
       <c r="D33" s="5" t="inlineStr">
@@ -5533,7 +5533,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>06.01.2020</t>
+          <t>06/01/2020</t>
         </is>
       </c>
       <c r="D2" s="5" t="inlineStr">
@@ -5577,7 +5577,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>06.01.2020</t>
+          <t>06/01/2020</t>
         </is>
       </c>
       <c r="D3" s="5" t="inlineStr">
@@ -5621,7 +5621,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>06.03.2020</t>
+          <t>06/03/2020</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
@@ -5665,7 +5665,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>06.04.2020</t>
+          <t>06/04/2020</t>
         </is>
       </c>
       <c r="D5" s="5" t="inlineStr">
@@ -5709,7 +5709,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D6" s="5" t="inlineStr">
@@ -5753,7 +5753,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D7" s="5" t="inlineStr">
@@ -5797,7 +5797,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>06.10.2020</t>
+          <t>06/10/2020</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
@@ -5841,7 +5841,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>06.12.2020</t>
+          <t>06/12/2020</t>
         </is>
       </c>
       <c r="D9" s="5" t="inlineStr">
@@ -6249,7 +6249,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>06.03.2020</t>
+          <t>06/03/2020</t>
         </is>
       </c>
       <c r="D2" s="5" t="inlineStr">
@@ -6293,7 +6293,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>06.03.2020</t>
+          <t>06/03/2020</t>
         </is>
       </c>
       <c r="D3" s="5" t="inlineStr">
@@ -6337,7 +6337,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>06.03.2020</t>
+          <t>06/03/2020</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
@@ -6381,7 +6381,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>06.03.2020</t>
+          <t>06/03/2020</t>
         </is>
       </c>
       <c r="D5" s="5" t="inlineStr">
@@ -6425,7 +6425,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>06.03.2020</t>
+          <t>06/03/2020</t>
         </is>
       </c>
       <c r="D6" s="5" t="inlineStr">
@@ -6469,7 +6469,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>06.03.2020</t>
+          <t>06/03/2020</t>
         </is>
       </c>
       <c r="D7" s="5" t="inlineStr">
@@ -6513,7 +6513,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>06.03.2020</t>
+          <t>06/03/2020</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
@@ -6555,7 +6555,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>06.03.2020</t>
+          <t>06/03/2020</t>
         </is>
       </c>
       <c r="D9" s="5" t="inlineStr">
@@ -6597,7 +6597,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>06.03.2020</t>
+          <t>06/03/2020</t>
         </is>
       </c>
       <c r="D10" s="5" t="inlineStr">
@@ -6639,7 +6639,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>06.03.2020</t>
+          <t>06/03/2020</t>
         </is>
       </c>
       <c r="D11" s="5" t="inlineStr">
@@ -6681,7 +6681,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>06.03.2020</t>
+          <t>06/03/2020</t>
         </is>
       </c>
       <c r="D12" s="5" t="inlineStr">
@@ -6725,7 +6725,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D13" s="5" t="inlineStr">
@@ -6769,7 +6769,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D14" s="5" t="inlineStr">
@@ -6813,7 +6813,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D15" s="5" t="inlineStr">
@@ -6855,7 +6855,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D16" s="5" t="inlineStr">
@@ -7179,7 +7179,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>06.01.2020</t>
+          <t>06/01/2020</t>
         </is>
       </c>
       <c r="D2" s="5" t="inlineStr">
@@ -7223,7 +7223,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>06.02.2020</t>
+          <t>06/02/2020</t>
         </is>
       </c>
       <c r="D3" s="5" t="inlineStr">
@@ -7267,7 +7267,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>06.03.2020</t>
+          <t>06/03/2020</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
@@ -7311,7 +7311,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>06.04.2020</t>
+          <t>06/04/2020</t>
         </is>
       </c>
       <c r="D5" s="5" t="inlineStr">
@@ -7355,7 +7355,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>06.07.2020</t>
+          <t>06/07/2020</t>
         </is>
       </c>
       <c r="D6" s="5" t="inlineStr">
@@ -7399,7 +7399,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D7" s="5" t="inlineStr">
@@ -7443,7 +7443,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
@@ -7487,7 +7487,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>06.10.2020</t>
+          <t>06/10/2020</t>
         </is>
       </c>
       <c r="D9" s="5" t="inlineStr">
@@ -7531,7 +7531,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>06.11.2020</t>
+          <t>06/11/2020</t>
         </is>
       </c>
       <c r="D10" s="5" t="inlineStr">
@@ -7575,7 +7575,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>06.12.2020</t>
+          <t>06/12/2020</t>
         </is>
       </c>
       <c r="D11" s="5" t="inlineStr">
@@ -8178,7 +8178,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>06.04.2020</t>
+          <t>06/04/2020</t>
         </is>
       </c>
       <c r="D2" s="5" t="inlineStr">
@@ -8222,7 +8222,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D3" s="5" t="inlineStr">
@@ -8266,7 +8266,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>06.10.2020</t>
+          <t>06/10/2020</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
@@ -8310,7 +8310,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>06.11.2020</t>
+          <t>06/11/2020</t>
         </is>
       </c>
       <c r="D5" s="5" t="inlineStr">
@@ -8354,7 +8354,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>06.12.2020</t>
+          <t>06/12/2020</t>
         </is>
       </c>
       <c r="D6" s="5" t="inlineStr">
@@ -8723,7 +8723,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>06.01.2020</t>
+          <t>06/01/2020</t>
         </is>
       </c>
       <c r="D2" s="5" t="inlineStr">
@@ -8767,7 +8767,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>06.02.2020</t>
+          <t>06/02/2020</t>
         </is>
       </c>
       <c r="D3" s="5" t="inlineStr">
@@ -8811,7 +8811,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>06.03.2020</t>
+          <t>06/03/2020</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
@@ -8855,7 +8855,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D5" s="5" t="inlineStr">
@@ -9185,7 +9185,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D2" s="5" t="inlineStr">
@@ -9229,7 +9229,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D3" s="5" t="inlineStr">
@@ -9273,7 +9273,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
@@ -9317,7 +9317,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D5" s="5" t="inlineStr">
@@ -9361,7 +9361,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>06.02.2020</t>
+          <t>06/02/2020</t>
         </is>
       </c>
       <c r="D6" s="5" t="inlineStr">
@@ -9405,7 +9405,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>06.02.2020</t>
+          <t>06/02/2020</t>
         </is>
       </c>
       <c r="D7" s="5" t="inlineStr">
@@ -9449,7 +9449,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>06.02.2020</t>
+          <t>06/02/2020</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
@@ -9493,7 +9493,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>06.02.2020</t>
+          <t>06/02/2020</t>
         </is>
       </c>
       <c r="D9" s="5" t="inlineStr">
@@ -9537,7 +9537,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>06.02.2020</t>
+          <t>06/02/2020</t>
         </is>
       </c>
       <c r="D10" s="5" t="inlineStr">
@@ -9581,7 +9581,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>06.02.2020</t>
+          <t>06/02/2020</t>
         </is>
       </c>
       <c r="D11" s="5" t="inlineStr">
@@ -9625,7 +9625,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>06.10.2020</t>
+          <t>06/10/2020</t>
         </is>
       </c>
       <c r="D12" s="5" t="inlineStr">
@@ -9669,7 +9669,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>06.10.2020</t>
+          <t>06/10/2020</t>
         </is>
       </c>
       <c r="D13" s="5" t="inlineStr">
@@ -9752,7 +9752,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>06.10.2020</t>
+          <t>06/10/2020</t>
         </is>
       </c>
       <c r="D15" s="5" t="inlineStr">
@@ -9796,7 +9796,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>06.12.2020</t>
+          <t>06/12/2020</t>
         </is>
       </c>
       <c r="D16" s="5" t="inlineStr">
@@ -9840,7 +9840,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D17" s="5" t="inlineStr">
@@ -9884,7 +9884,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D18" s="5" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D19" s="5" t="inlineStr">
@@ -9972,7 +9972,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D20" s="5" t="inlineStr">
@@ -10016,7 +10016,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D21" s="5" t="inlineStr">
@@ -10060,7 +10060,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>06.10.2020</t>
+          <t>06/10/2020</t>
         </is>
       </c>
       <c r="D22" s="5" t="inlineStr">
@@ -10104,7 +10104,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>06.02.2020</t>
+          <t>06/02/2020</t>
         </is>
       </c>
       <c r="D23" s="5" t="inlineStr">
@@ -10148,7 +10148,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>06.03.2020</t>
+          <t>06/03/2020</t>
         </is>
       </c>
       <c r="D24" s="5" t="inlineStr">
@@ -10192,7 +10192,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>06.01.2020</t>
+          <t>06/01/2020</t>
         </is>
       </c>
       <c r="D25" s="5" t="inlineStr">
@@ -10236,7 +10236,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>06.11.2020</t>
+          <t>06/11/2020</t>
         </is>
       </c>
       <c r="D26" s="5" t="inlineStr">
@@ -10280,7 +10280,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>06.01.2020</t>
+          <t>06/01/2020</t>
         </is>
       </c>
       <c r="D27" s="5" t="inlineStr">
@@ -10324,7 +10324,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>06.01.2020</t>
+          <t>06/01/2020</t>
         </is>
       </c>
       <c r="D28" s="5" t="inlineStr">
@@ -10368,7 +10368,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>06.11.2020</t>
+          <t>06/11/2020</t>
         </is>
       </c>
       <c r="D29" s="5" t="inlineStr">
@@ -10412,7 +10412,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>06.11.2020</t>
+          <t>06/11/2020</t>
         </is>
       </c>
       <c r="D30" s="5" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>06.12.2020</t>
+          <t>06/12/2020</t>
         </is>
       </c>
       <c r="D31" s="5" t="inlineStr">
@@ -10500,7 +10500,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>06.02.2020</t>
+          <t>06/02/2020</t>
         </is>
       </c>
       <c r="D32" s="5" t="inlineStr">
@@ -10544,7 +10544,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>06.02.2020</t>
+          <t>06/02/2020</t>
         </is>
       </c>
       <c r="D33" s="5" t="inlineStr">
@@ -10588,7 +10588,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>06.02.2020</t>
+          <t>06/02/2020</t>
         </is>
       </c>
       <c r="D34" s="5" t="inlineStr">
@@ -10632,7 +10632,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>06.10.2020</t>
+          <t>06/10/2020</t>
         </is>
       </c>
       <c r="D35" s="5" t="inlineStr">
@@ -10674,7 +10674,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>06.10.2020</t>
+          <t>06/10/2020</t>
         </is>
       </c>
       <c r="D36" s="5" t="inlineStr">
@@ -10716,7 +10716,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>06.02.2020</t>
+          <t>06/02/2020</t>
         </is>
       </c>
       <c r="D37" s="5" t="inlineStr">
@@ -10758,7 +10758,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D38" s="5" t="inlineStr">
@@ -10800,7 +10800,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D39" s="5" t="inlineStr">
@@ -10842,7 +10842,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>06.03.2020</t>
+          <t>06/03/2020</t>
         </is>
       </c>
       <c r="D40" s="5" t="inlineStr">
@@ -10886,7 +10886,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>06.12.2020</t>
+          <t>06/12/2020</t>
         </is>
       </c>
       <c r="D41" s="5" t="inlineStr">
@@ -10930,7 +10930,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>06.03.2020</t>
+          <t>06/03/2020</t>
         </is>
       </c>
       <c r="D42" s="5" t="inlineStr">
@@ -10974,7 +10974,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>06.02.2020</t>
+          <t>06/02/2020</t>
         </is>
       </c>
       <c r="D43" s="5" t="inlineStr">
@@ -11018,7 +11018,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D44" s="5" t="inlineStr">
@@ -11062,7 +11062,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D45" s="5" t="inlineStr">
@@ -11106,7 +11106,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D46" s="5" t="inlineStr">
@@ -11150,7 +11150,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D47" s="5" t="inlineStr">
@@ -11194,7 +11194,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D48" s="5" t="inlineStr">
@@ -11238,7 +11238,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D49" s="5" t="inlineStr">
@@ -11282,7 +11282,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D50" s="5" t="inlineStr">
@@ -11365,7 +11365,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>06.12.2020</t>
+          <t>06/12/2020</t>
         </is>
       </c>
       <c r="D52" s="5" t="inlineStr">
@@ -11760,7 +11760,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D62" s="5" t="inlineStr">
@@ -11804,7 +11804,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D63" s="5" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D64" s="5" t="inlineStr">
@@ -12229,7 +12229,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>06.02.2020</t>
+          <t>06/02/2020</t>
         </is>
       </c>
       <c r="D74" s="5" t="inlineStr">
@@ -12273,7 +12273,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>06.03.2020</t>
+          <t>06/03/2020</t>
         </is>
       </c>
       <c r="D75" s="5" t="inlineStr">
@@ -12317,7 +12317,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D76" s="5" t="inlineStr">
@@ -12361,7 +12361,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D77" s="5" t="inlineStr">
@@ -12405,7 +12405,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>06.10.2020</t>
+          <t>06/10/2020</t>
         </is>
       </c>
       <c r="D78" s="5" t="inlineStr">
@@ -12449,7 +12449,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>06.12.2020</t>
+          <t>06/12/2020</t>
         </is>
       </c>
       <c r="D79" s="5" t="inlineStr">
@@ -12571,7 +12571,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D82" s="5" t="inlineStr">
@@ -12615,7 +12615,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D83" s="5" t="inlineStr">
@@ -12659,7 +12659,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D84" s="5" t="inlineStr">
@@ -13952,7 +13952,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D2" s="5" t="inlineStr">
@@ -13996,7 +13996,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D3" s="5" t="inlineStr">
@@ -14040,7 +14040,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
@@ -14084,7 +14084,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D5" s="5" t="inlineStr">
@@ -14128,7 +14128,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D6" s="5" t="inlineStr">
@@ -14172,7 +14172,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>06.12.2020</t>
+          <t>06/12/2020</t>
         </is>
       </c>
       <c r="D7" s="5" t="inlineStr">
@@ -14216,7 +14216,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>06.12.2020</t>
+          <t>06/12/2020</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
@@ -14468,7 +14468,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D2" s="5" t="inlineStr">
@@ -14603,7 +14603,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>06.01.2020</t>
+          <t>06/01/2020</t>
         </is>
       </c>
       <c r="D2" s="5" t="inlineStr">
@@ -14647,7 +14647,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>06.01.2020</t>
+          <t>06/01/2020</t>
         </is>
       </c>
       <c r="D3" s="5" t="inlineStr">
@@ -14691,7 +14691,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>06.01.2020</t>
+          <t>06/01/2020</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
@@ -14735,7 +14735,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>06.01.2020</t>
+          <t>06/01/2020</t>
         </is>
       </c>
       <c r="D5" s="5" t="inlineStr">
@@ -14779,7 +14779,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>06.01.2020</t>
+          <t>06/01/2020</t>
         </is>
       </c>
       <c r="D6" s="5" t="inlineStr">
@@ -14823,7 +14823,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>06.01.2020</t>
+          <t>06/01/2020</t>
         </is>
       </c>
       <c r="D7" s="5" t="inlineStr">
@@ -14867,7 +14867,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>06.01.2020</t>
+          <t>06/01/2020</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
@@ -14911,7 +14911,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>06.01.2020</t>
+          <t>06/01/2020</t>
         </is>
       </c>
       <c r="D9" s="5" t="inlineStr">
@@ -14955,7 +14955,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>06.01.2020</t>
+          <t>06/01/2020</t>
         </is>
       </c>
       <c r="D10" s="5" t="inlineStr">
@@ -14999,7 +14999,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>06.01.2020</t>
+          <t>06/01/2020</t>
         </is>
       </c>
       <c r="D11" s="5" t="inlineStr">
@@ -15043,7 +15043,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>06.01.2020</t>
+          <t>06/01/2020</t>
         </is>
       </c>
       <c r="D12" s="5" t="inlineStr">
@@ -15087,7 +15087,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>06.01.2020</t>
+          <t>06/01/2020</t>
         </is>
       </c>
       <c r="D13" s="5" t="inlineStr">
@@ -15131,7 +15131,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>06.01.2020</t>
+          <t>06/01/2020</t>
         </is>
       </c>
       <c r="D14" s="5" t="inlineStr">
@@ -15175,7 +15175,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>06.01.2020</t>
+          <t>06/01/2020</t>
         </is>
       </c>
       <c r="D15" s="5" t="inlineStr">
@@ -15219,7 +15219,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>06.02.2020</t>
+          <t>06/02/2020</t>
         </is>
       </c>
       <c r="D16" s="5" t="inlineStr">
@@ -15263,7 +15263,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>06.02.2020</t>
+          <t>06/02/2020</t>
         </is>
       </c>
       <c r="D17" s="5" t="inlineStr">
@@ -15307,7 +15307,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>06.02.2020</t>
+          <t>06/02/2020</t>
         </is>
       </c>
       <c r="D18" s="5" t="inlineStr">
@@ -15351,7 +15351,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>06.02.2020</t>
+          <t>06/02/2020</t>
         </is>
       </c>
       <c r="D19" s="5" t="inlineStr">
@@ -15395,7 +15395,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>06.02.2020</t>
+          <t>06/02/2020</t>
         </is>
       </c>
       <c r="D20" s="5" t="inlineStr">
@@ -15439,7 +15439,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>06.03.2020</t>
+          <t>06/03/2020</t>
         </is>
       </c>
       <c r="D21" s="5" t="inlineStr">
@@ -15483,7 +15483,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>06.01.2020</t>
+          <t>06/01/2020</t>
         </is>
       </c>
       <c r="D22" s="5" t="inlineStr">
@@ -15527,7 +15527,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>06.02.2020</t>
+          <t>06/02/2020</t>
         </is>
       </c>
       <c r="D23" s="5" t="inlineStr">
@@ -15571,7 +15571,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>06.02.2020</t>
+          <t>06/02/2020</t>
         </is>
       </c>
       <c r="D24" s="5" t="inlineStr">
@@ -15615,7 +15615,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>06.03.2020</t>
+          <t>06/03/2020</t>
         </is>
       </c>
       <c r="D25" s="5" t="inlineStr">
@@ -15659,7 +15659,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>06.03.2020</t>
+          <t>06/03/2020</t>
         </is>
       </c>
       <c r="D26" s="5" t="inlineStr">
@@ -15703,7 +15703,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>06.04.2020</t>
+          <t>06/04/2020</t>
         </is>
       </c>
       <c r="D27" s="5" t="inlineStr">
@@ -15747,7 +15747,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>06.04.2020</t>
+          <t>06/04/2020</t>
         </is>
       </c>
       <c r="D28" s="5" t="inlineStr">
@@ -15791,7 +15791,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>06.04.2020</t>
+          <t>06/04/2020</t>
         </is>
       </c>
       <c r="D29" s="5" t="inlineStr">
@@ -15835,7 +15835,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>06.04.2020</t>
+          <t>06/04/2020</t>
         </is>
       </c>
       <c r="D30" s="5" t="inlineStr">
@@ -15879,7 +15879,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>06.04.2020</t>
+          <t>06/04/2020</t>
         </is>
       </c>
       <c r="D31" s="5" t="inlineStr">
@@ -15923,7 +15923,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>06.04.2020</t>
+          <t>06/04/2020</t>
         </is>
       </c>
       <c r="D32" s="5" t="inlineStr">
@@ -15967,7 +15967,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>06.04.2020</t>
+          <t>06/04/2020</t>
         </is>
       </c>
       <c r="D33" s="5" t="inlineStr">
@@ -16011,7 +16011,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>06.04.2020</t>
+          <t>06/04/2020</t>
         </is>
       </c>
       <c r="D34" s="5" t="inlineStr">
@@ -16055,7 +16055,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>06.04.2020</t>
+          <t>06/04/2020</t>
         </is>
       </c>
       <c r="D35" s="5" t="inlineStr">
@@ -16099,7 +16099,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>06.04.2020</t>
+          <t>06/04/2020</t>
         </is>
       </c>
       <c r="D36" s="5" t="inlineStr">
@@ -16143,7 +16143,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>06.04.2020</t>
+          <t>06/04/2020</t>
         </is>
       </c>
       <c r="D37" s="5" t="inlineStr">
@@ -16187,7 +16187,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>06.04.2020</t>
+          <t>06/04/2020</t>
         </is>
       </c>
       <c r="D38" s="5" t="inlineStr">
@@ -16231,7 +16231,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D39" s="5" t="inlineStr">
@@ -16275,7 +16275,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D40" s="5" t="inlineStr">
@@ -16319,7 +16319,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D41" s="5" t="inlineStr">
@@ -16363,7 +16363,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D42" s="5" t="inlineStr">
@@ -16407,7 +16407,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D43" s="5" t="inlineStr">
@@ -16451,7 +16451,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D44" s="5" t="inlineStr">
@@ -16495,7 +16495,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D45" s="5" t="inlineStr">
@@ -16539,7 +16539,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D46" s="5" t="inlineStr">
@@ -16583,7 +16583,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D47" s="5" t="inlineStr">
@@ -16627,7 +16627,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D48" s="5" t="inlineStr">
@@ -16671,7 +16671,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D49" s="5" t="inlineStr">
@@ -16715,7 +16715,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D50" s="5" t="inlineStr">
@@ -16759,7 +16759,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D51" s="5" t="inlineStr">
@@ -16803,7 +16803,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D52" s="5" t="inlineStr">
@@ -16847,7 +16847,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D53" s="5" t="inlineStr">
@@ -16891,7 +16891,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D54" s="5" t="inlineStr">
@@ -16935,7 +16935,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D55" s="5" t="inlineStr">
@@ -16979,7 +16979,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D56" s="5" t="inlineStr">
@@ -17023,7 +17023,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D57" s="5" t="inlineStr">
@@ -17067,7 +17067,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D58" s="5" t="inlineStr">
@@ -17111,7 +17111,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D59" s="5" t="inlineStr">
@@ -17155,7 +17155,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D60" s="5" t="inlineStr">
@@ -17199,7 +17199,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D61" s="5" t="inlineStr">
@@ -17243,7 +17243,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D62" s="5" t="inlineStr">
@@ -17287,7 +17287,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D63" s="5" t="inlineStr">
@@ -17331,7 +17331,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D64" s="5" t="inlineStr">
@@ -17373,7 +17373,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D65" s="5" t="inlineStr">
@@ -17417,7 +17417,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>06.10.2020</t>
+          <t>06/10/2020</t>
         </is>
       </c>
       <c r="D66" s="5" t="inlineStr">
@@ -17461,7 +17461,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>06.10.2020</t>
+          <t>06/10/2020</t>
         </is>
       </c>
       <c r="D67" s="5" t="inlineStr">
@@ -17505,7 +17505,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>06.10.2020</t>
+          <t>06/10/2020</t>
         </is>
       </c>
       <c r="D68" s="5" t="inlineStr">
@@ -17549,7 +17549,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>06.10.2020</t>
+          <t>06/10/2020</t>
         </is>
       </c>
       <c r="D69" s="5" t="inlineStr">
@@ -17593,7 +17593,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>06.10.2020</t>
+          <t>06/10/2020</t>
         </is>
       </c>
       <c r="D70" s="5" t="inlineStr">
@@ -17637,7 +17637,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>06.10.2020</t>
+          <t>06/10/2020</t>
         </is>
       </c>
       <c r="D71" s="5" t="inlineStr">
@@ -17681,7 +17681,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>06.10.2020</t>
+          <t>06/10/2020</t>
         </is>
       </c>
       <c r="D72" s="5" t="inlineStr">
@@ -17725,7 +17725,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>06.10.2020</t>
+          <t>06/10/2020</t>
         </is>
       </c>
       <c r="D73" s="5" t="inlineStr">
@@ -17769,7 +17769,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>06.10.2020</t>
+          <t>06/10/2020</t>
         </is>
       </c>
       <c r="D74" s="5" t="inlineStr">
@@ -17811,7 +17811,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>06.11.2020</t>
+          <t>06/11/2020</t>
         </is>
       </c>
       <c r="D75" s="5" t="inlineStr">
@@ -17855,7 +17855,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>06.11.2020</t>
+          <t>06/11/2020</t>
         </is>
       </c>
       <c r="D76" s="5" t="inlineStr">
@@ -17899,7 +17899,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>06.11.2020</t>
+          <t>06/11/2020</t>
         </is>
       </c>
       <c r="D77" s="5" t="inlineStr">
@@ -17943,7 +17943,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>06.11.2020</t>
+          <t>06/11/2020</t>
         </is>
       </c>
       <c r="D78" s="5" t="inlineStr">
@@ -17987,7 +17987,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>06.11.2020</t>
+          <t>06/11/2020</t>
         </is>
       </c>
       <c r="D79" s="5" t="inlineStr">
@@ -18031,7 +18031,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>06.11.2020</t>
+          <t>06/11/2020</t>
         </is>
       </c>
       <c r="D80" s="5" t="inlineStr">
@@ -18075,7 +18075,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>06.11.2020</t>
+          <t>06/11/2020</t>
         </is>
       </c>
       <c r="D81" s="5" t="inlineStr">
@@ -18119,7 +18119,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>06.11.2020</t>
+          <t>06/11/2020</t>
         </is>
       </c>
       <c r="D82" s="5" t="inlineStr">
@@ -18163,7 +18163,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>06.11.2020</t>
+          <t>06/11/2020</t>
         </is>
       </c>
       <c r="D83" s="5" t="inlineStr">
@@ -18207,7 +18207,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>06.11.2020</t>
+          <t>06/11/2020</t>
         </is>
       </c>
       <c r="D84" s="5" t="inlineStr">
@@ -18251,7 +18251,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>06.11.2020</t>
+          <t>06/11/2020</t>
         </is>
       </c>
       <c r="D85" s="5" t="inlineStr">
@@ -18295,7 +18295,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>06.11.2020</t>
+          <t>06/11/2020</t>
         </is>
       </c>
       <c r="D86" s="5" t="inlineStr">
@@ -18339,7 +18339,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>06.11.2020</t>
+          <t>06/11/2020</t>
         </is>
       </c>
       <c r="D87" s="5" t="inlineStr">
@@ -18383,7 +18383,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>06.11.2020</t>
+          <t>06/11/2020</t>
         </is>
       </c>
       <c r="D88" s="5" t="inlineStr">
@@ -18427,7 +18427,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>06.11.2020</t>
+          <t>06/11/2020</t>
         </is>
       </c>
       <c r="D89" s="5" t="inlineStr">
@@ -18471,7 +18471,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>06.11.2020</t>
+          <t>06/11/2020</t>
         </is>
       </c>
       <c r="D90" s="5" t="inlineStr">
@@ -18515,7 +18515,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>06.11.2020</t>
+          <t>06/11/2020</t>
         </is>
       </c>
       <c r="D91" s="5" t="inlineStr">
@@ -18559,7 +18559,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>06.12.2020</t>
+          <t>06/12/2020</t>
         </is>
       </c>
       <c r="D92" s="5" t="inlineStr">
@@ -18603,7 +18603,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>06.11.2020</t>
+          <t>06/11/2020</t>
         </is>
       </c>
       <c r="D93" s="5" t="inlineStr">
@@ -18647,7 +18647,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>06.11.2020</t>
+          <t>06/11/2020</t>
         </is>
       </c>
       <c r="D94" s="5" t="inlineStr">
@@ -18691,7 +18691,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>06.11.2020</t>
+          <t>06/11/2020</t>
         </is>
       </c>
       <c r="D95" s="5" t="inlineStr">
@@ -18735,7 +18735,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>06.11.2020</t>
+          <t>06/11/2020</t>
         </is>
       </c>
       <c r="D96" s="5" t="inlineStr">
@@ -18779,7 +18779,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>06.11.2020</t>
+          <t>06/11/2020</t>
         </is>
       </c>
       <c r="D97" s="5" t="inlineStr">
@@ -18823,7 +18823,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>06.11.2020</t>
+          <t>06/11/2020</t>
         </is>
       </c>
       <c r="D98" s="5" t="inlineStr">
@@ -18867,7 +18867,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>06.11.2020</t>
+          <t>06/11/2020</t>
         </is>
       </c>
       <c r="D99" s="5" t="inlineStr">
@@ -18911,7 +18911,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>06.11.2020</t>
+          <t>06/11/2020</t>
         </is>
       </c>
       <c r="D100" s="5" t="inlineStr">
@@ -18953,7 +18953,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>06.12.2020</t>
+          <t>06/12/2020</t>
         </is>
       </c>
       <c r="D101" s="5" t="inlineStr">
@@ -18997,7 +18997,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>06.12.2020</t>
+          <t>06/12/2020</t>
         </is>
       </c>
       <c r="D102" s="5" t="inlineStr">
@@ -19041,7 +19041,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>06.12.2020</t>
+          <t>06/12/2020</t>
         </is>
       </c>
       <c r="D103" s="5" t="inlineStr">
@@ -19085,7 +19085,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>06.12.2020</t>
+          <t>06/12/2020</t>
         </is>
       </c>
       <c r="D104" s="5" t="inlineStr">
@@ -19129,7 +19129,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>06.12.2020</t>
+          <t>06/12/2020</t>
         </is>
       </c>
       <c r="D105" s="5" t="inlineStr">
@@ -19173,7 +19173,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>06.12.2020</t>
+          <t>06/12/2020</t>
         </is>
       </c>
       <c r="D106" s="5" t="inlineStr">
@@ -19217,7 +19217,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>06.12.2020</t>
+          <t>06/12/2020</t>
         </is>
       </c>
       <c r="D107" s="5" t="inlineStr">
@@ -19261,7 +19261,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>06.12.2020</t>
+          <t>06/12/2020</t>
         </is>
       </c>
       <c r="D108" s="5" t="inlineStr">
@@ -19305,7 +19305,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>06.12.2020</t>
+          <t>06/12/2020</t>
         </is>
       </c>
       <c r="D109" s="5" t="inlineStr">
@@ -19349,7 +19349,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>06.12.2020</t>
+          <t>06/12/2020</t>
         </is>
       </c>
       <c r="D110" s="5" t="inlineStr">
@@ -19393,7 +19393,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>06.12.2020</t>
+          <t>06/12/2020</t>
         </is>
       </c>
       <c r="D111" s="5" t="inlineStr">
@@ -19435,7 +19435,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>06.12.2020</t>
+          <t>06/12/2020</t>
         </is>
       </c>
       <c r="D112" s="5" t="inlineStr">
@@ -19477,7 +19477,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>06.12.2020</t>
+          <t>06/12/2020</t>
         </is>
       </c>
       <c r="D113" s="5" t="inlineStr">
@@ -19521,7 +19521,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>06.12.2020</t>
+          <t>06/12/2020</t>
         </is>
       </c>
       <c r="D114" s="5" t="inlineStr">
@@ -19565,7 +19565,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>06.12.2020</t>
+          <t>06/12/2020</t>
         </is>
       </c>
       <c r="D115" s="5" t="inlineStr">
@@ -19609,7 +19609,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>06.12.2020</t>
+          <t>06/12/2020</t>
         </is>
       </c>
       <c r="D116" s="5" t="inlineStr">
@@ -19653,7 +19653,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>06.12.2020</t>
+          <t>06/12/2020</t>
         </is>
       </c>
       <c r="D117" s="5" t="inlineStr">
@@ -19697,7 +19697,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>06.12.2020</t>
+          <t>06/12/2020</t>
         </is>
       </c>
       <c r="D118" s="5" t="inlineStr">
@@ -19741,7 +19741,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>06.12.2020</t>
+          <t>06/12/2020</t>
         </is>
       </c>
       <c r="D119" s="5" t="inlineStr">
@@ -19822,7 +19822,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>06.12.2020</t>
+          <t>06/12/2020</t>
         </is>
       </c>
       <c r="D121" s="5" t="inlineStr">
@@ -19864,7 +19864,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>06.12.2020</t>
+          <t>06/12/2020</t>
         </is>
       </c>
       <c r="D122" s="5" t="inlineStr">
@@ -22012,7 +22012,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>06.11.2020</t>
+          <t>06/11/2020</t>
         </is>
       </c>
       <c r="D177" s="5" t="inlineStr">
@@ -22054,7 +22054,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>06.11.2020</t>
+          <t>06/11/2020</t>
         </is>
       </c>
       <c r="D178" s="5" t="inlineStr">
@@ -27595,7 +27595,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D2" s="5" t="inlineStr">
@@ -27637,7 +27637,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D3" s="5" t="inlineStr">
@@ -27679,7 +27679,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>06.04.2020</t>
+          <t>06/04/2020</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
@@ -27966,7 +27966,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>06.11.2020</t>
+          <t>06/11/2020</t>
         </is>
       </c>
       <c r="D2" s="5" t="inlineStr">
@@ -28010,7 +28010,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>06.11.2020</t>
+          <t>06/11/2020</t>
         </is>
       </c>
       <c r="D3" s="5" t="inlineStr">
@@ -28054,7 +28054,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>06.02.2020</t>
+          <t>06/02/2020</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
@@ -28098,7 +28098,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>06.02.2020</t>
+          <t>06/02/2020</t>
         </is>
       </c>
       <c r="D5" s="5" t="inlineStr">
@@ -28142,7 +28142,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>06.11.2020</t>
+          <t>06/11/2020</t>
         </is>
       </c>
       <c r="D6" s="5" t="inlineStr">
@@ -28186,7 +28186,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D7" s="5" t="inlineStr">
@@ -28425,7 +28425,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>06.03.2020</t>
+          <t>06/03/2020</t>
         </is>
       </c>
       <c r="D13" s="5" t="inlineStr">
@@ -28506,7 +28506,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>06.10.2020</t>
+          <t>06/10/2020</t>
         </is>
       </c>
       <c r="D15" s="5" t="inlineStr">
@@ -28589,7 +28589,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>06.02.2020</t>
+          <t>06/02/2020</t>
         </is>
       </c>
       <c r="D17" s="5" t="inlineStr">
@@ -28633,7 +28633,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D18" s="5" t="inlineStr">
@@ -28677,7 +28677,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D19" s="5" t="inlineStr">
@@ -28721,7 +28721,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>06.12.2020</t>
+          <t>06/12/2020</t>
         </is>
       </c>
       <c r="D20" s="5" t="inlineStr">
@@ -28765,7 +28765,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>06.12.2020</t>
+          <t>06/12/2020</t>
         </is>
       </c>
       <c r="D21" s="5" t="inlineStr">
@@ -28844,7 +28844,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D23" s="5" t="inlineStr">
@@ -28886,7 +28886,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>06.10.2020</t>
+          <t>06/10/2020</t>
         </is>
       </c>
       <c r="D24" s="5" t="inlineStr">
@@ -28930,7 +28930,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>06.10.2020</t>
+          <t>06/10/2020</t>
         </is>
       </c>
       <c r="D25" s="5" t="inlineStr">
@@ -29052,7 +29052,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D28" s="5" t="inlineStr">
@@ -29096,7 +29096,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>06.02.2020</t>
+          <t>06/02/2020</t>
         </is>
       </c>
       <c r="D29" s="5" t="inlineStr">
@@ -29138,7 +29138,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D30" s="5" t="inlineStr">
@@ -29180,7 +29180,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D31" s="5" t="inlineStr">
@@ -29222,7 +29222,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>06.12.2020</t>
+          <t>06/12/2020</t>
         </is>
       </c>
       <c r="D32" s="5" t="inlineStr">
@@ -29264,7 +29264,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>06.03.2020</t>
+          <t>06/03/2020</t>
         </is>
       </c>
       <c r="D33" s="5" t="inlineStr">
@@ -29308,7 +29308,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>06.03.2020</t>
+          <t>06/03/2020</t>
         </is>
       </c>
       <c r="D34" s="5" t="inlineStr">
@@ -29430,7 +29430,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>06.02.2020</t>
+          <t>06/02/2020</t>
         </is>
       </c>
       <c r="D37" s="5" t="inlineStr">
@@ -29474,7 +29474,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>06.02.2020</t>
+          <t>06/02/2020</t>
         </is>
       </c>
       <c r="D38" s="5" t="inlineStr">
@@ -29516,7 +29516,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D39" s="5" t="inlineStr">
@@ -29558,7 +29558,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D40" s="5" t="inlineStr">
@@ -29600,7 +29600,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D41" s="5" t="inlineStr">
@@ -29642,7 +29642,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D42" s="5" t="inlineStr">
@@ -29684,7 +29684,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>06.12.2020</t>
+          <t>06/12/2020</t>
         </is>
       </c>
       <c r="D43" s="5" t="inlineStr">
@@ -29726,7 +29726,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>06.12.2020</t>
+          <t>06/12/2020</t>
         </is>
       </c>
       <c r="D44" s="5" t="inlineStr">
@@ -29846,7 +29846,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>06.12.2020</t>
+          <t>06/12/2020</t>
         </is>
       </c>
       <c r="D47" s="5" t="inlineStr">
@@ -30040,7 +30040,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>06.12.2020</t>
+          <t>06/12/2020</t>
         </is>
       </c>
       <c r="D52" s="5" t="inlineStr">
@@ -31236,7 +31236,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>06.01.2020</t>
+          <t>06/01/2020</t>
         </is>
       </c>
       <c r="D2" s="5" t="inlineStr">
@@ -31280,7 +31280,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>06.01.2020</t>
+          <t>06/01/2020</t>
         </is>
       </c>
       <c r="D3" s="5" t="inlineStr">
@@ -31324,7 +31324,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>06.01.2020</t>
+          <t>06/01/2020</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
@@ -31368,7 +31368,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>06.01.2020</t>
+          <t>06/01/2020</t>
         </is>
       </c>
       <c r="D5" s="5" t="inlineStr">
@@ -31412,7 +31412,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>06.01.2020</t>
+          <t>06/01/2020</t>
         </is>
       </c>
       <c r="D6" s="5" t="inlineStr">
@@ -31456,7 +31456,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>06.02.2020</t>
+          <t>06/02/2020</t>
         </is>
       </c>
       <c r="D7" s="5" t="inlineStr">
@@ -31500,7 +31500,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>06.02.2020</t>
+          <t>06/02/2020</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
@@ -31544,7 +31544,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>06.02.2020</t>
+          <t>06/02/2020</t>
         </is>
       </c>
       <c r="D9" s="5" t="inlineStr">
@@ -31588,7 +31588,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>06.02.2020</t>
+          <t>06/02/2020</t>
         </is>
       </c>
       <c r="D10" s="5" t="inlineStr">
@@ -31632,7 +31632,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>06.02.2020</t>
+          <t>06/02/2020</t>
         </is>
       </c>
       <c r="D11" s="5" t="inlineStr">
@@ -31676,7 +31676,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>06.02.2020</t>
+          <t>06/02/2020</t>
         </is>
       </c>
       <c r="D12" s="5" t="inlineStr">
@@ -31720,7 +31720,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>06.03.2020</t>
+          <t>06/03/2020</t>
         </is>
       </c>
       <c r="D13" s="5" t="inlineStr">
@@ -31764,7 +31764,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>06.03.2020</t>
+          <t>06/03/2020</t>
         </is>
       </c>
       <c r="D14" s="5" t="inlineStr">
@@ -31808,7 +31808,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>06.03.2020</t>
+          <t>06/03/2020</t>
         </is>
       </c>
       <c r="D15" s="5" t="inlineStr">
@@ -31850,7 +31850,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D16" s="5" t="inlineStr">
@@ -31894,7 +31894,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D17" s="5" t="inlineStr">
@@ -31938,7 +31938,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D18" s="5" t="inlineStr">
@@ -31982,7 +31982,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D19" s="5" t="inlineStr">
@@ -32026,7 +32026,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D20" s="5" t="inlineStr">
@@ -32070,7 +32070,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D21" s="5" t="inlineStr">
@@ -32114,7 +32114,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D22" s="5" t="inlineStr">
@@ -32158,7 +32158,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D23" s="5" t="inlineStr">
@@ -32202,7 +32202,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D24" s="5" t="inlineStr">
@@ -32246,7 +32246,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D25" s="5" t="inlineStr">
@@ -32290,7 +32290,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D26" s="5" t="inlineStr">
@@ -32334,7 +32334,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D27" s="5" t="inlineStr">
@@ -32378,7 +32378,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D28" s="5" t="inlineStr">
@@ -32420,7 +32420,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D29" s="5" t="inlineStr">
@@ -32462,7 +32462,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D30" s="5" t="inlineStr">
@@ -32504,7 +32504,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D31" s="5" t="inlineStr">
@@ -32548,7 +32548,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D32" s="5" t="inlineStr">
@@ -32592,7 +32592,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D33" s="5" t="inlineStr">
@@ -32636,7 +32636,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D34" s="5" t="inlineStr">
@@ -32678,7 +32678,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D35" s="5" t="inlineStr">
@@ -32720,7 +32720,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D36" s="5" t="inlineStr">
@@ -32762,7 +32762,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D37" s="5" t="inlineStr">
@@ -32804,7 +32804,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D38" s="5" t="inlineStr">
@@ -32848,7 +32848,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D39" s="5" t="inlineStr">
@@ -32892,7 +32892,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D40" s="5" t="inlineStr">
@@ -32936,7 +32936,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D41" s="5" t="inlineStr">
@@ -32980,7 +32980,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D42" s="5" t="inlineStr">
@@ -33024,7 +33024,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D43" s="5" t="inlineStr">
@@ -33068,7 +33068,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D44" s="5" t="inlineStr">
@@ -33112,7 +33112,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>06.10.2020</t>
+          <t>06/10/2020</t>
         </is>
       </c>
       <c r="D45" s="5" t="inlineStr">
@@ -33156,7 +33156,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>06.10.2020</t>
+          <t>06/10/2020</t>
         </is>
       </c>
       <c r="D46" s="5" t="inlineStr">
@@ -33200,7 +33200,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>06.10.2020</t>
+          <t>06/10/2020</t>
         </is>
       </c>
       <c r="D47" s="5" t="inlineStr">
@@ -33244,7 +33244,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D48" s="5" t="inlineStr">
@@ -33288,7 +33288,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>06.10.2020</t>
+          <t>06/10/2020</t>
         </is>
       </c>
       <c r="D49" s="5" t="inlineStr">
@@ -33332,7 +33332,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>06.11.2020</t>
+          <t>06/11/2020</t>
         </is>
       </c>
       <c r="D50" s="5" t="inlineStr">
@@ -33374,7 +33374,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>06.11.2020</t>
+          <t>06/11/2020</t>
         </is>
       </c>
       <c r="D51" s="5" t="inlineStr">
@@ -33418,7 +33418,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>06.11.2020</t>
+          <t>06/11/2020</t>
         </is>
       </c>
       <c r="D52" s="5" t="inlineStr">
@@ -33462,7 +33462,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>06.11.2020</t>
+          <t>06/11/2020</t>
         </is>
       </c>
       <c r="D53" s="5" t="inlineStr">
@@ -33504,7 +33504,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>06.11.2020</t>
+          <t>06/11/2020</t>
         </is>
       </c>
       <c r="D54" s="5" t="inlineStr">
@@ -33548,7 +33548,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>06.11.2020</t>
+          <t>06/11/2020</t>
         </is>
       </c>
       <c r="D55" s="5" t="inlineStr">
@@ -33592,7 +33592,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>06.11.2020</t>
+          <t>06/11/2020</t>
         </is>
       </c>
       <c r="D56" s="5" t="inlineStr">
@@ -33636,7 +33636,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>06.11.2020</t>
+          <t>06/11/2020</t>
         </is>
       </c>
       <c r="D57" s="5" t="inlineStr">
@@ -33680,7 +33680,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>06.11.2020</t>
+          <t>06/11/2020</t>
         </is>
       </c>
       <c r="D58" s="5" t="inlineStr">
@@ -33724,7 +33724,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>06.11.2020</t>
+          <t>06/11/2020</t>
         </is>
       </c>
       <c r="D59" s="5" t="inlineStr">
@@ -33768,7 +33768,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>06.11.2020</t>
+          <t>06/11/2020</t>
         </is>
       </c>
       <c r="D60" s="5" t="inlineStr">
@@ -33812,7 +33812,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>06.12.2020</t>
+          <t>06/12/2020</t>
         </is>
       </c>
       <c r="D61" s="5" t="inlineStr">
@@ -33856,7 +33856,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>06.12.2020</t>
+          <t>06/12/2020</t>
         </is>
       </c>
       <c r="D62" s="5" t="inlineStr">
@@ -33900,7 +33900,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>06.12.2020</t>
+          <t>06/12/2020</t>
         </is>
       </c>
       <c r="D63" s="5" t="inlineStr">
@@ -33944,7 +33944,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>06.12.2020</t>
+          <t>06/12/2020</t>
         </is>
       </c>
       <c r="D64" s="5" t="inlineStr">
@@ -33988,7 +33988,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>06.12.2020</t>
+          <t>06/12/2020</t>
         </is>
       </c>
       <c r="D65" s="5" t="inlineStr">
@@ -34032,7 +34032,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>06.12.2020</t>
+          <t>06/12/2020</t>
         </is>
       </c>
       <c r="D66" s="5" t="inlineStr">
@@ -34076,7 +34076,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>06.12.2020</t>
+          <t>06/12/2020</t>
         </is>
       </c>
       <c r="D67" s="5" t="inlineStr">
@@ -34120,7 +34120,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>06.12.2020</t>
+          <t>06/12/2020</t>
         </is>
       </c>
       <c r="D68" s="5" t="inlineStr">
@@ -34164,7 +34164,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>06.12.2020</t>
+          <t>06/12/2020</t>
         </is>
       </c>
       <c r="D69" s="5" t="inlineStr">
@@ -34208,7 +34208,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>06.12.2020</t>
+          <t>06/12/2020</t>
         </is>
       </c>
       <c r="D70" s="5" t="inlineStr">
@@ -34252,7 +34252,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>06.12.2020</t>
+          <t>06/12/2020</t>
         </is>
       </c>
       <c r="D71" s="5" t="inlineStr">
@@ -34296,7 +34296,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>06.12.2020</t>
+          <t>06/12/2020</t>
         </is>
       </c>
       <c r="D72" s="5" t="inlineStr">
@@ -34338,7 +34338,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>06.12.2020</t>
+          <t>06/12/2020</t>
         </is>
       </c>
       <c r="D73" s="5" t="inlineStr">
@@ -37122,7 +37122,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>06.01.2020</t>
+          <t>06/01/2020</t>
         </is>
       </c>
       <c r="D2" s="5" t="inlineStr">
@@ -37166,7 +37166,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>06.01.2020</t>
+          <t>06/01/2020</t>
         </is>
       </c>
       <c r="D3" s="5" t="inlineStr">
@@ -37210,7 +37210,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>06.01.2020</t>
+          <t>06/01/2020</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
@@ -37254,7 +37254,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>06.01.2020</t>
+          <t>06/01/2020</t>
         </is>
       </c>
       <c r="D5" s="5" t="inlineStr">
@@ -37298,7 +37298,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>06.01.2020</t>
+          <t>06/01/2020</t>
         </is>
       </c>
       <c r="D6" s="5" t="inlineStr">
@@ -37342,7 +37342,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>06.01.2020</t>
+          <t>06/01/2020</t>
         </is>
       </c>
       <c r="D7" s="5" t="inlineStr">
@@ -37386,7 +37386,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>06.01.2020</t>
+          <t>06/01/2020</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
@@ -37430,7 +37430,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>06.01.2020</t>
+          <t>06/01/2020</t>
         </is>
       </c>
       <c r="D9" s="5" t="inlineStr">
@@ -37474,7 +37474,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>06.01.2020</t>
+          <t>06/01/2020</t>
         </is>
       </c>
       <c r="D10" s="5" t="inlineStr">
@@ -37518,7 +37518,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>06.01.2020</t>
+          <t>06/01/2020</t>
         </is>
       </c>
       <c r="D11" s="5" t="inlineStr">
@@ -37562,7 +37562,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>06.01.2020</t>
+          <t>06/01/2020</t>
         </is>
       </c>
       <c r="D12" s="5" t="inlineStr">
@@ -37604,7 +37604,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>06.01.2020</t>
+          <t>06/01/2020</t>
         </is>
       </c>
       <c r="D13" s="5" t="inlineStr">
@@ -37646,7 +37646,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>06.01.2020</t>
+          <t>06/01/2020</t>
         </is>
       </c>
       <c r="D14" s="5" t="inlineStr">
@@ -37688,7 +37688,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>06.02.2020</t>
+          <t>06/02/2020</t>
         </is>
       </c>
       <c r="D15" s="5" t="inlineStr">
@@ -37732,7 +37732,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>06.02.2020</t>
+          <t>06/02/2020</t>
         </is>
       </c>
       <c r="D16" s="5" t="inlineStr">
@@ -37776,7 +37776,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>06.02.2020</t>
+          <t>06/02/2020</t>
         </is>
       </c>
       <c r="D17" s="5" t="inlineStr">
@@ -37820,7 +37820,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>06.02.2020</t>
+          <t>06/02/2020</t>
         </is>
       </c>
       <c r="D18" s="5" t="inlineStr">
@@ -37864,7 +37864,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>06.02.2020</t>
+          <t>06/02/2020</t>
         </is>
       </c>
       <c r="D19" s="5" t="inlineStr">
@@ -37908,7 +37908,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>06.02.2020</t>
+          <t>06/02/2020</t>
         </is>
       </c>
       <c r="D20" s="5" t="inlineStr">
@@ -37952,7 +37952,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>06.02.2020</t>
+          <t>06/02/2020</t>
         </is>
       </c>
       <c r="D21" s="5" t="inlineStr">
@@ -37996,7 +37996,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>06.02.2020</t>
+          <t>06/02/2020</t>
         </is>
       </c>
       <c r="D22" s="5" t="inlineStr">
@@ -38040,7 +38040,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>06.02.2020</t>
+          <t>06/02/2020</t>
         </is>
       </c>
       <c r="D23" s="5" t="inlineStr">
@@ -38084,7 +38084,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>06.02.2020</t>
+          <t>06/02/2020</t>
         </is>
       </c>
       <c r="D24" s="5" t="inlineStr">
@@ -38128,7 +38128,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>06.02.2020</t>
+          <t>06/02/2020</t>
         </is>
       </c>
       <c r="D25" s="5" t="inlineStr">
@@ -38172,7 +38172,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>06.02.2020</t>
+          <t>06/02/2020</t>
         </is>
       </c>
       <c r="D26" s="5" t="inlineStr">
@@ -38214,7 +38214,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>06.02.2020</t>
+          <t>06/02/2020</t>
         </is>
       </c>
       <c r="D27" s="5" t="inlineStr">
@@ -38256,7 +38256,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>06.03.2020</t>
+          <t>06/03/2020</t>
         </is>
       </c>
       <c r="D28" s="5" t="inlineStr">
@@ -38300,7 +38300,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>06.03.2020</t>
+          <t>06/03/2020</t>
         </is>
       </c>
       <c r="D29" s="5" t="inlineStr">
@@ -38344,7 +38344,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>06.01.2020</t>
+          <t>06/01/2020</t>
         </is>
       </c>
       <c r="D30" s="5" t="inlineStr">
@@ -38388,7 +38388,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>06.02.2020</t>
+          <t>06/02/2020</t>
         </is>
       </c>
       <c r="D31" s="5" t="inlineStr">
@@ -38432,7 +38432,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>06.04.2020</t>
+          <t>06/04/2020</t>
         </is>
       </c>
       <c r="D32" s="5" t="inlineStr">
@@ -38476,7 +38476,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>06.01.2020</t>
+          <t>06/01/2020</t>
         </is>
       </c>
       <c r="D33" s="5" t="inlineStr">
@@ -38520,7 +38520,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>06.04.2020</t>
+          <t>06/04/2020</t>
         </is>
       </c>
       <c r="D34" s="5" t="inlineStr">
@@ -38564,7 +38564,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>06.04.2020</t>
+          <t>06/04/2020</t>
         </is>
       </c>
       <c r="D35" s="5" t="inlineStr">
@@ -38608,7 +38608,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>06.04.2020</t>
+          <t>06/04/2020</t>
         </is>
       </c>
       <c r="D36" s="5" t="inlineStr">
@@ -38652,7 +38652,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>06.04.2020</t>
+          <t>06/04/2020</t>
         </is>
       </c>
       <c r="D37" s="5" t="inlineStr">
@@ -38696,7 +38696,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>06.04.2020</t>
+          <t>06/04/2020</t>
         </is>
       </c>
       <c r="D38" s="5" t="inlineStr">
@@ -38740,7 +38740,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>06.04.2020</t>
+          <t>06/04/2020</t>
         </is>
       </c>
       <c r="D39" s="5" t="inlineStr">
@@ -38784,7 +38784,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>06.03.2020</t>
+          <t>06/03/2020</t>
         </is>
       </c>
       <c r="D40" s="5" t="inlineStr">
@@ -38828,7 +38828,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>06.03.2020</t>
+          <t>06/03/2020</t>
         </is>
       </c>
       <c r="D41" s="5" t="inlineStr">
@@ -38872,7 +38872,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>06.03.2020</t>
+          <t>06/03/2020</t>
         </is>
       </c>
       <c r="D42" s="5" t="inlineStr">
@@ -38916,7 +38916,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>06.03.2020</t>
+          <t>06/03/2020</t>
         </is>
       </c>
       <c r="D43" s="5" t="inlineStr">
@@ -38960,7 +38960,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>06.03.2020</t>
+          <t>06/03/2020</t>
         </is>
       </c>
       <c r="D44" s="5" t="inlineStr">
@@ -39004,7 +39004,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>06.03.2020</t>
+          <t>06/03/2020</t>
         </is>
       </c>
       <c r="D45" s="5" t="inlineStr">
@@ -39048,7 +39048,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>06.03.2020</t>
+          <t>06/03/2020</t>
         </is>
       </c>
       <c r="D46" s="5" t="inlineStr">
@@ -39090,7 +39090,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>06.03.2020</t>
+          <t>06/03/2020</t>
         </is>
       </c>
       <c r="D47" s="5" t="inlineStr">
@@ -39132,7 +39132,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>06.03.2020</t>
+          <t>06/03/2020</t>
         </is>
       </c>
       <c r="D48" s="5" t="inlineStr">
@@ -39174,7 +39174,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>06.03.2020</t>
+          <t>06/03/2020</t>
         </is>
       </c>
       <c r="D49" s="5" t="inlineStr">
@@ -39216,7 +39216,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>06.03.2020</t>
+          <t>06/03/2020</t>
         </is>
       </c>
       <c r="D50" s="5" t="inlineStr">
@@ -39258,7 +39258,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>06.01.2020</t>
+          <t>06/01/2020</t>
         </is>
       </c>
       <c r="D51" s="5" t="inlineStr">
@@ -39302,7 +39302,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>06.01.2020</t>
+          <t>06/01/2020</t>
         </is>
       </c>
       <c r="D52" s="5" t="inlineStr">
@@ -39346,7 +39346,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>06.04.2020</t>
+          <t>06/04/2020</t>
         </is>
       </c>
       <c r="D53" s="5" t="inlineStr">
@@ -39388,7 +39388,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>06.01.2020</t>
+          <t>06/01/2020</t>
         </is>
       </c>
       <c r="D54" s="5" t="inlineStr">
@@ -39432,7 +39432,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>06.04.2020</t>
+          <t>06/04/2020</t>
         </is>
       </c>
       <c r="D55" s="5" t="inlineStr">
@@ -39474,7 +39474,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>06.04.2020</t>
+          <t>06/04/2020</t>
         </is>
       </c>
       <c r="D56" s="5" t="inlineStr">
@@ -39516,7 +39516,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D57" s="5" t="inlineStr">
@@ -39560,7 +39560,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D58" s="5" t="inlineStr">
@@ -39604,7 +39604,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D59" s="5" t="inlineStr">
@@ -39648,7 +39648,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D60" s="5" t="inlineStr">
@@ -39692,7 +39692,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D61" s="5" t="inlineStr">
@@ -39736,7 +39736,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D62" s="5" t="inlineStr">
@@ -39780,7 +39780,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D63" s="5" t="inlineStr">
@@ -39824,7 +39824,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D64" s="5" t="inlineStr">
@@ -39868,7 +39868,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D65" s="5" t="inlineStr">
@@ -39912,7 +39912,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D66" s="5" t="inlineStr">
@@ -39956,7 +39956,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D67" s="5" t="inlineStr">
@@ -40000,7 +40000,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D68" s="5" t="inlineStr">
@@ -40042,7 +40042,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D69" s="5" t="inlineStr">
@@ -40084,7 +40084,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D70" s="5" t="inlineStr">
@@ -40126,7 +40126,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D71" s="5" t="inlineStr">
@@ -40168,7 +40168,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D72" s="5" t="inlineStr">
@@ -40212,7 +40212,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D73" s="5" t="inlineStr">
@@ -40256,7 +40256,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D74" s="5" t="inlineStr">
@@ -40300,7 +40300,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D75" s="5" t="inlineStr">
@@ -40344,7 +40344,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D76" s="5" t="inlineStr">
@@ -40388,7 +40388,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D77" s="5" t="inlineStr">
@@ -40432,7 +40432,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D78" s="5" t="inlineStr">
@@ -40476,7 +40476,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D79" s="5" t="inlineStr">
@@ -40520,7 +40520,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D80" s="5" t="inlineStr">
@@ -40564,7 +40564,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D81" s="5" t="inlineStr">
@@ -40608,7 +40608,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D82" s="5" t="inlineStr">
@@ -40652,7 +40652,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D83" s="5" t="inlineStr">
@@ -40696,7 +40696,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D84" s="5" t="inlineStr">
@@ -40740,7 +40740,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D85" s="5" t="inlineStr">
@@ -40784,7 +40784,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D86" s="5" t="inlineStr">
@@ -40828,7 +40828,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D87" s="5" t="inlineStr">
@@ -40872,7 +40872,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D88" s="5" t="inlineStr">
@@ -40914,7 +40914,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D89" s="5" t="inlineStr">
@@ -40956,7 +40956,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D90" s="5" t="inlineStr">
@@ -40998,7 +40998,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D91" s="5" t="inlineStr">
@@ -41040,7 +41040,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D92" s="5" t="inlineStr">
@@ -41082,7 +41082,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D93" s="5" t="inlineStr">
@@ -41124,7 +41124,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D94" s="5" t="inlineStr">
@@ -41166,7 +41166,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D95" s="5" t="inlineStr">
@@ -41210,7 +41210,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D96" s="5" t="inlineStr">
@@ -41254,7 +41254,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D97" s="5" t="inlineStr">
@@ -41335,7 +41335,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>06.10.2020</t>
+          <t>06/10/2020</t>
         </is>
       </c>
       <c r="D99" s="5" t="inlineStr">
@@ -41379,7 +41379,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>06.10.2020</t>
+          <t>06/10/2020</t>
         </is>
       </c>
       <c r="D100" s="5" t="inlineStr">
@@ -41423,7 +41423,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>06.10.2020</t>
+          <t>06/10/2020</t>
         </is>
       </c>
       <c r="D101" s="5" t="inlineStr">
@@ -41467,7 +41467,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>06.10.2020</t>
+          <t>06/10/2020</t>
         </is>
       </c>
       <c r="D102" s="5" t="inlineStr">
@@ -41511,7 +41511,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>06.10.2020</t>
+          <t>06/10/2020</t>
         </is>
       </c>
       <c r="D103" s="5" t="inlineStr">
@@ -41555,7 +41555,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>06.10.2020</t>
+          <t>06/10/2020</t>
         </is>
       </c>
       <c r="D104" s="5" t="inlineStr">
@@ -41599,7 +41599,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>06.10.2020</t>
+          <t>06/10/2020</t>
         </is>
       </c>
       <c r="D105" s="5" t="inlineStr">
@@ -41643,7 +41643,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>06.10.2020</t>
+          <t>06/10/2020</t>
         </is>
       </c>
       <c r="D106" s="5" t="inlineStr">
@@ -41687,7 +41687,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>06.10.2020</t>
+          <t>06/10/2020</t>
         </is>
       </c>
       <c r="D107" s="5" t="inlineStr">
@@ -41731,7 +41731,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>06.10.2020</t>
+          <t>06/10/2020</t>
         </is>
       </c>
       <c r="D108" s="5" t="inlineStr">
@@ -41775,7 +41775,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>06.10.2020</t>
+          <t>06/10/2020</t>
         </is>
       </c>
       <c r="D109" s="5" t="inlineStr">
@@ -41819,7 +41819,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>06.10.2020</t>
+          <t>06/10/2020</t>
         </is>
       </c>
       <c r="D110" s="5" t="inlineStr">
@@ -41863,7 +41863,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D111" s="5" t="inlineStr">
@@ -41907,7 +41907,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D112" s="5" t="inlineStr">
@@ -41951,7 +41951,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D113" s="5" t="inlineStr">
@@ -41995,7 +41995,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D114" s="5" t="inlineStr">
@@ -42039,7 +42039,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D115" s="5" t="inlineStr">
@@ -42083,7 +42083,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D116" s="5" t="inlineStr">
@@ -42127,7 +42127,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D117" s="5" t="inlineStr">
@@ -42171,7 +42171,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D118" s="5" t="inlineStr">
@@ -42213,7 +42213,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>06.10.2020</t>
+          <t>06/10/2020</t>
         </is>
       </c>
       <c r="D119" s="5" t="inlineStr">
@@ -42255,7 +42255,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D120" s="5" t="inlineStr">
@@ -42297,7 +42297,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D121" s="5" t="inlineStr">
@@ -42339,7 +42339,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D122" s="5" t="inlineStr">
@@ -42381,7 +42381,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>06.11.2020</t>
+          <t>06/11/2020</t>
         </is>
       </c>
       <c r="D123" s="5" t="inlineStr">
@@ -42425,7 +42425,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>06.11.2020</t>
+          <t>06/11/2020</t>
         </is>
       </c>
       <c r="D124" s="5" t="inlineStr">
@@ -42469,7 +42469,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>06.11.2020</t>
+          <t>06/11/2020</t>
         </is>
       </c>
       <c r="D125" s="5" t="inlineStr">
@@ -42513,7 +42513,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>06.11.2020</t>
+          <t>06/11/2020</t>
         </is>
       </c>
       <c r="D126" s="5" t="inlineStr">
@@ -42557,7 +42557,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>06.11.2020</t>
+          <t>06/11/2020</t>
         </is>
       </c>
       <c r="D127" s="5" t="inlineStr">
@@ -42601,7 +42601,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>06.11.2020</t>
+          <t>06/11/2020</t>
         </is>
       </c>
       <c r="D128" s="5" t="inlineStr">
@@ -42645,7 +42645,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>06.11.2020</t>
+          <t>06/11/2020</t>
         </is>
       </c>
       <c r="D129" s="5" t="inlineStr">
@@ -42689,7 +42689,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>06.11.2020</t>
+          <t>06/11/2020</t>
         </is>
       </c>
       <c r="D130" s="5" t="inlineStr">
@@ -42731,7 +42731,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>06.12.2020</t>
+          <t>06/12/2020</t>
         </is>
       </c>
       <c r="D131" s="5" t="inlineStr">
@@ -42775,7 +42775,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>06.12.2020</t>
+          <t>06/12/2020</t>
         </is>
       </c>
       <c r="D132" s="5" t="inlineStr">
@@ -42819,7 +42819,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>06.12.2020</t>
+          <t>06/12/2020</t>
         </is>
       </c>
       <c r="D133" s="5" t="inlineStr">
@@ -42863,7 +42863,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>06.12.2020</t>
+          <t>06/12/2020</t>
         </is>
       </c>
       <c r="D134" s="5" t="inlineStr">
@@ -42907,7 +42907,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>06.12.2020</t>
+          <t>06/12/2020</t>
         </is>
       </c>
       <c r="D135" s="5" t="inlineStr">
@@ -42951,7 +42951,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>06.12.2020</t>
+          <t>06/12/2020</t>
         </is>
       </c>
       <c r="D136" s="5" t="inlineStr">
@@ -42995,7 +42995,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>06.12.2020</t>
+          <t>06/12/2020</t>
         </is>
       </c>
       <c r="D137" s="5" t="inlineStr">
@@ -43039,7 +43039,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>06.12.2020</t>
+          <t>06/12/2020</t>
         </is>
       </c>
       <c r="D138" s="5" t="inlineStr">
@@ -43083,7 +43083,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>06.12.2020</t>
+          <t>06/12/2020</t>
         </is>
       </c>
       <c r="D139" s="5" t="inlineStr">
@@ -43125,7 +43125,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>06.12.2020</t>
+          <t>06/12/2020</t>
         </is>
       </c>
       <c r="D140" s="5" t="inlineStr">
@@ -48216,7 +48216,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>06.01.2020</t>
+          <t>06/01/2020</t>
         </is>
       </c>
       <c r="D272" s="5" t="inlineStr">
@@ -48544,7 +48544,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>06.01.2020</t>
+          <t>06/01/2020</t>
         </is>
       </c>
       <c r="D2" s="5" t="inlineStr">
@@ -48588,7 +48588,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>06.01.2020</t>
+          <t>06/01/2020</t>
         </is>
       </c>
       <c r="D3" s="5" t="inlineStr">
@@ -48632,7 +48632,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>06.01.2020</t>
+          <t>06/01/2020</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
@@ -48676,7 +48676,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>06.01.2020</t>
+          <t>06/01/2020</t>
         </is>
       </c>
       <c r="D5" s="5" t="inlineStr">
@@ -48720,7 +48720,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>06.02.2020</t>
+          <t>06/02/2020</t>
         </is>
       </c>
       <c r="D6" s="5" t="inlineStr">
@@ -48764,7 +48764,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>06.02.2020</t>
+          <t>06/02/2020</t>
         </is>
       </c>
       <c r="D7" s="5" t="inlineStr">
@@ -48808,7 +48808,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>06.02.2020</t>
+          <t>06/02/2020</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
@@ -48852,7 +48852,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>06.02.2020</t>
+          <t>06/02/2020</t>
         </is>
       </c>
       <c r="D9" s="5" t="inlineStr">
@@ -48896,7 +48896,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>06.02.2020</t>
+          <t>06/02/2020</t>
         </is>
       </c>
       <c r="D10" s="5" t="inlineStr">
@@ -48940,7 +48940,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>06.03.2020</t>
+          <t>06/03/2020</t>
         </is>
       </c>
       <c r="D11" s="5" t="inlineStr">
@@ -48984,7 +48984,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>06.03.2020</t>
+          <t>06/03/2020</t>
         </is>
       </c>
       <c r="D12" s="5" t="inlineStr">
@@ -49028,7 +49028,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>06.03.2020</t>
+          <t>06/03/2020</t>
         </is>
       </c>
       <c r="D13" s="5" t="inlineStr">
@@ -49072,7 +49072,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>06.03.2020</t>
+          <t>06/03/2020</t>
         </is>
       </c>
       <c r="D14" s="5" t="inlineStr">
@@ -49116,7 +49116,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>06.03.2020</t>
+          <t>06/03/2020</t>
         </is>
       </c>
       <c r="D15" s="5" t="inlineStr">
@@ -49160,7 +49160,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>06.03.2020</t>
+          <t>06/03/2020</t>
         </is>
       </c>
       <c r="D16" s="5" t="inlineStr">
@@ -49204,7 +49204,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>06.03.2020</t>
+          <t>06/03/2020</t>
         </is>
       </c>
       <c r="D17" s="5" t="inlineStr">
@@ -49248,7 +49248,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>06.03.2020</t>
+          <t>06/03/2020</t>
         </is>
       </c>
       <c r="D18" s="5" t="inlineStr">
@@ -49292,7 +49292,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>06.03.2020</t>
+          <t>06/03/2020</t>
         </is>
       </c>
       <c r="D19" s="5" t="inlineStr">
@@ -49336,7 +49336,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>06.03.2020</t>
+          <t>06/03/2020</t>
         </is>
       </c>
       <c r="D20" s="5" t="inlineStr">
@@ -49380,7 +49380,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>06.03.2020</t>
+          <t>06/03/2020</t>
         </is>
       </c>
       <c r="D21" s="5" t="inlineStr">
@@ -49424,7 +49424,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>06.03.2020</t>
+          <t>06/03/2020</t>
         </is>
       </c>
       <c r="D22" s="5" t="inlineStr">
@@ -49468,7 +49468,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>06.03.2020</t>
+          <t>06/03/2020</t>
         </is>
       </c>
       <c r="D23" s="5" t="inlineStr">
@@ -49512,7 +49512,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>06.03.2020</t>
+          <t>06/03/2020</t>
         </is>
       </c>
       <c r="D24" s="5" t="inlineStr">
@@ -49556,7 +49556,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>06.03.2020</t>
+          <t>06/03/2020</t>
         </is>
       </c>
       <c r="D25" s="5" t="inlineStr">
@@ -49600,7 +49600,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>06.03.2020</t>
+          <t>06/03/2020</t>
         </is>
       </c>
       <c r="D26" s="5" t="inlineStr">
@@ -49644,7 +49644,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>06.03.2020</t>
+          <t>06/03/2020</t>
         </is>
       </c>
       <c r="D27" s="5" t="inlineStr">
@@ -49688,7 +49688,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>06.03.2020</t>
+          <t>06/03/2020</t>
         </is>
       </c>
       <c r="D28" s="5" t="inlineStr">
@@ -49732,7 +49732,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>06.03.2020</t>
+          <t>06/03/2020</t>
         </is>
       </c>
       <c r="D29" s="5" t="inlineStr">
@@ -49776,7 +49776,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>06.03.2020</t>
+          <t>06/03/2020</t>
         </is>
       </c>
       <c r="D30" s="5" t="inlineStr">
@@ -49820,7 +49820,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>06.03.2020</t>
+          <t>06/03/2020</t>
         </is>
       </c>
       <c r="D31" s="5" t="inlineStr">
@@ -49864,7 +49864,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>06.03.2020</t>
+          <t>06/03/2020</t>
         </is>
       </c>
       <c r="D32" s="5" t="inlineStr">
@@ -49908,7 +49908,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>06.03.2020</t>
+          <t>06/03/2020</t>
         </is>
       </c>
       <c r="D33" s="5" t="inlineStr">
@@ -49952,7 +49952,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>06.03.2020</t>
+          <t>06/03/2020</t>
         </is>
       </c>
       <c r="D34" s="5" t="inlineStr">
@@ -49996,7 +49996,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>06.03.2020</t>
+          <t>06/03/2020</t>
         </is>
       </c>
       <c r="D35" s="5" t="inlineStr">
@@ -50040,7 +50040,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>06.03.2020</t>
+          <t>06/03/2020</t>
         </is>
       </c>
       <c r="D36" s="5" t="inlineStr">
@@ -50084,7 +50084,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>06.03.2020</t>
+          <t>06/03/2020</t>
         </is>
       </c>
       <c r="D37" s="5" t="inlineStr">
@@ -50128,7 +50128,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>06.03.2020</t>
+          <t>06/03/2020</t>
         </is>
       </c>
       <c r="D38" s="5" t="inlineStr">
@@ -50172,7 +50172,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>06.03.2020</t>
+          <t>06/03/2020</t>
         </is>
       </c>
       <c r="D39" s="5" t="inlineStr">
@@ -50216,7 +50216,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>06.03.2020</t>
+          <t>06/03/2020</t>
         </is>
       </c>
       <c r="D40" s="5" t="inlineStr">
@@ -50260,7 +50260,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>06.03.2020</t>
+          <t>06/03/2020</t>
         </is>
       </c>
       <c r="D41" s="5" t="inlineStr">
@@ -50304,7 +50304,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>06.03.2020</t>
+          <t>06/03/2020</t>
         </is>
       </c>
       <c r="D42" s="5" t="inlineStr">
@@ -50348,7 +50348,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>06.03.2020</t>
+          <t>06/03/2020</t>
         </is>
       </c>
       <c r="D43" s="5" t="inlineStr">
@@ -50392,7 +50392,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>06.03.2020</t>
+          <t>06/03/2020</t>
         </is>
       </c>
       <c r="D44" s="5" t="inlineStr">
@@ -50436,7 +50436,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>06.03.2020</t>
+          <t>06/03/2020</t>
         </is>
       </c>
       <c r="D45" s="5" t="inlineStr">
@@ -50480,7 +50480,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>06.03.2020</t>
+          <t>06/03/2020</t>
         </is>
       </c>
       <c r="D46" s="5" t="inlineStr">
@@ -50524,7 +50524,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>06.04.2020</t>
+          <t>06/04/2020</t>
         </is>
       </c>
       <c r="D47" s="5" t="inlineStr">
@@ -50568,7 +50568,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>06.04.2020</t>
+          <t>06/04/2020</t>
         </is>
       </c>
       <c r="D48" s="5" t="inlineStr">
@@ -50612,7 +50612,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>06.04.2020</t>
+          <t>06/04/2020</t>
         </is>
       </c>
       <c r="D49" s="5" t="inlineStr">
@@ -50656,7 +50656,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>06.04.2020</t>
+          <t>06/04/2020</t>
         </is>
       </c>
       <c r="D50" s="5" t="inlineStr">
@@ -50700,7 +50700,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>06.04.2020</t>
+          <t>06/04/2020</t>
         </is>
       </c>
       <c r="D51" s="5" t="inlineStr">
@@ -50742,7 +50742,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>06.01.2020</t>
+          <t>06/01/2020</t>
         </is>
       </c>
       <c r="D52" s="5" t="inlineStr">
@@ -50784,7 +50784,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>06.02.2020</t>
+          <t>06/02/2020</t>
         </is>
       </c>
       <c r="D53" s="5" t="inlineStr">
@@ -50826,7 +50826,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>06.03.2020</t>
+          <t>06/03/2020</t>
         </is>
       </c>
       <c r="D54" s="5" t="inlineStr">
@@ -50868,7 +50868,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>06.04.2020</t>
+          <t>06/04/2020</t>
         </is>
       </c>
       <c r="D55" s="5" t="inlineStr">
@@ -50910,7 +50910,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>06.01.2020</t>
+          <t>06/01/2020</t>
         </is>
       </c>
       <c r="D56" s="5" t="inlineStr">
@@ -50954,7 +50954,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>06.02.2020</t>
+          <t>06/02/2020</t>
         </is>
       </c>
       <c r="D57" s="5" t="inlineStr">
@@ -50998,7 +50998,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>06.03.2020</t>
+          <t>06/03/2020</t>
         </is>
       </c>
       <c r="D58" s="5" t="inlineStr">
@@ -51042,7 +51042,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>06.04.2020</t>
+          <t>06/04/2020</t>
         </is>
       </c>
       <c r="D59" s="5" t="inlineStr">
@@ -51086,7 +51086,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>06.01.2020</t>
+          <t>06/01/2020</t>
         </is>
       </c>
       <c r="D60" s="5" t="inlineStr">
@@ -51128,7 +51128,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D61" s="5" t="inlineStr">
@@ -51172,7 +51172,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D62" s="5" t="inlineStr">
@@ -51216,7 +51216,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D63" s="5" t="inlineStr">
@@ -51260,7 +51260,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D64" s="5" t="inlineStr">
@@ -51304,7 +51304,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D65" s="5" t="inlineStr">
@@ -51348,7 +51348,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D66" s="5" t="inlineStr">
@@ -51392,7 +51392,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D67" s="5" t="inlineStr">
@@ -51436,7 +51436,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D68" s="5" t="inlineStr">
@@ -51480,7 +51480,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D69" s="5" t="inlineStr">
@@ -51524,7 +51524,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D70" s="5" t="inlineStr">
@@ -51568,7 +51568,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D71" s="5" t="inlineStr">
@@ -51612,7 +51612,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D72" s="5" t="inlineStr">
@@ -51656,7 +51656,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D73" s="5" t="inlineStr">
@@ -51700,7 +51700,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D74" s="5" t="inlineStr">
@@ -51744,7 +51744,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D75" s="5" t="inlineStr">
@@ -51788,7 +51788,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D76" s="5" t="inlineStr">
@@ -51832,7 +51832,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D77" s="5" t="inlineStr">
@@ -51876,7 +51876,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D78" s="5" t="inlineStr">
@@ -51920,7 +51920,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D79" s="5" t="inlineStr">
@@ -51964,7 +51964,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D80" s="5" t="inlineStr">
@@ -52008,7 +52008,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>06.10.2020</t>
+          <t>06/10/2020</t>
         </is>
       </c>
       <c r="D81" s="5" t="inlineStr">
@@ -52052,7 +52052,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>06.10.2020</t>
+          <t>06/10/2020</t>
         </is>
       </c>
       <c r="D82" s="5" t="inlineStr">
@@ -52096,7 +52096,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>06.10.2020</t>
+          <t>06/10/2020</t>
         </is>
       </c>
       <c r="D83" s="5" t="inlineStr">
@@ -52140,7 +52140,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>06.10.2020</t>
+          <t>06/10/2020</t>
         </is>
       </c>
       <c r="D84" s="5" t="inlineStr">
@@ -52184,7 +52184,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>06.10.2020</t>
+          <t>06/10/2020</t>
         </is>
       </c>
       <c r="D85" s="5" t="inlineStr">
@@ -52228,7 +52228,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>06.10.2020</t>
+          <t>06/10/2020</t>
         </is>
       </c>
       <c r="D86" s="5" t="inlineStr">
@@ -52272,7 +52272,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>06.10.2020</t>
+          <t>06/10/2020</t>
         </is>
       </c>
       <c r="D87" s="5" t="inlineStr">
@@ -52316,7 +52316,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>06.10.2020</t>
+          <t>06/10/2020</t>
         </is>
       </c>
       <c r="D88" s="5" t="inlineStr">
@@ -52360,7 +52360,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>06.10.2020</t>
+          <t>06/10/2020</t>
         </is>
       </c>
       <c r="D89" s="5" t="inlineStr">
@@ -52404,7 +52404,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>06.10.2020</t>
+          <t>06/10/2020</t>
         </is>
       </c>
       <c r="D90" s="5" t="inlineStr">
@@ -52448,7 +52448,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>06.10.2020</t>
+          <t>06/10/2020</t>
         </is>
       </c>
       <c r="D91" s="5" t="inlineStr">
@@ -52492,7 +52492,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>06.10.2020</t>
+          <t>06/10/2020</t>
         </is>
       </c>
       <c r="D92" s="5" t="inlineStr">
@@ -52536,7 +52536,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>06.10.2020</t>
+          <t>06/10/2020</t>
         </is>
       </c>
       <c r="D93" s="5" t="inlineStr">
@@ -52580,7 +52580,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>06.10.2020</t>
+          <t>06/10/2020</t>
         </is>
       </c>
       <c r="D94" s="5" t="inlineStr">
@@ -52624,7 +52624,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D95" s="5" t="inlineStr">
@@ -52668,7 +52668,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D96" s="5" t="inlineStr">
@@ -52712,7 +52712,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D97" s="5" t="inlineStr">
@@ -52756,7 +52756,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D98" s="5" t="inlineStr">
@@ -52800,7 +52800,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>06.07.2020</t>
+          <t>06/07/2020</t>
         </is>
       </c>
       <c r="D99" s="5" t="inlineStr">
@@ -52842,7 +52842,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D100" s="5" t="inlineStr">
@@ -52884,7 +52884,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D101" s="5" t="inlineStr">
@@ -52926,7 +52926,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>06.10.2020</t>
+          <t>06/10/2020</t>
         </is>
       </c>
       <c r="D102" s="5" t="inlineStr">
@@ -52968,7 +52968,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>06.07.2020</t>
+          <t>06/07/2020</t>
         </is>
       </c>
       <c r="D103" s="5" t="inlineStr">
@@ -53012,7 +53012,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D104" s="5" t="inlineStr">
@@ -53056,7 +53056,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D105" s="5" t="inlineStr">
@@ -53100,7 +53100,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>06.10.2020</t>
+          <t>06/10/2020</t>
         </is>
       </c>
       <c r="D106" s="5" t="inlineStr">
@@ -53144,7 +53144,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D107" s="5" t="inlineStr">
@@ -53188,7 +53188,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D108" s="5" t="inlineStr">
@@ -53232,7 +53232,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D109" s="5" t="inlineStr">
@@ -53276,7 +53276,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D110" s="5" t="inlineStr">
@@ -53320,7 +53320,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D111" s="5" t="inlineStr">
@@ -53364,7 +53364,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D112" s="5" t="inlineStr">
@@ -53408,7 +53408,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D113" s="5" t="inlineStr">
@@ -53452,7 +53452,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D114" s="5" t="inlineStr">
@@ -53496,7 +53496,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D115" s="5" t="inlineStr">
@@ -53540,7 +53540,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D116" s="5" t="inlineStr">
@@ -53582,7 +53582,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D117" s="5" t="inlineStr">
@@ -53624,7 +53624,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D118" s="5" t="inlineStr">
@@ -53666,7 +53666,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>06.11.2020</t>
+          <t>06/11/2020</t>
         </is>
       </c>
       <c r="D119" s="5" t="inlineStr">
@@ -53710,7 +53710,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>06.11.2020</t>
+          <t>06/11/2020</t>
         </is>
       </c>
       <c r="D120" s="5" t="inlineStr">
@@ -53754,7 +53754,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>06.11.2020</t>
+          <t>06/11/2020</t>
         </is>
       </c>
       <c r="D121" s="5" t="inlineStr">
@@ -53798,7 +53798,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>06.11.2020</t>
+          <t>06/11/2020</t>
         </is>
       </c>
       <c r="D122" s="5" t="inlineStr">
@@ -53842,7 +53842,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>06.11.2020</t>
+          <t>06/11/2020</t>
         </is>
       </c>
       <c r="D123" s="5" t="inlineStr">
@@ -53886,7 +53886,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>06.11.2020</t>
+          <t>06/11/2020</t>
         </is>
       </c>
       <c r="D124" s="5" t="inlineStr">
@@ -53930,7 +53930,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>06.11.2020</t>
+          <t>06/11/2020</t>
         </is>
       </c>
       <c r="D125" s="5" t="inlineStr">
@@ -53974,7 +53974,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>06.11.2020</t>
+          <t>06/11/2020</t>
         </is>
       </c>
       <c r="D126" s="5" t="inlineStr">
@@ -54016,7 +54016,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>06.11.2020</t>
+          <t>06/11/2020</t>
         </is>
       </c>
       <c r="D127" s="5" t="inlineStr">
@@ -54060,7 +54060,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>06.12.2020</t>
+          <t>06/12/2020</t>
         </is>
       </c>
       <c r="D128" s="5" t="inlineStr">
@@ -54104,7 +54104,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>06.12.2020</t>
+          <t>06/12/2020</t>
         </is>
       </c>
       <c r="D129" s="5" t="inlineStr">
@@ -54148,7 +54148,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>06.12.2020</t>
+          <t>06/12/2020</t>
         </is>
       </c>
       <c r="D130" s="5" t="inlineStr">
@@ -54192,7 +54192,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>06.12.2020</t>
+          <t>06/12/2020</t>
         </is>
       </c>
       <c r="D131" s="5" t="inlineStr">
@@ -54236,7 +54236,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>06.12.2020</t>
+          <t>06/12/2020</t>
         </is>
       </c>
       <c r="D132" s="5" t="inlineStr">
@@ -54280,7 +54280,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>06.12.2020</t>
+          <t>06/12/2020</t>
         </is>
       </c>
       <c r="D133" s="5" t="inlineStr">
@@ -54359,7 +54359,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>06.12.2020</t>
+          <t>06/12/2020</t>
         </is>
       </c>
       <c r="D135" s="5" t="inlineStr">
@@ -54442,7 +54442,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>06.12.2020</t>
+          <t>06/12/2020</t>
         </is>
       </c>
       <c r="D137" s="5" t="inlineStr">
@@ -60202,7 +60202,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>06.01.2020</t>
+          <t>06/01/2020</t>
         </is>
       </c>
       <c r="D2" s="5" t="inlineStr">
@@ -60337,7 +60337,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>06.01.2020</t>
+          <t>06/01/2020</t>
         </is>
       </c>
       <c r="D2" s="5" t="inlineStr">
@@ -60379,7 +60379,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>06.01.2020</t>
+          <t>06/01/2020</t>
         </is>
       </c>
       <c r="D3" s="5" t="inlineStr">
@@ -60421,7 +60421,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>06.02.2020</t>
+          <t>06/02/2020</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
@@ -60463,7 +60463,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>06.02.2020</t>
+          <t>06/02/2020</t>
         </is>
       </c>
       <c r="D5" s="5" t="inlineStr">
@@ -60505,7 +60505,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>06.03.2020</t>
+          <t>06/03/2020</t>
         </is>
       </c>
       <c r="D6" s="5" t="inlineStr">
@@ -60547,7 +60547,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>06.03.2020</t>
+          <t>06/03/2020</t>
         </is>
       </c>
       <c r="D7" s="5" t="inlineStr">
@@ -60589,7 +60589,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>06.04.2020</t>
+          <t>06/04/2020</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
@@ -60631,7 +60631,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>06.04.2020</t>
+          <t>06/04/2020</t>
         </is>
       </c>
       <c r="D9" s="5" t="inlineStr">
@@ -60675,7 +60675,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>06.04.2020</t>
+          <t>06/04/2020</t>
         </is>
       </c>
       <c r="D10" s="5" t="inlineStr">
@@ -60719,7 +60719,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>06.04.2020</t>
+          <t>06/04/2020</t>
         </is>
       </c>
       <c r="D11" s="5" t="inlineStr">
@@ -60763,7 +60763,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>06.04.2020</t>
+          <t>06/04/2020</t>
         </is>
       </c>
       <c r="D12" s="5" t="inlineStr">
@@ -60805,7 +60805,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>06.04.2020</t>
+          <t>06/04/2020</t>
         </is>
       </c>
       <c r="D13" s="5" t="inlineStr">
@@ -60847,7 +60847,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>06.07.2020</t>
+          <t>06/07/2020</t>
         </is>
       </c>
       <c r="D14" s="5" t="inlineStr">
@@ -60889,7 +60889,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>06.07.2020</t>
+          <t>06/07/2020</t>
         </is>
       </c>
       <c r="D15" s="5" t="inlineStr">
@@ -60931,7 +60931,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>06.04.2020</t>
+          <t>06/04/2020</t>
         </is>
       </c>
       <c r="D16" s="5" t="inlineStr">
@@ -60975,7 +60975,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D17" s="5" t="inlineStr">
@@ -61019,7 +61019,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D18" s="5" t="inlineStr">
@@ -61063,7 +61063,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D19" s="5" t="inlineStr">
@@ -61107,7 +61107,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D20" s="5" t="inlineStr">
@@ -61149,7 +61149,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D21" s="5" t="inlineStr">
@@ -61191,7 +61191,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D22" s="5" t="inlineStr">
@@ -61235,7 +61235,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D23" s="5" t="inlineStr">
@@ -61279,7 +61279,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>06.09.2020</t>
+          <t>06/09/2020</t>
         </is>
       </c>
       <c r="D24" s="5" t="inlineStr">
@@ -61321,7 +61321,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>06.10.2020</t>
+          <t>06/10/2020</t>
         </is>
       </c>
       <c r="D25" s="5" t="inlineStr">
@@ -61365,7 +61365,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>06.10.2020</t>
+          <t>06/10/2020</t>
         </is>
       </c>
       <c r="D26" s="5" t="inlineStr">
@@ -61407,7 +61407,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>06.11.2020</t>
+          <t>06/11/2020</t>
         </is>
       </c>
       <c r="D27" s="5" t="inlineStr">
@@ -61451,7 +61451,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>06.11.2020</t>
+          <t>06/11/2020</t>
         </is>
       </c>
       <c r="D28" s="5" t="inlineStr">
@@ -61493,7 +61493,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>06.11.2020</t>
+          <t>06/11/2020</t>
         </is>
       </c>
       <c r="D29" s="5" t="inlineStr">
@@ -61535,7 +61535,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>06.11.2020</t>
+          <t>06/11/2020</t>
         </is>
       </c>
       <c r="D30" s="5" t="inlineStr">
@@ -61579,7 +61579,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>06.11.2020</t>
+          <t>06/11/2020</t>
         </is>
       </c>
       <c r="D31" s="5" t="inlineStr">
@@ -61621,7 +61621,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>06.11.2020</t>
+          <t>06/11/2020</t>
         </is>
       </c>
       <c r="D32" s="5" t="inlineStr">
@@ -61665,7 +61665,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>06.11.2020</t>
+          <t>06/11/2020</t>
         </is>
       </c>
       <c r="D33" s="5" t="inlineStr">
@@ -61709,7 +61709,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>06.12.2020</t>
+          <t>06/12/2020</t>
         </is>
       </c>
       <c r="D34" s="5" t="inlineStr">
@@ -61753,7 +61753,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>06.12.2020</t>
+          <t>06/12/2020</t>
         </is>
       </c>
       <c r="D35" s="5" t="inlineStr">
@@ -61797,7 +61797,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>06.12.2020</t>
+          <t>06/12/2020</t>
         </is>
       </c>
       <c r="D36" s="5" t="inlineStr">
@@ -61841,7 +61841,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>06.12.2020</t>
+          <t>06/12/2020</t>
         </is>
       </c>
       <c r="D37" s="5" t="inlineStr">
@@ -63356,7 +63356,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>06.01.2020</t>
+          <t>06/01/2020</t>
         </is>
       </c>
       <c r="D2" s="5" t="inlineStr">
@@ -63400,7 +63400,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>06.03.2020</t>
+          <t>06/03/2020</t>
         </is>
       </c>
       <c r="D3" s="5" t="inlineStr">
@@ -63444,7 +63444,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>06.04.2020</t>
+          <t>06/04/2020</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
@@ -63488,7 +63488,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="D5" s="5" t="inlineStr">
@@ -63662,7 +63662,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>06.02.2020</t>
+          <t>06/02/2020</t>
         </is>
       </c>
       <c r="D2" s="5" t="inlineStr">
@@ -63706,7 +63706,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>06.11.2020</t>
+          <t>06/11/2020</t>
         </is>
       </c>
       <c r="D3" s="5" t="inlineStr">
